--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.3</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT8" t="n">
         <v>1.44</v>
@@ -2527,7 +2527,7 @@
         <v>1.44</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0.86</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU14" t="n">
         <v>0.83</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT17" t="n">
         <v>0.14</v>
@@ -4963,7 +4963,7 @@
         <v>1.89</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU22" t="n">
         <v>1.31</v>
@@ -6381,7 +6381,7 @@
         <v>1.33</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT29" t="n">
         <v>0.89</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT34" t="n">
         <v>1.3</v>
@@ -7805,7 +7805,7 @@
         <v>1.44</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU36" t="n">
         <v>0.91</v>
@@ -8008,7 +8008,7 @@
         <v>1.33</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU37" t="n">
         <v>0.75</v>
@@ -8411,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT39" t="n">
         <v>0.63</v>
@@ -9023,7 +9023,7 @@
         <v>2</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU42" t="n">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT45" t="n">
         <v>1.11</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT48" t="n">
         <v>1.3</v>
@@ -11050,7 +11050,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT52" t="n">
         <v>1.44</v>
@@ -11456,7 +11456,7 @@
         <v>0.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT54" t="n">
         <v>1.11</v>
@@ -11862,10 +11862,10 @@
         <v>3</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU56" t="n">
         <v>2.05</v>
@@ -12068,7 +12068,7 @@
         <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU57" t="n">
         <v>1.83</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT60" t="n">
         <v>1.67</v>
@@ -12877,10 +12877,10 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU61" t="n">
         <v>1.23</v>
@@ -13489,7 +13489,7 @@
         <v>2.25</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU64" t="n">
         <v>1.44</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU65" t="n">
         <v>1.52</v>
@@ -15316,7 +15316,7 @@
         <v>2</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU73" t="n">
         <v>1.16</v>
@@ -15722,7 +15722,7 @@
         <v>1</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU75" t="n">
         <v>1.52</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT76" t="n">
         <v>1.3</v>
@@ -16125,7 +16125,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT77" t="n">
         <v>0.14</v>
@@ -16734,10 +16734,10 @@
         <v>2.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU80" t="n">
         <v>1.38</v>
@@ -17143,7 +17143,7 @@
         <v>1.67</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU82" t="n">
         <v>1.44</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT88" t="n">
         <v>0.63</v>
@@ -19173,7 +19173,7 @@
         <v>1.63</v>
       </c>
       <c r="AT92" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU92" t="n">
         <v>1.63</v>
@@ -19579,7 +19579,7 @@
         <v>0.86</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU94" t="n">
         <v>1.07</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT96" t="n">
         <v>0.89</v>
@@ -20185,7 +20185,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT97" t="n">
         <v>1.44</v>
@@ -20594,7 +20594,7 @@
         <v>2.25</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU99" t="n">
         <v>1.44</v>
@@ -20997,7 +20997,7 @@
         <v>1.83</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT101" t="n">
         <v>1.67</v>
@@ -21203,7 +21203,7 @@
         <v>1.43</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU102" t="n">
         <v>1.08</v>
@@ -21812,7 +21812,7 @@
         <v>2</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU105" t="n">
         <v>1.16</v>
@@ -23027,7 +23027,7 @@
         <v>0.83</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT111" t="n">
         <v>0.63</v>
@@ -23433,7 +23433,7 @@
         <v>0.17</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT113" t="n">
         <v>0.14</v>
@@ -23639,7 +23639,7 @@
         <v>1.82</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU114" t="n">
         <v>2.46</v>
@@ -23839,10 +23839,10 @@
         <v>1.14</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU115" t="n">
         <v>1.16</v>
@@ -24042,10 +24042,10 @@
         <v>2.21</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU116" t="n">
         <v>1.29</v>
@@ -25057,7 +25057,7 @@
         <v>1.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT121" t="n">
         <v>1.82</v>
@@ -25263,7 +25263,7 @@
         <v>1.06</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AU122" t="n">
         <v>1.41</v>
@@ -25463,10 +25463,10 @@
         <v>1.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU123" t="n">
         <v>1.44</v>
@@ -27493,7 +27493,7 @@
         <v>2.13</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT133" t="n">
         <v>1.94</v>
@@ -27899,7 +27899,7 @@
         <v>2.06</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AT135" t="n">
         <v>1.94</v>
@@ -28102,10 +28102,10 @@
         <v>1.06</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU136" t="n">
         <v>1.25</v>
@@ -28305,10 +28305,10 @@
         <v>2.19</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU137" t="n">
         <v>1.44</v>
@@ -28360,6 +28360,615 @@
       </c>
       <c r="BK137" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5391671</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45039.45833333334</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Tataouine</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Ben Guerdane</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>4</v>
+      </c>
+      <c r="R138" t="n">
+        <v>6</v>
+      </c>
+      <c r="S138" t="n">
+        <v>10</v>
+      </c>
+      <c r="T138" t="n">
+        <v>6</v>
+      </c>
+      <c r="U138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V138" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5391672</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45039.45833333334</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>CS Sfaxien</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Olympique Béja</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>2</v>
+      </c>
+      <c r="R139" t="n">
+        <v>4</v>
+      </c>
+      <c r="S139" t="n">
+        <v>6</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U139" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V139" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5391670</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45041.54166666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>ES Tunis</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Etoile du Sahel</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>6</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
+      <c r="S140" t="n">
+        <v>6</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U140" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V140" t="n">
+        <v>6</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK140"/>
+  <dimension ref="A1:BK144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.86</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.89</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU18" t="n">
         <v>1.25</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT19" t="n">
         <v>0.14</v>
@@ -5166,7 +5166,7 @@
         <v>0.86</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU23" t="n">
         <v>0.83</v>
@@ -5369,7 +5369,7 @@
         <v>1.43</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU24" t="n">
         <v>1.08</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT26" t="n">
         <v>1.67</v>
@@ -6181,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU28" t="n">
         <v>1.16</v>
@@ -6790,7 +6790,7 @@
         <v>1.67</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU31" t="n">
         <v>1.23</v>
@@ -6990,7 +6990,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT32" t="n">
         <v>1.44</v>
@@ -7193,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT37" t="n">
         <v>2.11</v>
@@ -8414,7 +8414,7 @@
         <v>1.22</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>0.86</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU41" t="n">
         <v>0.9399999999999999</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
         <v>0</v>
@@ -9835,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU46" t="n">
         <v>1.16</v>
@@ -10035,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU47" t="n">
         <v>1.13</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT50" t="n">
         <v>1.67</v>
@@ -10850,7 +10850,7 @@
         <v>2</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU51" t="n">
         <v>1.83</v>
@@ -11253,10 +11253,10 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU53" t="n">
         <v>1.52</v>
@@ -11659,7 +11659,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT55" t="n">
         <v>0.44</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT58" t="n">
         <v>0.14</v>
@@ -13083,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU62" t="n">
         <v>2.17</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT64" t="n">
         <v>1.44</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT65" t="n">
         <v>1.56</v>
@@ -14098,7 +14098,7 @@
         <v>2.11</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU67" t="n">
         <v>1.23</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT68" t="n">
         <v>0.89</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT69" t="n">
         <v>1.11</v>
@@ -14910,7 +14910,7 @@
         <v>1.67</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU71" t="n">
         <v>1.47</v>
@@ -15516,10 +15516,10 @@
         <v>0.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU74" t="n">
         <v>1.48</v>
@@ -15719,7 +15719,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT75" t="n">
         <v>1.44</v>
@@ -16534,7 +16534,7 @@
         <v>1.44</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU79" t="n">
         <v>1.15</v>
@@ -17343,10 +17343,10 @@
         <v>0.6</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU83" t="n">
         <v>1.48</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT87" t="n">
         <v>1.11</v>
@@ -18361,7 +18361,7 @@
         <v>1.22</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU88" t="n">
         <v>1.3</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT90" t="n">
         <v>1.67</v>
@@ -18970,7 +18970,7 @@
         <v>1.89</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU91" t="n">
         <v>1.2</v>
@@ -19170,7 +19170,7 @@
         <v>2.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT92" t="n">
         <v>2.11</v>
@@ -19376,7 +19376,7 @@
         <v>1.44</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU93" t="n">
         <v>1.16</v>
@@ -20591,7 +20591,7 @@
         <v>1.17</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT99" t="n">
         <v>1.56</v>
@@ -20794,7 +20794,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT100" t="n">
         <v>1.3</v>
@@ -22218,7 +22218,7 @@
         <v>1.89</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU107" t="n">
         <v>1.2</v>
@@ -22418,10 +22418,10 @@
         <v>0.33</v>
       </c>
       <c r="AS108" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU108" t="n">
         <v>1.52</v>
@@ -22624,7 +22624,7 @@
         <v>1.67</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU109" t="n">
         <v>1.44</v>
@@ -22824,7 +22824,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT110" t="n">
         <v>0.89</v>
@@ -23030,7 +23030,7 @@
         <v>2.56</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU111" t="n">
         <v>2.15</v>
@@ -23636,7 +23636,7 @@
         <v>1.71</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT114" t="n">
         <v>1.56</v>
@@ -24245,7 +24245,7 @@
         <v>1.29</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT117" t="n">
         <v>1.06</v>
@@ -24448,10 +24448,10 @@
         <v>0.64</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AU118" t="n">
         <v>0.99</v>
@@ -24654,7 +24654,7 @@
         <v>1</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU119" t="n">
         <v>0.9</v>
@@ -24854,10 +24854,10 @@
         <v>1.14</v>
       </c>
       <c r="AS120" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU120" t="n">
         <v>1.37</v>
@@ -25060,7 +25060,7 @@
         <v>1.17</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU121" t="n">
         <v>1.5</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AT124" t="n">
         <v>1</v>
@@ -25869,10 +25869,10 @@
         <v>1.13</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU125" t="n">
         <v>1.16</v>
@@ -26072,10 +26072,10 @@
         <v>1.27</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU126" t="n">
         <v>1.57</v>
@@ -26275,10 +26275,10 @@
         <v>1.31</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU127" t="n">
         <v>0.99</v>
@@ -26478,10 +26478,10 @@
         <v>1.38</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU128" t="n">
         <v>1.52</v>
@@ -26684,7 +26684,7 @@
         <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU129" t="n">
         <v>0.96</v>
@@ -26884,10 +26884,10 @@
         <v>1.29</v>
       </c>
       <c r="AS130" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU130" t="n">
         <v>1.4</v>
@@ -27087,10 +27087,10 @@
         <v>0.76</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AU131" t="n">
         <v>1.16</v>
@@ -27293,7 +27293,7 @@
         <v>1</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU132" t="n">
         <v>1.01</v>
@@ -27496,7 +27496,7 @@
         <v>2.11</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU133" t="n">
         <v>2.2</v>
@@ -27696,7 +27696,7 @@
         <v>1.13</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT134" t="n">
         <v>1.06</v>
@@ -27902,7 +27902,7 @@
         <v>2.11</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AU135" t="n">
         <v>1.23</v>
@@ -28969,6 +28969,818 @@
       </c>
       <c r="BK140" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5391655</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45042.45833333334</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>EO Sidi Bouzid</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>AS Slimane</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0</v>
+      </c>
+      <c r="U141" t="n">
+        <v>0</v>
+      </c>
+      <c r="V141" t="n">
+        <v>0</v>
+      </c>
+      <c r="W141" t="n">
+        <v>0</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5391654</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45042.45833333334</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>CA Bizertin</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Hammam-Sousse</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2</v>
+      </c>
+      <c r="N142" t="n">
+        <v>4</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['73', '79']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['23', '75']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5391656</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45042.45833333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Stade Tunisien</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Métlaoui</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>2</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>2</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>3</v>
+      </c>
+      <c r="R143" t="n">
+        <v>4</v>
+      </c>
+      <c r="S143" t="n">
+        <v>7</v>
+      </c>
+      <c r="T143" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U143" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V143" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X143" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5391669</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45042.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Monastir</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Club Africain</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>5</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1</v>
+      </c>
+      <c r="S144" t="n">
+        <v>6</v>
+      </c>
+      <c r="T144" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U144" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V144" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -903,7 +903,7 @@
         <v>0.86</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU28" t="n">
         <v>1.16</v>
@@ -7193,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>2</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU51" t="n">
         <v>1.83</v>
@@ -11253,7 +11253,7 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT53" t="n">
         <v>1.78</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT65" t="n">
         <v>1.56</v>
@@ -14910,7 +14910,7 @@
         <v>1.67</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU71" t="n">
         <v>1.47</v>
@@ -15719,7 +15719,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT75" t="n">
         <v>1.44</v>
@@ -17346,7 +17346,7 @@
         <v>2</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU83" t="n">
         <v>1.48</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT90" t="n">
         <v>1.67</v>
@@ -22218,7 +22218,7 @@
         <v>1.89</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU107" t="n">
         <v>1.2</v>
@@ -22418,7 +22418,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT108" t="n">
         <v>0.7</v>
@@ -24451,7 +24451,7 @@
         <v>1.37</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="AU118" t="n">
         <v>0.99</v>
@@ -24854,7 +24854,7 @@
         <v>1.14</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AT120" t="n">
         <v>1.42</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="AT124" t="n">
         <v>1</v>
@@ -25872,7 +25872,7 @@
         <v>1.32</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.16</v>
@@ -26478,7 +26478,7 @@
         <v>1.38</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="AT128" t="n">
         <v>1.42</v>
@@ -26684,7 +26684,7 @@
         <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AU129" t="n">
         <v>0.96</v>
@@ -26884,7 +26884,7 @@
         <v>1.29</v>
       </c>
       <c r="AS130" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AT130" t="n">
         <v>1.37</v>
@@ -27090,7 +27090,7 @@
         <v>1.32</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="AU131" t="n">
         <v>1.16</v>
@@ -29017,10 +29017,10 @@
         <v>1</v>
       </c>
       <c r="M141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+7']</t>
         </is>
       </c>
       <c r="Q141" t="n">
@@ -29117,10 +29117,10 @@
         <v>1</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AU141" t="n">
         <v>1.52</v>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK144"/>
+  <dimension ref="A1:BK149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.86</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="AT3" t="n">
         <v>0.44</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.43</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.11</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.3</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.22</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT11" t="n">
         <v>1.67</v>
@@ -2933,7 +2933,7 @@
         <v>1.3</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.43</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT15" t="n">
         <v>1.67</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT16" t="n">
         <v>0.44</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="AT18" t="n">
         <v>0.7</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT19" t="n">
         <v>0.14</v>
@@ -4760,7 +4760,7 @@
         <v>1.3</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU21" t="n">
         <v>0.18</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="AT22" t="n">
         <v>1.44</v>
@@ -5369,7 +5369,7 @@
         <v>1.43</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU24" t="n">
         <v>1.08</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU28" t="n">
         <v>1.16</v>
@@ -6384,7 +6384,7 @@
         <v>2.56</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU29" t="n">
         <v>1.64</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT31" t="n">
         <v>0.7</v>
@@ -6990,10 +6990,10 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU32" t="n">
         <v>1.42</v>
@@ -7193,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>1.3</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU37" t="n">
         <v>0.75</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT38" t="n">
         <v>0.44</v>
@@ -8414,7 +8414,7 @@
         <v>1.22</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>2.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="AT40" t="n">
         <v>1.67</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT42" t="n">
         <v>1.44</v>
@@ -9226,7 +9226,7 @@
         <v>1.43</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.11</v>
+        <v>0.78</v>
       </c>
       <c r="AU43" t="n">
         <v>1.08</v>
@@ -9632,7 +9632,7 @@
         <v>2.56</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.11</v>
+        <v>0.78</v>
       </c>
       <c r="AU45" t="n">
         <v>1.95</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT46" t="n">
         <v>1.78</v>
@@ -10444,7 +10444,7 @@
         <v>2.11</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.11</v>
+        <v>0.78</v>
       </c>
       <c r="AU49" t="n">
         <v>1.25</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT50" t="n">
         <v>1.67</v>
@@ -10847,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU51" t="n">
         <v>1.83</v>
@@ -11053,7 +11053,7 @@
         <v>1.22</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU52" t="n">
         <v>1.88</v>
@@ -11253,7 +11253,7 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT53" t="n">
         <v>1.78</v>
@@ -11459,7 +11459,7 @@
         <v>1.22</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.11</v>
+        <v>0.78</v>
       </c>
       <c r="AU54" t="n">
         <v>1.4</v>
@@ -11865,7 +11865,7 @@
         <v>2.56</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU56" t="n">
         <v>2.05</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT57" t="n">
         <v>1.56</v>
@@ -12880,7 +12880,7 @@
         <v>1.22</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU61" t="n">
         <v>1.23</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT62" t="n">
         <v>0.7</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT65" t="n">
         <v>1.56</v>
@@ -14098,7 +14098,7 @@
         <v>2.11</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU67" t="n">
         <v>1.23</v>
@@ -14301,7 +14301,7 @@
         <v>1.3</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU68" t="n">
         <v>0.99</v>
@@ -14501,10 +14501,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.11</v>
+        <v>0.78</v>
       </c>
       <c r="AU69" t="n">
         <v>1.53</v>
@@ -14907,10 +14907,10 @@
         <v>0.75</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU71" t="n">
         <v>1.47</v>
@@ -15110,7 +15110,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT72" t="n">
         <v>1.67</v>
@@ -15313,7 +15313,7 @@
         <v>1.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT73" t="n">
         <v>1.56</v>
@@ -15719,7 +15719,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT75" t="n">
         <v>1.44</v>
@@ -16331,7 +16331,7 @@
         <v>1.3</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU78" t="n">
         <v>0.74</v>
@@ -16737,7 +16737,7 @@
         <v>1.22</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU80" t="n">
         <v>1.38</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="AT81" t="n">
         <v>0</v>
@@ -17140,7 +17140,7 @@
         <v>1.2</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT82" t="n">
         <v>1.56</v>
@@ -17346,7 +17346,7 @@
         <v>2</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU83" t="n">
         <v>1.48</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT84" t="n">
         <v>0</v>
@@ -17749,7 +17749,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT85" t="n">
         <v>0.44</v>
@@ -18158,7 +18158,7 @@
         <v>1.3</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.11</v>
+        <v>0.78</v>
       </c>
       <c r="AU87" t="n">
         <v>0.99</v>
@@ -18361,7 +18361,7 @@
         <v>1.22</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU88" t="n">
         <v>1.3</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT90" t="n">
         <v>1.67</v>
@@ -18967,7 +18967,7 @@
         <v>1.6</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="AT91" t="n">
         <v>1.78</v>
@@ -19170,10 +19170,10 @@
         <v>2.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT92" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU92" t="n">
         <v>1.63</v>
@@ -19985,7 +19985,7 @@
         <v>1.22</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU96" t="n">
         <v>1.5</v>
@@ -20188,7 +20188,7 @@
         <v>2.56</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU97" t="n">
         <v>2.19</v>
@@ -20388,7 +20388,7 @@
         <v>0</v>
       </c>
       <c r="AS98" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT98" t="n">
         <v>0</v>
@@ -21203,7 +21203,7 @@
         <v>1.43</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU102" t="n">
         <v>1.08</v>
@@ -21406,7 +21406,7 @@
         <v>1.3</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.11</v>
+        <v>0.78</v>
       </c>
       <c r="AU103" t="n">
         <v>0.89</v>
@@ -21809,7 +21809,7 @@
         <v>2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT105" t="n">
         <v>1.44</v>
@@ -22215,10 +22215,10 @@
         <v>0.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU107" t="n">
         <v>1.2</v>
@@ -22418,7 +22418,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT108" t="n">
         <v>0.7</v>
@@ -22621,7 +22621,7 @@
         <v>1.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT109" t="n">
         <v>1.78</v>
@@ -22824,10 +22824,10 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU110" t="n">
         <v>1.54</v>
@@ -23030,7 +23030,7 @@
         <v>2.56</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU111" t="n">
         <v>2.15</v>
@@ -23233,7 +23233,7 @@
         <v>2.11</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU112" t="n">
         <v>1.21</v>
@@ -23636,10 +23636,10 @@
         <v>1.71</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AU114" t="n">
         <v>2.46</v>
@@ -23839,10 +23839,10 @@
         <v>1.14</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.16</v>
@@ -24042,7 +24042,7 @@
         <v>2.21</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="AT116" t="n">
         <v>2.11</v>
@@ -24248,7 +24248,7 @@
         <v>1.83</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU117" t="n">
         <v>1.42</v>
@@ -24448,10 +24448,10 @@
         <v>0.64</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AU118" t="n">
         <v>0.99</v>
@@ -24651,10 +24651,10 @@
         <v>1.36</v>
       </c>
       <c r="AS119" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AU119" t="n">
         <v>0.9</v>
@@ -24854,10 +24854,10 @@
         <v>1.14</v>
       </c>
       <c r="AS120" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AU120" t="n">
         <v>1.37</v>
@@ -25057,10 +25057,10 @@
         <v>1.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU121" t="n">
         <v>1.5</v>
@@ -25260,10 +25260,10 @@
         <v>2.13</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU122" t="n">
         <v>1.41</v>
@@ -25463,10 +25463,10 @@
         <v>1.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="AU123" t="n">
         <v>1.44</v>
@@ -25666,10 +25666,10 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AT124" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.52</v>
@@ -25869,10 +25869,10 @@
         <v>1.13</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.16</v>
@@ -26072,10 +26072,10 @@
         <v>1.27</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AU126" t="n">
         <v>1.57</v>
@@ -26275,10 +26275,10 @@
         <v>1.31</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AU127" t="n">
         <v>0.99</v>
@@ -26478,10 +26478,10 @@
         <v>1.38</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AU128" t="n">
         <v>1.52</v>
@@ -26681,10 +26681,10 @@
         <v>1.13</v>
       </c>
       <c r="AS129" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT129" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AU129" t="n">
         <v>0.96</v>
@@ -26884,10 +26884,10 @@
         <v>1.29</v>
       </c>
       <c r="AS130" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AU130" t="n">
         <v>1.4</v>
@@ -27087,10 +27087,10 @@
         <v>0.76</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AU131" t="n">
         <v>1.16</v>
@@ -27290,10 +27290,10 @@
         <v>1.35</v>
       </c>
       <c r="AS132" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AU132" t="n">
         <v>1.01</v>
@@ -27696,10 +27696,10 @@
         <v>1.13</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU134" t="n">
         <v>2.28</v>
@@ -27899,7 +27899,7 @@
         <v>2.06</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT135" t="n">
         <v>1.83</v>
@@ -27990,31 +27990,31 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
         <v>2</v>
       </c>
-      <c r="N136" t="n">
-        <v>3</v>
-      </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>['28']</t>
+          <t>['-1', '-1']</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>['58', '89']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q136" t="n">
@@ -28102,10 +28102,10 @@
         <v>1.06</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU136" t="n">
         <v>1.25</v>
@@ -28305,7 +28305,7 @@
         <v>2.19</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT137" t="n">
         <v>2.11</v>
@@ -28505,13 +28505,13 @@
         <v>1.06</v>
       </c>
       <c r="AR138" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="AU138" t="n">
         <v>1.41</v>
@@ -28705,16 +28705,16 @@
         <v>1.55</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AR139" t="n">
         <v>1.59</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AU139" t="n">
         <v>1.53</v>
@@ -28917,7 +28917,7 @@
         <v>2.11</v>
       </c>
       <c r="AT140" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU140" t="n">
         <v>2.17</v>
@@ -29117,10 +29117,10 @@
         <v>1</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AT141" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AU141" t="n">
         <v>1.52</v>
@@ -29320,10 +29320,10 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AT142" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AU142" t="n">
         <v>0.99</v>
@@ -29523,10 +29523,10 @@
         <v>1.33</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AU143" t="n">
         <v>1.58</v>
@@ -29729,7 +29729,7 @@
         <v>1.83</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AU144" t="n">
         <v>1.39</v>
@@ -29781,6 +29781,1021 @@
       </c>
       <c r="BK144" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5391673</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45046.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Olympique Béja</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Tataouine</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>2</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['61', '79']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R145" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S145" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V145" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5741355</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45046.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>6</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Métlaoui</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Hammam-Sousse</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>2</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['25', '49']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T146" t="n">
+        <v>0</v>
+      </c>
+      <c r="U146" t="n">
+        <v>0</v>
+      </c>
+      <c r="V146" t="n">
+        <v>0</v>
+      </c>
+      <c r="W146" t="n">
+        <v>0</v>
+      </c>
+      <c r="X146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5741354</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45046.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>6</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Stade Tunisien</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>AS Slimane</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T147" t="n">
+        <v>0</v>
+      </c>
+      <c r="U147" t="n">
+        <v>0</v>
+      </c>
+      <c r="V147" t="n">
+        <v>0</v>
+      </c>
+      <c r="W147" t="n">
+        <v>0</v>
+      </c>
+      <c r="X147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5741353</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45046.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>6</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>EO Sidi Bouzid</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>CA Bizertin</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T148" t="n">
+        <v>0</v>
+      </c>
+      <c r="U148" t="n">
+        <v>0</v>
+      </c>
+      <c r="V148" t="n">
+        <v>0</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5391675</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45046.54166666666</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Club Africain</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Etoile du Sahel</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>5</v>
+      </c>
+      <c r="R149" t="n">
+        <v>3</v>
+      </c>
+      <c r="S149" t="n">
+        <v>8</v>
+      </c>
+      <c r="T149" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U149" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V149" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X149" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK149"/>
+  <dimension ref="A1:BK150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5775,7 +5775,7 @@
         <v>1.3</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>1.3</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>0.72</v>
@@ -8411,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT39" t="n">
         <v>0.9</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT48" t="n">
         <v>1.3</v>
@@ -10647,7 +10647,7 @@
         <v>1.4</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.71</v>
@@ -11050,7 +11050,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT52" t="n">
         <v>1.6</v>
@@ -12674,10 +12674,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU60" t="n">
         <v>1.67</v>
@@ -13895,7 +13895,7 @@
         <v>1.43</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.08</v>
@@ -16734,7 +16734,7 @@
         <v>2.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT80" t="n">
         <v>2.2</v>
@@ -17955,7 +17955,7 @@
         <v>2.11</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU86" t="n">
         <v>1.22</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT96" t="n">
         <v>0.8</v>
@@ -21000,7 +21000,7 @@
         <v>1.22</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU101" t="n">
         <v>1.43</v>
@@ -23433,7 +23433,7 @@
         <v>0.17</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT113" t="n">
         <v>0.14</v>
@@ -23842,7 +23842,7 @@
         <v>2.16</v>
       </c>
       <c r="AT115" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU115" t="n">
         <v>1.16</v>
@@ -24045,7 +24045,7 @@
         <v>1.89</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU116" t="n">
         <v>1.29</v>
@@ -25057,7 +25057,7 @@
         <v>1.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT121" t="n">
         <v>1.79</v>
@@ -27493,7 +27493,7 @@
         <v>2.13</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT133" t="n">
         <v>1.83</v>
@@ -28105,7 +28105,7 @@
         <v>1.89</v>
       </c>
       <c r="AT136" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU136" t="n">
         <v>1.25</v>
@@ -28308,7 +28308,7 @@
         <v>1.63</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU137" t="n">
         <v>1.44</v>
@@ -28711,7 +28711,7 @@
         <v>1.59</v>
       </c>
       <c r="AS139" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT139" t="n">
         <v>1.63</v>
@@ -28914,7 +28914,7 @@
         <v>2.24</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT140" t="n">
         <v>2.16</v>
@@ -30796,6 +30796,209 @@
       </c>
       <c r="BK149" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5391676</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45049.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>CS Sfaxien</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>ES Tunis</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>2</v>
+      </c>
+      <c r="R150" t="n">
+        <v>6</v>
+      </c>
+      <c r="S150" t="n">
+        <v>8</v>
+      </c>
+      <c r="T150" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U150" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X150" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK150"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT3" t="n">
         <v>0.44</v>
@@ -2730,7 +2730,7 @@
         <v>1.8</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.8</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT18" t="n">
         <v>0.7</v>
@@ -4557,7 +4557,7 @@
         <v>1.44</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU20" t="n">
         <v>1.14</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT22" t="n">
         <v>1.44</v>
@@ -8614,10 +8614,10 @@
         <v>2.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU40" t="n">
         <v>1.31</v>
@@ -15113,7 +15113,7 @@
         <v>1.8</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU72" t="n">
         <v>2.11</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT81" t="n">
         <v>0</v>
@@ -18767,7 +18767,7 @@
         <v>0.91</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.52</v>
@@ -18967,7 +18967,7 @@
         <v>1.6</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT91" t="n">
         <v>1.78</v>
@@ -22015,7 +22015,7 @@
         <v>0.86</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU106" t="n">
         <v>1.1</v>
@@ -22215,7 +22215,7 @@
         <v>0.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT107" t="n">
         <v>0.82</v>
@@ -24042,7 +24042,7 @@
         <v>2.21</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT116" t="n">
         <v>2</v>
@@ -24245,7 +24245,7 @@
         <v>1.29</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AT117" t="n">
         <v>1</v>
@@ -25466,7 +25466,7 @@
         <v>1.63</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU123" t="n">
         <v>1.44</v>
@@ -27496,7 +27496,7 @@
         <v>2</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AU133" t="n">
         <v>2.2</v>
@@ -27902,7 +27902,7 @@
         <v>2.16</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AU135" t="n">
         <v>1.23</v>
@@ -28102,7 +28102,7 @@
         <v>1.06</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT136" t="n">
         <v>1.11</v>
@@ -28511,7 +28511,7 @@
         <v>1</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU138" t="n">
         <v>1.41</v>
@@ -29726,7 +29726,7 @@
         <v>1.82</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AT144" t="n">
         <v>1.79</v>
@@ -30999,6 +30999,209 @@
       </c>
       <c r="BK150" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5391674</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45050.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>5</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Ben Guerdane</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Monastir</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>3</v>
+      </c>
+      <c r="M151" t="n">
+        <v>2</v>
+      </c>
+      <c r="N151" t="n">
+        <v>5</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['39', '65', '90+5']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['56', '71']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>3</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2</v>
+      </c>
+      <c r="S151" t="n">
+        <v>5</v>
+      </c>
+      <c r="T151" t="n">
+        <v>3</v>
+      </c>
+      <c r="U151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V151" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT8" t="n">
         <v>1.6</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT34" t="n">
         <v>1.3</v>
@@ -9226,7 +9226,7 @@
         <v>1.43</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU43" t="n">
         <v>1.08</v>
@@ -9632,7 +9632,7 @@
         <v>2.56</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU45" t="n">
         <v>1.95</v>
@@ -10444,7 +10444,7 @@
         <v>2.11</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.25</v>
@@ -11456,10 +11456,10 @@
         <v>0.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU54" t="n">
         <v>1.4</v>
@@ -12877,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT61" t="n">
         <v>2.2</v>
@@ -14504,7 +14504,7 @@
         <v>1.4</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU69" t="n">
         <v>1.53</v>
@@ -16125,7 +16125,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT77" t="n">
         <v>0.14</v>
@@ -18158,7 +18158,7 @@
         <v>1.3</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU87" t="n">
         <v>0.99</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT88" t="n">
         <v>0.9</v>
@@ -20997,7 +20997,7 @@
         <v>1.83</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT101" t="n">
         <v>1.5</v>
@@ -21406,7 +21406,7 @@
         <v>1.3</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU103" t="n">
         <v>0.89</v>
@@ -23842,7 +23842,7 @@
         <v>2.16</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU115" t="n">
         <v>1.16</v>
@@ -24248,7 +24248,7 @@
         <v>1.74</v>
       </c>
       <c r="AT117" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU117" t="n">
         <v>1.42</v>
@@ -25057,7 +25057,7 @@
         <v>1.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AT121" t="n">
         <v>1.79</v>
@@ -25260,7 +25260,7 @@
         <v>2.13</v>
       </c>
       <c r="AS122" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT122" t="n">
         <v>2.16</v>
@@ -27699,7 +27699,7 @@
         <v>1.79</v>
       </c>
       <c r="AT134" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU134" t="n">
         <v>2.28</v>
@@ -28105,7 +28105,7 @@
         <v>1.95</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU136" t="n">
         <v>1.25</v>
@@ -28508,7 +28508,7 @@
         <v>1.94</v>
       </c>
       <c r="AS138" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT138" t="n">
         <v>1.95</v>
@@ -28711,7 +28711,7 @@
         <v>1.59</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AT139" t="n">
         <v>1.63</v>
@@ -29932,7 +29932,7 @@
         <v>1.63</v>
       </c>
       <c r="AT145" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU145" t="n">
         <v>1.36</v>
@@ -30944,7 +30944,7 @@
         <v>2.11</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AT150" t="n">
         <v>2</v>
@@ -31202,6 +31202,209 @@
       </c>
       <c r="BK151" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5391679</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45052.5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>6</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Tataouine</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>CS Sfaxien</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>4</v>
+      </c>
+      <c r="N152" t="n">
+        <v>4</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['19', '45+2', '53', '58']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>2</v>
+      </c>
+      <c r="R152" t="n">
+        <v>2</v>
+      </c>
+      <c r="S152" t="n">
+        <v>4</v>
+      </c>
+      <c r="T152" t="n">
+        <v>4</v>
+      </c>
+      <c r="U152" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.3</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT6" t="n">
         <v>0.8</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT7" t="n">
         <v>2.2</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT12" t="n">
         <v>0.9</v>
@@ -3339,7 +3339,7 @@
         <v>0.86</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU14" t="n">
         <v>0.83</v>
@@ -3745,7 +3745,7 @@
         <v>1.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU16" t="n">
         <v>0.89</v>
@@ -4151,7 +4151,7 @@
         <v>2.3</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU18" t="n">
         <v>1.25</v>
@@ -4554,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT20" t="n">
         <v>1.5</v>
@@ -4757,7 +4757,7 @@
         <v>1.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT21" t="n">
         <v>0.8</v>
@@ -4963,7 +4963,7 @@
         <v>2.3</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU22" t="n">
         <v>1.31</v>
@@ -5166,7 +5166,7 @@
         <v>0.86</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU23" t="n">
         <v>0.83</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT30" t="n">
         <v>0.14</v>
@@ -6790,7 +6790,7 @@
         <v>1.8</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU31" t="n">
         <v>1.23</v>
@@ -7399,7 +7399,7 @@
         <v>1.1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU34" t="n">
         <v>1.28</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU35" t="n">
         <v>0.72</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU36" t="n">
         <v>0.91</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT37" t="n">
         <v>2.2</v>
@@ -8211,7 +8211,7 @@
         <v>1.8</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU38" t="n">
         <v>1.16</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU42" t="n">
         <v>0</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT44" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT47" t="n">
         <v>1.78</v>
@@ -10241,7 +10241,7 @@
         <v>1.4</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU48" t="n">
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -10647,7 +10647,7 @@
         <v>1.4</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU50" t="n">
         <v>1.71</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT51" t="n">
         <v>0.82</v>
@@ -11659,10 +11659,10 @@
         <v>0.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU55" t="n">
         <v>1.3</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU57" t="n">
         <v>1.83</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT58" t="n">
         <v>0.14</v>
@@ -12471,10 +12471,10 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU59" t="n">
         <v>0.58</v>
@@ -12677,7 +12677,7 @@
         <v>1.4</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU60" t="n">
         <v>1.67</v>
@@ -13080,10 +13080,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU62" t="n">
         <v>2.17</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT63" t="n">
         <v>0</v>
@@ -13486,10 +13486,10 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU64" t="n">
         <v>1.44</v>
@@ -13692,7 +13692,7 @@
         <v>0.91</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU65" t="n">
         <v>1.52</v>
@@ -13895,7 +13895,7 @@
         <v>1.43</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU66" t="n">
         <v>1.08</v>
@@ -14095,7 +14095,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT67" t="n">
         <v>0.9</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT68" t="n">
         <v>0.8</v>
@@ -14707,7 +14707,7 @@
         <v>0.86</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU70" t="n">
         <v>0.9399999999999999</v>
@@ -15110,7 +15110,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT72" t="n">
         <v>1.5</v>
@@ -15316,7 +15316,7 @@
         <v>1.8</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU73" t="n">
         <v>1.16</v>
@@ -15516,10 +15516,10 @@
         <v>0.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU74" t="n">
         <v>1.48</v>
@@ -15722,7 +15722,7 @@
         <v>0.91</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU75" t="n">
         <v>1.52</v>
@@ -15925,7 +15925,7 @@
         <v>2.56</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU76" t="n">
         <v>1.88</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT78" t="n">
         <v>1.6</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT79" t="n">
         <v>1.78</v>
@@ -17143,7 +17143,7 @@
         <v>1.8</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU82" t="n">
         <v>1.44</v>
@@ -17343,7 +17343,7 @@
         <v>0.6</v>
       </c>
       <c r="AS83" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT83" t="n">
         <v>0.82</v>
@@ -17749,10 +17749,10 @@
         <v>0.8</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU85" t="n">
         <v>2.26</v>
@@ -17952,10 +17952,10 @@
         <v>1.6</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU86" t="n">
         <v>1.22</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT87" t="n">
         <v>1</v>
@@ -18564,7 +18564,7 @@
         <v>1.43</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU89" t="n">
         <v>1.08</v>
@@ -19373,10 +19373,10 @@
         <v>0.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU93" t="n">
         <v>1.16</v>
@@ -19579,7 +19579,7 @@
         <v>0.86</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU94" t="n">
         <v>1.07</v>
@@ -19779,7 +19779,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT95" t="n">
         <v>0.14</v>
@@ -20388,7 +20388,7 @@
         <v>0</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT98" t="n">
         <v>0</v>
@@ -20591,10 +20591,10 @@
         <v>1.17</v>
       </c>
       <c r="AS99" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU99" t="n">
         <v>1.44</v>
@@ -20794,10 +20794,10 @@
         <v>0.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU100" t="n">
         <v>0.99</v>
@@ -21000,7 +21000,7 @@
         <v>1.1</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU101" t="n">
         <v>1.43</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT103" t="n">
         <v>1</v>
@@ -21606,10 +21606,10 @@
         <v>0.67</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU104" t="n">
         <v>1.36</v>
@@ -21812,7 +21812,7 @@
         <v>1.8</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU105" t="n">
         <v>1.16</v>
@@ -22421,7 +22421,7 @@
         <v>0.91</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU108" t="n">
         <v>1.52</v>
@@ -23230,7 +23230,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT112" t="n">
         <v>1.6</v>
@@ -23636,10 +23636,10 @@
         <v>1.71</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AU114" t="n">
         <v>2.46</v>
@@ -23839,7 +23839,7 @@
         <v>1.14</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="AT115" t="n">
         <v>1.2</v>
@@ -24042,10 +24042,10 @@
         <v>2.21</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AT116" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU116" t="n">
         <v>1.29</v>
@@ -24245,7 +24245,7 @@
         <v>1.29</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT117" t="n">
         <v>0.95</v>
@@ -24448,10 +24448,10 @@
         <v>0.64</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU118" t="n">
         <v>0.99</v>
@@ -24651,10 +24651,10 @@
         <v>1.36</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AU119" t="n">
         <v>0.9</v>
@@ -24854,10 +24854,10 @@
         <v>1.14</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU120" t="n">
         <v>1.37</v>
@@ -25060,7 +25060,7 @@
         <v>1.2</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AU121" t="n">
         <v>1.5</v>
@@ -25263,7 +25263,7 @@
         <v>0.95</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="AU122" t="n">
         <v>1.41</v>
@@ -25463,10 +25463,10 @@
         <v>1.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AU123" t="n">
         <v>1.44</v>
@@ -25666,10 +25666,10 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AU124" t="n">
         <v>1.52</v>
@@ -25869,10 +25869,10 @@
         <v>1.13</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU125" t="n">
         <v>1.16</v>
@@ -26072,10 +26072,10 @@
         <v>1.27</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AU126" t="n">
         <v>1.57</v>
@@ -26275,10 +26275,10 @@
         <v>1.31</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AU127" t="n">
         <v>0.99</v>
@@ -26478,10 +26478,10 @@
         <v>1.38</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU128" t="n">
         <v>1.52</v>
@@ -26681,10 +26681,10 @@
         <v>1.13</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU129" t="n">
         <v>0.96</v>
@@ -26884,10 +26884,10 @@
         <v>1.29</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AU130" t="n">
         <v>1.4</v>
@@ -27087,10 +27087,10 @@
         <v>0.76</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU131" t="n">
         <v>1.16</v>
@@ -27290,10 +27290,10 @@
         <v>1.35</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU132" t="n">
         <v>1.01</v>
@@ -27493,10 +27493,10 @@
         <v>2.13</v>
       </c>
       <c r="AS133" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU133" t="n">
         <v>2.2</v>
@@ -27696,7 +27696,7 @@
         <v>1.13</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AT134" t="n">
         <v>0.95</v>
@@ -27899,10 +27899,10 @@
         <v>2.06</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU135" t="n">
         <v>1.23</v>
@@ -28102,7 +28102,7 @@
         <v>1.06</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AT136" t="n">
         <v>1.2</v>
@@ -28305,10 +28305,10 @@
         <v>2.19</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT137" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU137" t="n">
         <v>1.44</v>
@@ -28511,7 +28511,7 @@
         <v>0.95</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AU138" t="n">
         <v>1.41</v>
@@ -28714,7 +28714,7 @@
         <v>1.2</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AU139" t="n">
         <v>1.53</v>
@@ -28914,10 +28914,10 @@
         <v>2.24</v>
       </c>
       <c r="AS140" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT140" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="AU140" t="n">
         <v>2.17</v>
@@ -29117,10 +29117,10 @@
         <v>1</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU141" t="n">
         <v>1.52</v>
@@ -29320,10 +29320,10 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AU142" t="n">
         <v>0.99</v>
@@ -29523,10 +29523,10 @@
         <v>1.33</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AU143" t="n">
         <v>1.58</v>
@@ -29726,10 +29726,10 @@
         <v>1.82</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AU144" t="n">
         <v>1.39</v>
@@ -29929,7 +29929,7 @@
         <v>1.06</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT145" t="n">
         <v>0.95</v>
@@ -30132,10 +30132,10 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AU146" t="n">
         <v>1.16</v>
@@ -30335,10 +30335,10 @@
         <v>1</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AU147" t="n">
         <v>1.61</v>
@@ -30538,10 +30538,10 @@
         <v>1.37</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AU148" t="n">
         <v>1.52</v>
@@ -30741,10 +30741,10 @@
         <v>2.11</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="AU149" t="n">
         <v>2.22</v>
@@ -30947,7 +30947,7 @@
         <v>1.2</v>
       </c>
       <c r="AT150" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU150" t="n">
         <v>1.51</v>
@@ -31147,10 +31147,10 @@
         <v>1.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU151" t="n">
         <v>1.26</v>
@@ -31405,6 +31405,1224 @@
       </c>
       <c r="BK152" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5391680</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45053.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Etoile du Sahel</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Ben Guerdane</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>2</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['50', '90+1']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>8</v>
+      </c>
+      <c r="R153" t="n">
+        <v>3</v>
+      </c>
+      <c r="S153" t="n">
+        <v>11</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2</v>
+      </c>
+      <c r="V153" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X153" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5391678</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45053.54166666666</v>
+      </c>
+      <c r="F154" t="n">
+        <v>6</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Club Africain</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>ES Tunis</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>4</v>
+      </c>
+      <c r="R154" t="n">
+        <v>6</v>
+      </c>
+      <c r="S154" t="n">
+        <v>10</v>
+      </c>
+      <c r="T154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U154" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X154" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5741358</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45054.5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>7</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Hammam-Sousse</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>EO Sidi Bouzid</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>2</v>
+      </c>
+      <c r="N155" t="n">
+        <v>2</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['82', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V155" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5741357</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45054.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>7</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>AS Slimane</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Métlaoui</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['63', '90+3']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>3</v>
+      </c>
+      <c r="R156" t="n">
+        <v>3</v>
+      </c>
+      <c r="S156" t="n">
+        <v>6</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V156" t="n">
+        <v>6</v>
+      </c>
+      <c r="W156" t="n">
+        <v>0</v>
+      </c>
+      <c r="X156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5741356</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45054.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>7</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>CA Bizertin</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Stade Tunisien</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>4</v>
+      </c>
+      <c r="R157" t="n">
+        <v>1</v>
+      </c>
+      <c r="S157" t="n">
+        <v>5</v>
+      </c>
+      <c r="T157" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V157" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X157" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5391677</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45054.54166666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>6</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Monastir</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Olympique Béja</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>2</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2</v>
+      </c>
+      <c r="L158" t="n">
+        <v>3</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['1', '43', '75']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>8</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1</v>
+      </c>
+      <c r="S158" t="n">
+        <v>9</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V158" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK158"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.3</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.43</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT10" t="n">
         <v>1.3</v>
@@ -2933,7 +2933,7 @@
         <v>1.27</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT15" t="n">
         <v>1.5</v>
@@ -3745,7 +3745,7 @@
         <v>1.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU16" t="n">
         <v>0.89</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT19" t="n">
         <v>0.14</v>
@@ -4554,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT20" t="n">
         <v>1.5</v>
@@ -5369,7 +5369,7 @@
         <v>1.43</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU24" t="n">
         <v>1.08</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT28" t="n">
         <v>0.82</v>
@@ -6990,10 +6990,10 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU32" t="n">
         <v>1.42</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT36" t="n">
         <v>1.4</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU38" t="n">
         <v>1.16</v>
@@ -8414,7 +8414,7 @@
         <v>1.4</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT46" t="n">
         <v>1.78</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT50" t="n">
         <v>1.36</v>
@@ -11053,7 +11053,7 @@
         <v>1.4</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU52" t="n">
         <v>1.88</v>
@@ -11662,7 +11662,7 @@
         <v>2.1</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU55" t="n">
         <v>1.3</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT63" t="n">
         <v>0</v>
@@ -14098,7 +14098,7 @@
         <v>2.2</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU67" t="n">
         <v>1.23</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT69" t="n">
         <v>1</v>
@@ -14707,7 +14707,7 @@
         <v>0.86</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU70" t="n">
         <v>0.9399999999999999</v>
@@ -15313,7 +15313,7 @@
         <v>1.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT73" t="n">
         <v>1.4</v>
@@ -16331,7 +16331,7 @@
         <v>1.18</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU78" t="n">
         <v>0.74</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT79" t="n">
         <v>1.78</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT84" t="n">
         <v>0</v>
@@ -17752,7 +17752,7 @@
         <v>1.91</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU85" t="n">
         <v>2.26</v>
@@ -18361,7 +18361,7 @@
         <v>1.1</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU88" t="n">
         <v>1.3</v>
@@ -19170,7 +19170,7 @@
         <v>2.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT92" t="n">
         <v>2.2</v>
@@ -19373,7 +19373,7 @@
         <v>0.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT93" t="n">
         <v>0.64</v>
@@ -20188,7 +20188,7 @@
         <v>2.56</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU97" t="n">
         <v>2.19</v>
@@ -21606,10 +21606,10 @@
         <v>0.67</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU104" t="n">
         <v>1.36</v>
@@ -21809,7 +21809,7 @@
         <v>2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT105" t="n">
         <v>1.3</v>
@@ -22824,7 +22824,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT110" t="n">
         <v>0.8</v>
@@ -23030,7 +23030,7 @@
         <v>2.56</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU111" t="n">
         <v>2.15</v>
@@ -23233,7 +23233,7 @@
         <v>2.2</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU112" t="n">
         <v>1.21</v>
@@ -24448,10 +24448,10 @@
         <v>0.64</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU118" t="n">
         <v>0.99</v>
@@ -24651,10 +24651,10 @@
         <v>1.36</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU119" t="n">
         <v>0.9</v>
@@ -24854,10 +24854,10 @@
         <v>1.14</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AU120" t="n">
         <v>1.37</v>
@@ -25666,10 +25666,10 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.52</v>
@@ -25869,10 +25869,10 @@
         <v>1.13</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AU125" t="n">
         <v>1.16</v>
@@ -26072,10 +26072,10 @@
         <v>1.27</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AU126" t="n">
         <v>1.57</v>
@@ -26275,10 +26275,10 @@
         <v>1.31</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU127" t="n">
         <v>0.99</v>
@@ -26478,10 +26478,10 @@
         <v>1.38</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AU128" t="n">
         <v>1.52</v>
@@ -26681,10 +26681,10 @@
         <v>1.13</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AU129" t="n">
         <v>0.96</v>
@@ -26884,10 +26884,10 @@
         <v>1.29</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AU130" t="n">
         <v>1.4</v>
@@ -27087,10 +27087,10 @@
         <v>0.76</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU131" t="n">
         <v>1.16</v>
@@ -27290,10 +27290,10 @@
         <v>1.35</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AU132" t="n">
         <v>1.01</v>
@@ -29117,10 +29117,10 @@
         <v>1</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AU141" t="n">
         <v>1.52</v>
@@ -29320,10 +29320,10 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU142" t="n">
         <v>0.99</v>
@@ -29523,10 +29523,10 @@
         <v>1.33</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU143" t="n">
         <v>1.58</v>
@@ -30132,10 +30132,10 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU146" t="n">
         <v>1.16</v>
@@ -30335,10 +30335,10 @@
         <v>1</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AU147" t="n">
         <v>1.61</v>
@@ -30538,10 +30538,10 @@
         <v>1.37</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AU148" t="n">
         <v>1.52</v>
@@ -31959,10 +31959,10 @@
         <v>0.7</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU155" t="n">
         <v>1.04</v>
@@ -32162,10 +32162,10 @@
         <v>1.25</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU156" t="n">
         <v>1.39</v>
@@ -32365,10 +32365,10 @@
         <v>1.35</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AU157" t="n">
         <v>0.99</v>
@@ -32623,6 +32623,615 @@
       </c>
       <c r="BK158" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5741359</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45060.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Stade Tunisien</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>EO Sidi Bouzid</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>2</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['41', '83']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>11</v>
+      </c>
+      <c r="R159" t="n">
+        <v>5</v>
+      </c>
+      <c r="S159" t="n">
+        <v>16</v>
+      </c>
+      <c r="T159" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V159" t="n">
+        <v>6</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X159" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5741360</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45060.5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>8</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Métlaoui</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>CA Bizertin</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T160" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U160" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V160" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5741361</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45060.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>8</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>AS Slimane</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Hammam-Sousse</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>2</v>
+      </c>
+      <c r="R161" t="n">
+        <v>3</v>
+      </c>
+      <c r="S161" t="n">
+        <v>5</v>
+      </c>
+      <c r="T161" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U161" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V161" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W161" t="n">
+        <v>0</v>
+      </c>
+      <c r="X161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>1.8</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.73</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.73</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU20" t="n">
         <v>1.14</v>
@@ -8411,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT39" t="n">
         <v>0.82</v>
@@ -8617,7 +8617,7 @@
         <v>2.3</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU40" t="n">
         <v>1.31</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT48" t="n">
         <v>1.27</v>
@@ -11050,7 +11050,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT52" t="n">
         <v>1.55</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT60" t="n">
         <v>1.36</v>
@@ -15113,7 +15113,7 @@
         <v>1.91</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU72" t="n">
         <v>2.11</v>
@@ -16734,7 +16734,7 @@
         <v>2.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT80" t="n">
         <v>2.2</v>
@@ -18767,7 +18767,7 @@
         <v>0.91</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU90" t="n">
         <v>1.52</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT96" t="n">
         <v>0.8</v>
@@ -22015,7 +22015,7 @@
         <v>0.86</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU106" t="n">
         <v>1.1</v>
@@ -23433,7 +23433,7 @@
         <v>0.17</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT113" t="n">
         <v>0.14</v>
@@ -23842,7 +23842,7 @@
         <v>2.2</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU115" t="n">
         <v>1.16</v>
@@ -24245,7 +24245,7 @@
         <v>1.29</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AT117" t="n">
         <v>0.95</v>
@@ -25057,7 +25057,7 @@
         <v>1.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT121" t="n">
         <v>1.85</v>
@@ -27496,7 +27496,7 @@
         <v>1.9</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AU133" t="n">
         <v>2.2</v>
@@ -27902,7 +27902,7 @@
         <v>2.2</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AU135" t="n">
         <v>1.23</v>
@@ -28105,7 +28105,7 @@
         <v>1.85</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU136" t="n">
         <v>1.25</v>
@@ -28711,7 +28711,7 @@
         <v>1.59</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT139" t="n">
         <v>1.55</v>
@@ -29726,7 +29726,7 @@
         <v>1.82</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AT144" t="n">
         <v>1.85</v>
@@ -30944,7 +30944,7 @@
         <v>2.11</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT150" t="n">
         <v>1.9</v>
@@ -31150,7 +31150,7 @@
         <v>1.85</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AU151" t="n">
         <v>1.26</v>
@@ -31353,7 +31353,7 @@
         <v>0.95</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AU152" t="n">
         <v>1.36</v>
@@ -32568,7 +32568,7 @@
         <v>1.63</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AT158" t="n">
         <v>1.55</v>
@@ -33232,6 +33232,209 @@
       </c>
       <c r="BK161" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5391684</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45062.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>7</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>CS Sfaxien</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Monastir</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>4</v>
+      </c>
+      <c r="R162" t="n">
+        <v>4</v>
+      </c>
+      <c r="S162" t="n">
+        <v>8</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U162" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V162" t="n">
+        <v>5</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X162" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.18</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT11" t="n">
         <v>1.45</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT16" t="n">
         <v>0.64</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT31" t="n">
         <v>0.64</v>
@@ -8008,7 +8008,7 @@
         <v>1.27</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU37" t="n">
         <v>0.75</v>
@@ -11865,7 +11865,7 @@
         <v>2.56</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU56" t="n">
         <v>2.05</v>
@@ -12880,7 +12880,7 @@
         <v>1.1</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU61" t="n">
         <v>1.23</v>
@@ -14907,7 +14907,7 @@
         <v>0.75</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT71" t="n">
         <v>0.82</v>
@@ -16737,7 +16737,7 @@
         <v>1.36</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU80" t="n">
         <v>1.38</v>
@@ -17140,7 +17140,7 @@
         <v>1.2</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT82" t="n">
         <v>1.4</v>
@@ -19173,7 +19173,7 @@
         <v>1.55</v>
       </c>
       <c r="AT92" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU92" t="n">
         <v>1.63</v>
@@ -21203,7 +21203,7 @@
         <v>1.43</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU102" t="n">
         <v>1.08</v>
@@ -22621,7 +22621,7 @@
         <v>1.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT109" t="n">
         <v>1.78</v>
@@ -23639,7 +23639,7 @@
         <v>1.85</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU114" t="n">
         <v>2.46</v>
@@ -23839,7 +23839,7 @@
         <v>1.14</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AT115" t="n">
         <v>1.19</v>
@@ -25263,7 +25263,7 @@
         <v>0.95</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AU122" t="n">
         <v>1.41</v>
@@ -25463,7 +25463,7 @@
         <v>1.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AT123" t="n">
         <v>1.85</v>
@@ -27899,7 +27899,7 @@
         <v>2.06</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AT135" t="n">
         <v>1.76</v>
@@ -28305,7 +28305,7 @@
         <v>2.19</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AT137" t="n">
         <v>1.9</v>
@@ -28714,7 +28714,7 @@
         <v>1.19</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU139" t="n">
         <v>1.53</v>
@@ -28917,7 +28917,7 @@
         <v>1.9</v>
       </c>
       <c r="AT140" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AU140" t="n">
         <v>2.17</v>
@@ -29929,7 +29929,7 @@
         <v>1.06</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AT145" t="n">
         <v>0.95</v>
@@ -30744,7 +30744,7 @@
         <v>1.85</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AU149" t="n">
         <v>2.22</v>
@@ -31553,7 +31553,7 @@
         <v>1.95</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AT153" t="n">
         <v>1.85</v>
@@ -32571,7 +32571,7 @@
         <v>1.76</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU158" t="n">
         <v>1.32</v>
@@ -33435,6 +33435,209 @@
       </c>
       <c r="BK162" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5391682</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45066.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>7</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Olympique Béja</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Etoile du Sahel</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T163" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U163" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK163"/>
+  <dimension ref="A1:BK167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.86</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT3" t="n">
         <v>0.64</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU18" t="n">
         <v>1.25</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT19" t="n">
         <v>0.14</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT22" t="n">
         <v>1.3</v>
@@ -5166,7 +5166,7 @@
         <v>0.86</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU23" t="n">
         <v>0.83</v>
@@ -5369,7 +5369,7 @@
         <v>1.43</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU24" t="n">
         <v>1.08</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT26" t="n">
         <v>1.36</v>
@@ -6181,7 +6181,7 @@
         <v>1.73</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.16</v>
@@ -6790,7 +6790,7 @@
         <v>1.73</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU31" t="n">
         <v>1.23</v>
@@ -6990,7 +6990,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT32" t="n">
         <v>1.55</v>
@@ -7193,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT37" t="n">
         <v>2.09</v>
@@ -8414,7 +8414,7 @@
         <v>1.36</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>2.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT40" t="n">
         <v>1.45</v>
@@ -8820,7 +8820,7 @@
         <v>0.86</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU41" t="n">
         <v>0.9399999999999999</v>
@@ -9835,7 +9835,7 @@
         <v>1.73</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU46" t="n">
         <v>1.16</v>
@@ -10038,7 +10038,7 @@
         <v>2.1</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU47" t="n">
         <v>1.13</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT50" t="n">
         <v>1.36</v>
@@ -10850,7 +10850,7 @@
         <v>1.91</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.83</v>
@@ -11253,10 +11253,10 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU53" t="n">
         <v>1.52</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT58" t="n">
         <v>0.14</v>
@@ -13083,7 +13083,7 @@
         <v>1.91</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU62" t="n">
         <v>2.17</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT65" t="n">
         <v>1.4</v>
@@ -14098,7 +14098,7 @@
         <v>2.2</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU67" t="n">
         <v>1.23</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT68" t="n">
         <v>0.8</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT69" t="n">
         <v>1</v>
@@ -14910,7 +14910,7 @@
         <v>1.73</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.47</v>
@@ -15519,7 +15519,7 @@
         <v>2.1</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU74" t="n">
         <v>1.48</v>
@@ -15719,7 +15719,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT75" t="n">
         <v>1.3</v>
@@ -16534,7 +16534,7 @@
         <v>1.73</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU79" t="n">
         <v>1.15</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT81" t="n">
         <v>0</v>
@@ -17346,7 +17346,7 @@
         <v>2.1</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.48</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT87" t="n">
         <v>1</v>
@@ -18361,7 +18361,7 @@
         <v>1.1</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU88" t="n">
         <v>1.3</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT90" t="n">
         <v>1.45</v>
@@ -18967,10 +18967,10 @@
         <v>1.6</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU91" t="n">
         <v>1.2</v>
@@ -19170,7 +19170,7 @@
         <v>2.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT92" t="n">
         <v>2.09</v>
@@ -19376,7 +19376,7 @@
         <v>1.73</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU93" t="n">
         <v>1.16</v>
@@ -20794,7 +20794,7 @@
         <v>0.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT100" t="n">
         <v>1.27</v>
@@ -22215,10 +22215,10 @@
         <v>0.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU107" t="n">
         <v>1.2</v>
@@ -22418,10 +22418,10 @@
         <v>0.33</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU108" t="n">
         <v>1.52</v>
@@ -22624,7 +22624,7 @@
         <v>1.73</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU109" t="n">
         <v>1.44</v>
@@ -22824,7 +22824,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT110" t="n">
         <v>0.8</v>
@@ -23030,7 +23030,7 @@
         <v>2.56</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU111" t="n">
         <v>2.15</v>
@@ -23636,7 +23636,7 @@
         <v>1.71</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AT114" t="n">
         <v>1.52</v>
@@ -24042,7 +24042,7 @@
         <v>2.21</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AT116" t="n">
         <v>1.9</v>
@@ -24448,10 +24448,10 @@
         <v>0.64</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AU118" t="n">
         <v>0.99</v>
@@ -24651,10 +24651,10 @@
         <v>1.36</v>
       </c>
       <c r="AS119" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU119" t="n">
         <v>0.9</v>
@@ -24854,10 +24854,10 @@
         <v>1.14</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AU120" t="n">
         <v>1.37</v>
@@ -25060,7 +25060,7 @@
         <v>1.19</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AU121" t="n">
         <v>1.5</v>
@@ -25466,7 +25466,7 @@
         <v>1.52</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AU123" t="n">
         <v>1.44</v>
@@ -25666,10 +25666,10 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AT124" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AU124" t="n">
         <v>1.52</v>
@@ -25869,10 +25869,10 @@
         <v>1.13</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AU125" t="n">
         <v>1.16</v>
@@ -26072,10 +26072,10 @@
         <v>1.27</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AU126" t="n">
         <v>1.57</v>
@@ -26275,10 +26275,10 @@
         <v>1.31</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU127" t="n">
         <v>0.99</v>
@@ -26478,10 +26478,10 @@
         <v>1.38</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AU128" t="n">
         <v>1.52</v>
@@ -26681,10 +26681,10 @@
         <v>1.13</v>
       </c>
       <c r="AS129" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AU129" t="n">
         <v>0.96</v>
@@ -26884,10 +26884,10 @@
         <v>1.29</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AU130" t="n">
         <v>1.4</v>
@@ -27087,10 +27087,10 @@
         <v>0.76</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AU131" t="n">
         <v>1.16</v>
@@ -27290,10 +27290,10 @@
         <v>1.35</v>
       </c>
       <c r="AS132" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AU132" t="n">
         <v>1.01</v>
@@ -27696,7 +27696,7 @@
         <v>1.13</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AT134" t="n">
         <v>0.95</v>
@@ -28102,7 +28102,7 @@
         <v>1.06</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AT136" t="n">
         <v>1.19</v>
@@ -28511,7 +28511,7 @@
         <v>0.95</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AU138" t="n">
         <v>1.41</v>
@@ -29117,10 +29117,10 @@
         <v>1</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AU141" t="n">
         <v>1.52</v>
@@ -29320,10 +29320,10 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AT142" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AU142" t="n">
         <v>0.99</v>
@@ -29523,10 +29523,10 @@
         <v>1.33</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU143" t="n">
         <v>1.58</v>
@@ -29729,7 +29729,7 @@
         <v>1.76</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AU144" t="n">
         <v>1.39</v>
@@ -30132,10 +30132,10 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT146" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AU146" t="n">
         <v>1.16</v>
@@ -30335,10 +30335,10 @@
         <v>1</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AU147" t="n">
         <v>1.61</v>
@@ -30538,10 +30538,10 @@
         <v>1.37</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AU148" t="n">
         <v>1.52</v>
@@ -30741,7 +30741,7 @@
         <v>2.11</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AT149" t="n">
         <v>2.14</v>
@@ -31147,7 +31147,7 @@
         <v>1.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AT151" t="n">
         <v>1.76</v>
@@ -31556,7 +31556,7 @@
         <v>2.14</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AU153" t="n">
         <v>1.24</v>
@@ -31756,7 +31756,7 @@
         <v>2</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AT154" t="n">
         <v>1.9</v>
@@ -31959,10 +31959,10 @@
         <v>0.7</v>
       </c>
       <c r="AS155" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AU155" t="n">
         <v>1.04</v>
@@ -32162,10 +32162,10 @@
         <v>1.25</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU156" t="n">
         <v>1.39</v>
@@ -32365,10 +32365,10 @@
         <v>1.35</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AU157" t="n">
         <v>0.99</v>
@@ -32771,10 +32771,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AU159" t="n">
         <v>1.61</v>
@@ -32974,10 +32974,10 @@
         <v>1.43</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AU160" t="n">
         <v>1.16</v>
@@ -33177,10 +33177,10 @@
         <v>1.05</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AT161" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AU161" t="n">
         <v>1.48</v>
@@ -33638,6 +33638,818 @@
       </c>
       <c r="BK163" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5391683</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45067.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>7</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Ben Guerdane</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Club Africain</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="n">
+        <v>2</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>5</v>
+      </c>
+      <c r="R164" t="n">
+        <v>3</v>
+      </c>
+      <c r="S164" t="n">
+        <v>8</v>
+      </c>
+      <c r="T164" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X164" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5741364</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45067.5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>9</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Stade Tunisien</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Hammam-Sousse</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>2</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="n">
+        <v>3</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['27', '80']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>1</v>
+      </c>
+      <c r="R165" t="n">
+        <v>5</v>
+      </c>
+      <c r="S165" t="n">
+        <v>6</v>
+      </c>
+      <c r="T165" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V165" t="n">
+        <v>6</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5741363</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45067.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>9</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>EO Sidi Bouzid</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Métlaoui</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>2</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>9</v>
+      </c>
+      <c r="R166" t="n">
+        <v>4</v>
+      </c>
+      <c r="S166" t="n">
+        <v>13</v>
+      </c>
+      <c r="T166" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U166" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V166" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5741362</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45067.5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>9</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>CA Bizertin</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>AS Slimane</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>3</v>
+      </c>
+      <c r="R167" t="n">
+        <v>2</v>
+      </c>
+      <c r="S167" t="n">
+        <v>5</v>
+      </c>
+      <c r="T167" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U167" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V167" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W167" t="n">
+        <v>0</v>
+      </c>
+      <c r="X167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK167"/>
+  <dimension ref="A1:BK168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>2.2</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.43</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT17" t="n">
         <v>0.14</v>
@@ -4760,7 +4760,7 @@
         <v>1.18</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU21" t="n">
         <v>0.18</v>
@@ -6381,10 +6381,10 @@
         <v>1.33</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU29" t="n">
         <v>1.64</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT45" t="n">
         <v>1</v>
@@ -11862,7 +11862,7 @@
         <v>3</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT56" t="n">
         <v>2.09</v>
@@ -14301,7 +14301,7 @@
         <v>1.17</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU68" t="n">
         <v>0.99</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT76" t="n">
         <v>1.27</v>
@@ -19985,7 +19985,7 @@
         <v>1.36</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU96" t="n">
         <v>1.5</v>
@@ -20185,7 +20185,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT97" t="n">
         <v>1.55</v>
@@ -22827,7 +22827,7 @@
         <v>1.67</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU110" t="n">
         <v>1.54</v>
@@ -23027,7 +23027,7 @@
         <v>0.83</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT111" t="n">
         <v>0.75</v>
@@ -24045,7 +24045,7 @@
         <v>1.81</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AU116" t="n">
         <v>1.29</v>
@@ -24248,7 +24248,7 @@
         <v>1.76</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU117" t="n">
         <v>1.42</v>
@@ -25260,7 +25260,7 @@
         <v>2.13</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AT122" t="n">
         <v>2.14</v>
@@ -27493,7 +27493,7 @@
         <v>2.13</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT133" t="n">
         <v>1.76</v>
@@ -27699,7 +27699,7 @@
         <v>1.81</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU134" t="n">
         <v>2.28</v>
@@ -28308,7 +28308,7 @@
         <v>1.52</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AU137" t="n">
         <v>1.44</v>
@@ -28508,7 +28508,7 @@
         <v>1.94</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AT138" t="n">
         <v>1.81</v>
@@ -28914,7 +28914,7 @@
         <v>2.24</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT140" t="n">
         <v>2.14</v>
@@ -29932,7 +29932,7 @@
         <v>1.52</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU145" t="n">
         <v>1.36</v>
@@ -30947,7 +30947,7 @@
         <v>1.19</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AU150" t="n">
         <v>1.51</v>
@@ -31350,7 +31350,7 @@
         <v>1.11</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AT152" t="n">
         <v>1.19</v>
@@ -31759,7 +31759,7 @@
         <v>1.81</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AU154" t="n">
         <v>2.13</v>
@@ -33848,7 +33848,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>5741364</v>
+        <v>5741363</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -33868,182 +33868,182 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Stade Tunisien</t>
+          <t>EO Sidi Bouzid</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Hammam-Sousse</t>
+          <t>Métlaoui</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="n">
         <v>2</v>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="n">
-        <v>3</v>
-      </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>['27', '80']</t>
+          <t>['90+4']</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>['76']</t>
+          <t>['52']</t>
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R165" t="n">
+        <v>4</v>
+      </c>
+      <c r="S165" t="n">
+        <v>13</v>
+      </c>
+      <c r="T165" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U165" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V165" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF165" t="n">
         <v>5</v>
-      </c>
-      <c r="S165" t="n">
-        <v>6</v>
-      </c>
-      <c r="T165" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U165" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V165" t="n">
-        <v>6</v>
-      </c>
-      <c r="W165" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X165" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Y165" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Z165" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AA165" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB165" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AC165" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AD165" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE165" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AF165" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AG165" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="AH165" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AI165" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AJ165" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AK165" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AL165" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AM165" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AN165" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AO165" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP165" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AQ165" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AR165" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS165" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AT165" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AU165" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AV165" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AW165" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AX165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF165" t="n">
-        <v>8</v>
       </c>
       <c r="BG165" t="n">
         <v>5</v>
       </c>
       <c r="BH165" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI165" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ165" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BK165" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166">
@@ -34051,7 +34051,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>5741363</v>
+        <v>5741364</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -34071,140 +34071,140 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>EO Sidi Bouzid</t>
+          <t>Stade Tunisien</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Métlaoui</t>
+          <t>Hammam-Sousse</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
       <c r="N166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>['90+4']</t>
+          <t>['27', '80']</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>['52']</t>
+          <t>['76']</t>
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R166" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S166" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T166" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="U166" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="V166" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="W166" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X166" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Y166" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="Z166" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AA166" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AB166" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AC166" t="n">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="AD166" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="AE166" t="n">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="AF166" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AG166" t="n">
-        <v>6.05</v>
+        <v>6.35</v>
       </c>
       <c r="AH166" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AI166" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AJ166" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="AK166" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AL166" t="n">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="AM166" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="AN166" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AO166" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.5</v>
+        <v>1.94</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.77</v>
+        <v>1.41</v>
       </c>
       <c r="AR166" t="n">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>0.78</v>
+        <v>1.48</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.17</v>
+        <v>0.96</v>
       </c>
       <c r="AU166" t="n">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="AV166" t="n">
-        <v>0.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AW166" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AX166" t="n">
         <v>0</v>
@@ -34231,22 +34231,22 @@
         <v>0</v>
       </c>
       <c r="BF166" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG166" t="n">
         <v>5</v>
       </c>
       <c r="BH166" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI166" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ166" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BK166" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167">
@@ -34449,6 +34449,209 @@
         <v>10</v>
       </c>
       <c r="BK167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5391681</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45069.54166666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>7</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>ES Tunis</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Tataouine</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>3</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>3</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['37', '73', '90+3']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>2</v>
+      </c>
+      <c r="R168" t="n">
+        <v>3</v>
+      </c>
+      <c r="S168" t="n">
+        <v>5</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V168" t="n">
+        <v>11</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X168" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK168" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK168"/>
+  <dimension ref="A1:BK173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.18</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.43</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT10" t="n">
         <v>1.3</v>
@@ -2730,7 +2730,7 @@
         <v>1.73</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.73</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU16" t="n">
         <v>0.89</v>
@@ -4554,10 +4554,10 @@
         <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU20" t="n">
         <v>1.14</v>
@@ -4757,7 +4757,7 @@
         <v>1.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT21" t="n">
         <v>0.73</v>
@@ -5572,7 +5572,7 @@
         <v>2.2</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AT28" t="n">
         <v>1</v>
@@ -6993,7 +6993,7 @@
         <v>1.67</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AU32" t="n">
         <v>1.42</v>
@@ -7396,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU34" t="n">
         <v>1.28</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT35" t="n">
         <v>1.36</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT36" t="n">
         <v>1.4</v>
@@ -8008,7 +8008,7 @@
         <v>1.17</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU37" t="n">
         <v>0.75</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU38" t="n">
         <v>1.16</v>
@@ -8411,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT39" t="n">
         <v>0.75</v>
@@ -8617,7 +8617,7 @@
         <v>2.18</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU40" t="n">
         <v>1.31</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AT46" t="n">
         <v>1.7</v>
@@ -10238,10 +10238,10 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU48" t="n">
         <v>0</v>
@@ -11050,10 +11050,10 @@
         <v>1.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AU52" t="n">
         <v>1.88</v>
@@ -11456,7 +11456,7 @@
         <v>0.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -11662,7 +11662,7 @@
         <v>2.1</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU55" t="n">
         <v>1.3</v>
@@ -11865,7 +11865,7 @@
         <v>2.6</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU56" t="n">
         <v>2.05</v>
@@ -12471,10 +12471,10 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU59" t="n">
         <v>0.58</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT60" t="n">
         <v>1.36</v>
@@ -12877,10 +12877,10 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU61" t="n">
         <v>1.23</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT63" t="n">
         <v>0</v>
@@ -14707,7 +14707,7 @@
         <v>0.86</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU70" t="n">
         <v>0.9399999999999999</v>
@@ -15113,7 +15113,7 @@
         <v>1.91</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU72" t="n">
         <v>2.11</v>
@@ -15313,7 +15313,7 @@
         <v>1.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AT73" t="n">
         <v>1.4</v>
@@ -15925,7 +15925,7 @@
         <v>2.6</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU76" t="n">
         <v>1.88</v>
@@ -16125,7 +16125,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT77" t="n">
         <v>0.14</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AU78" t="n">
         <v>0.74</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT79" t="n">
         <v>1.7</v>
@@ -16734,10 +16734,10 @@
         <v>2.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU80" t="n">
         <v>1.38</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AT84" t="n">
         <v>0</v>
@@ -17752,7 +17752,7 @@
         <v>1.91</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU85" t="n">
         <v>2.26</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT88" t="n">
         <v>0.75</v>
@@ -18564,7 +18564,7 @@
         <v>1.43</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU89" t="n">
         <v>1.08</v>
@@ -18767,7 +18767,7 @@
         <v>0.92</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU90" t="n">
         <v>1.52</v>
@@ -19173,7 +19173,7 @@
         <v>1.67</v>
       </c>
       <c r="AT92" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU92" t="n">
         <v>1.63</v>
@@ -19373,7 +19373,7 @@
         <v>0.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT93" t="n">
         <v>0.67</v>
@@ -19779,7 +19779,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT95" t="n">
         <v>0.14</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT96" t="n">
         <v>0.73</v>
@@ -20188,7 +20188,7 @@
         <v>2.6</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AU97" t="n">
         <v>2.19</v>
@@ -20797,7 +20797,7 @@
         <v>1.17</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU100" t="n">
         <v>0.99</v>
@@ -20997,7 +20997,7 @@
         <v>1.83</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT101" t="n">
         <v>1.36</v>
@@ -21203,7 +21203,7 @@
         <v>1.43</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AU102" t="n">
         <v>1.08</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT103" t="n">
         <v>1</v>
@@ -21606,10 +21606,10 @@
         <v>0.67</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU104" t="n">
         <v>1.36</v>
@@ -21809,7 +21809,7 @@
         <v>2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AT105" t="n">
         <v>1.3</v>
@@ -22015,7 +22015,7 @@
         <v>0.86</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU106" t="n">
         <v>1.1</v>
@@ -23233,7 +23233,7 @@
         <v>2.2</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AU112" t="n">
         <v>1.21</v>
@@ -23433,7 +23433,7 @@
         <v>0.17</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT113" t="n">
         <v>0.14</v>
@@ -23839,10 +23839,10 @@
         <v>1.14</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU115" t="n">
         <v>1.16</v>
@@ -24245,10 +24245,10 @@
         <v>1.29</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AU117" t="n">
         <v>1.42</v>
@@ -24448,10 +24448,10 @@
         <v>0.64</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AU118" t="n">
         <v>0.99</v>
@@ -24651,10 +24651,10 @@
         <v>1.36</v>
       </c>
       <c r="AS119" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AU119" t="n">
         <v>0.9</v>
@@ -24854,10 +24854,10 @@
         <v>1.14</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AU120" t="n">
         <v>1.37</v>
@@ -25057,7 +25057,7 @@
         <v>1.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT121" t="n">
         <v>1.81</v>
@@ -25260,10 +25260,10 @@
         <v>2.13</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AU122" t="n">
         <v>1.41</v>
@@ -25666,10 +25666,10 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AU124" t="n">
         <v>1.52</v>
@@ -25869,10 +25869,10 @@
         <v>1.13</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AU125" t="n">
         <v>1.16</v>
@@ -26072,10 +26072,10 @@
         <v>1.27</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AU126" t="n">
         <v>1.57</v>
@@ -26275,10 +26275,10 @@
         <v>1.31</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AU127" t="n">
         <v>0.99</v>
@@ -26478,10 +26478,10 @@
         <v>1.38</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AU128" t="n">
         <v>1.52</v>
@@ -26681,10 +26681,10 @@
         <v>1.13</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AU129" t="n">
         <v>0.96</v>
@@ -26884,10 +26884,10 @@
         <v>1.29</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AU130" t="n">
         <v>1.4</v>
@@ -27087,10 +27087,10 @@
         <v>0.76</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AU131" t="n">
         <v>1.16</v>
@@ -27290,10 +27290,10 @@
         <v>1.35</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AU132" t="n">
         <v>1.01</v>
@@ -27496,7 +27496,7 @@
         <v>1.95</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="AU133" t="n">
         <v>2.2</v>
@@ -27699,7 +27699,7 @@
         <v>1.81</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AU134" t="n">
         <v>2.28</v>
@@ -27899,10 +27899,10 @@
         <v>2.06</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="AU135" t="n">
         <v>1.23</v>
@@ -28105,7 +28105,7 @@
         <v>1.81</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU136" t="n">
         <v>1.25</v>
@@ -28508,7 +28508,7 @@
         <v>1.94</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AT138" t="n">
         <v>1.81</v>
@@ -28711,7 +28711,7 @@
         <v>1.59</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT139" t="n">
         <v>1.52</v>
@@ -28917,7 +28917,7 @@
         <v>1.95</v>
       </c>
       <c r="AT140" t="n">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AU140" t="n">
         <v>2.17</v>
@@ -28976,7 +28976,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>5391655</v>
+        <v>5391656</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -28996,22 +28996,22 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>EO Sidi Bouzid</t>
+          <t>Stade Tunisien</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>AS Slimane</t>
+          <t>Métlaoui</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L141" t="n">
         <v>1</v>
@@ -29024,112 +29024,112 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>['76']</t>
+          <t>['38']</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>['90+7']</t>
+          <t>['20']</t>
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R141" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S141" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T141" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="U141" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V141" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="W141" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X141" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="Y141" t="n">
-        <v>0</v>
+        <v>4.64</v>
       </c>
       <c r="Z141" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AA141" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AB141" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AC141" t="n">
-        <v>2.42</v>
+        <v>1.86</v>
       </c>
       <c r="AD141" t="n">
-        <v>3.27</v>
+        <v>3.14</v>
       </c>
       <c r="AE141" t="n">
-        <v>2.63</v>
+        <v>4.68</v>
       </c>
       <c r="AF141" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AG141" t="n">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="AH141" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AI141" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AJ141" t="n">
-        <v>2.47</v>
+        <v>3.3</v>
       </c>
       <c r="AK141" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AL141" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AM141" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AN141" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AO141" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AP141" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR141" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.78</v>
+        <v>1.42</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="AU141" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AV141" t="n">
-        <v>1.08</v>
+        <v>0.77</v>
       </c>
       <c r="AW141" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="AX141" t="n">
         <v>0</v>
@@ -29156,22 +29156,22 @@
         <v>0</v>
       </c>
       <c r="BF141" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG141" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH141" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI141" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ141" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK141" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
@@ -29179,7 +29179,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>5391654</v>
+        <v>5391655</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -29199,40 +29199,40 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>EO Sidi Bouzid</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Hammam-Sousse</t>
+          <t>AS Slimane</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
         <v>2</v>
       </c>
-      <c r="M142" t="n">
-        <v>2</v>
-      </c>
-      <c r="N142" t="n">
-        <v>4</v>
-      </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>['73', '79']</t>
+          <t>['76']</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>['23', '75']</t>
+          <t>['90+7']</t>
         </is>
       </c>
       <c r="Q142" t="n">
@@ -29272,13 +29272,13 @@
         <v>0</v>
       </c>
       <c r="AC142" t="n">
-        <v>1.8</v>
+        <v>2.42</v>
       </c>
       <c r="AD142" t="n">
-        <v>3.51</v>
+        <v>3.27</v>
       </c>
       <c r="AE142" t="n">
-        <v>3.86</v>
+        <v>2.63</v>
       </c>
       <c r="AF142" t="n">
         <v>0</v>
@@ -29293,46 +29293,46 @@
         <v>0</v>
       </c>
       <c r="AJ142" t="n">
-        <v>2.24</v>
+        <v>2.47</v>
       </c>
       <c r="AK142" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AL142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM142" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AN142" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AO142" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.39</v>
+        <v>0.72</v>
       </c>
       <c r="AR142" t="n">
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.35</v>
+        <v>0.88</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.96</v>
+        <v>1.29</v>
       </c>
       <c r="AU142" t="n">
-        <v>0.99</v>
+        <v>1.52</v>
       </c>
       <c r="AV142" t="n">
-        <v>0.64</v>
+        <v>1.08</v>
       </c>
       <c r="AW142" t="n">
-        <v>1.63</v>
+        <v>2.6</v>
       </c>
       <c r="AX142" t="n">
         <v>0</v>
@@ -29382,7 +29382,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>5391656</v>
+        <v>5391654</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -29402,140 +29402,140 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Stade Tunisien</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Métlaoui</t>
+          <t>Hammam-Sousse</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
       </c>
       <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
         <v>2</v>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
       <c r="M143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N143" t="n">
+        <v>4</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['73', '79']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['23', '75']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0</v>
+      </c>
+      <c r="U143" t="n">
+        <v>0</v>
+      </c>
+      <c r="V143" t="n">
+        <v>0</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL143" t="n">
         <v>2</v>
       </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>['38']</t>
-        </is>
-      </c>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>['20']</t>
-        </is>
-      </c>
-      <c r="Q143" t="n">
-        <v>3</v>
-      </c>
-      <c r="R143" t="n">
-        <v>4</v>
-      </c>
-      <c r="S143" t="n">
-        <v>7</v>
-      </c>
-      <c r="T143" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="U143" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V143" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W143" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X143" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="Y143" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="Z143" t="n">
+      <c r="AM143" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN143" t="n">
         <v>1.17</v>
       </c>
-      <c r="AA143" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB143" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC143" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AD143" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AE143" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="AF143" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AG143" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AH143" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AI143" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AJ143" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AK143" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AL143" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AM143" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AN143" t="n">
-        <v>1.18</v>
-      </c>
       <c r="AO143" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AR143" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="AU143" t="n">
-        <v>1.58</v>
+        <v>0.99</v>
       </c>
       <c r="AV143" t="n">
-        <v>0.77</v>
+        <v>0.64</v>
       </c>
       <c r="AW143" t="n">
-        <v>2.35</v>
+        <v>1.63</v>
       </c>
       <c r="AX143" t="n">
         <v>0</v>
@@ -29562,22 +29562,22 @@
         <v>0</v>
       </c>
       <c r="BF143" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BG143" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BH143" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BI143" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BJ143" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BK143" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144">
@@ -29726,7 +29726,7 @@
         <v>1.82</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="AT144" t="n">
         <v>1.81</v>
@@ -29932,7 +29932,7 @@
         <v>1.52</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AU145" t="n">
         <v>1.36</v>
@@ -30132,10 +30132,10 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AU146" t="n">
         <v>1.16</v>
@@ -30335,10 +30335,10 @@
         <v>1</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AU147" t="n">
         <v>1.61</v>
@@ -30538,10 +30538,10 @@
         <v>1.37</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AU148" t="n">
         <v>1.52</v>
@@ -30744,7 +30744,7 @@
         <v>1.81</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AU149" t="n">
         <v>2.22</v>
@@ -30944,7 +30944,7 @@
         <v>2.11</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT150" t="n">
         <v>1.95</v>
@@ -31150,7 +31150,7 @@
         <v>1.81</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="AU151" t="n">
         <v>1.26</v>
@@ -31350,10 +31350,10 @@
         <v>1.11</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU152" t="n">
         <v>1.36</v>
@@ -31553,7 +31553,7 @@
         <v>1.95</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AT153" t="n">
         <v>1.81</v>
@@ -31959,10 +31959,10 @@
         <v>0.7</v>
       </c>
       <c r="AS155" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AU155" t="n">
         <v>1.04</v>
@@ -32162,10 +32162,10 @@
         <v>1.25</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AU156" t="n">
         <v>1.39</v>
@@ -32365,10 +32365,10 @@
         <v>1.35</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AU157" t="n">
         <v>0.99</v>
@@ -32568,7 +32568,7 @@
         <v>1.63</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="AT158" t="n">
         <v>1.52</v>
@@ -32771,10 +32771,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AU159" t="n">
         <v>1.61</v>
@@ -32874,10 +32874,10 @@
         <v>0</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['-1', '-1']</t>
         </is>
       </c>
       <c r="Q160" t="n">
@@ -32974,10 +32974,10 @@
         <v>1.43</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AU160" t="n">
         <v>1.16</v>
@@ -33177,10 +33177,10 @@
         <v>1.05</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AU161" t="n">
         <v>1.48</v>
@@ -33380,10 +33380,10 @@
         <v>1.8</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="AU162" t="n">
         <v>1.51</v>
@@ -33586,7 +33586,7 @@
         <v>1.52</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AU163" t="n">
         <v>1.36</v>
@@ -33645,7 +33645,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>5391683</v>
+        <v>5741362</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -33661,16 +33661,16 @@
         <v>45067.5</v>
       </c>
       <c r="F164" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Ben Guerdane</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Club Africain</t>
+          <t>AS Slimane</t>
         </is>
       </c>
       <c r="I164" t="n">
@@ -33683,80 +33683,80 @@
         <v>0</v>
       </c>
       <c r="L164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
       <c r="N164" t="n">
+        <v>1</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>3</v>
+      </c>
+      <c r="R164" t="n">
         <v>2</v>
       </c>
-      <c r="O164" t="inlineStr">
-        <is>
-          <t>['48']</t>
-        </is>
-      </c>
-      <c r="P164" t="inlineStr">
-        <is>
-          <t>['66']</t>
-        </is>
-      </c>
-      <c r="Q164" t="n">
+      <c r="S164" t="n">
         <v>5</v>
       </c>
-      <c r="R164" t="n">
-        <v>3</v>
-      </c>
-      <c r="S164" t="n">
-        <v>8</v>
-      </c>
       <c r="T164" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="U164" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V164" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="W164" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="X164" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="Y164" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="Z164" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AA164" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AB164" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AC164" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="AD164" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="AE164" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="AF164" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AG164" t="n">
-        <v>5.05</v>
+        <v>0</v>
       </c>
       <c r="AH164" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="AI164" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="AJ164" t="n">
         <v>3.1</v>
@@ -33765,40 +33765,40 @@
         <v>1.36</v>
       </c>
       <c r="AL164" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AM164" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AN164" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AO164" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AP164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR164" t="n">
         <v>1.27</v>
       </c>
-      <c r="AQ164" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AR164" t="n">
-        <v>1.85</v>
-      </c>
       <c r="AS164" t="n">
-        <v>1.81</v>
+        <v>1.38</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.81</v>
+        <v>1.29</v>
       </c>
       <c r="AU164" t="n">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="AV164" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AW164" t="n">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="AX164" t="n">
         <v>0</v>
@@ -33825,22 +33825,22 @@
         <v>0</v>
       </c>
       <c r="BF164" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG164" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK164" t="n">
         <v>6</v>
-      </c>
-      <c r="BI164" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ164" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK164" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="165">
@@ -33986,13 +33986,13 @@
         <v>0.77</v>
       </c>
       <c r="AR165" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AU165" t="n">
         <v>1.52</v>
@@ -34192,10 +34192,10 @@
         <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AU166" t="n">
         <v>1.71</v>
@@ -34254,7 +34254,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>5741362</v>
+        <v>5391683</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -34270,16 +34270,16 @@
         <v>45067.5</v>
       </c>
       <c r="F167" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>Ben Guerdane</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>AS Slimane</t>
+          <t>Club Africain</t>
         </is>
       </c>
       <c r="I167" t="n">
@@ -34292,80 +34292,80 @@
         <v>0</v>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
       <c r="N167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>['85']</t>
+          <t>['66']</t>
         </is>
       </c>
       <c r="Q167" t="n">
+        <v>5</v>
+      </c>
+      <c r="R167" t="n">
         <v>3</v>
       </c>
-      <c r="R167" t="n">
-        <v>2</v>
-      </c>
       <c r="S167" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T167" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="U167" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V167" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="W167" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X167" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="Y167" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="Z167" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AA167" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AB167" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC167" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="AD167" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="AE167" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="AF167" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AG167" t="n">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="AH167" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="AI167" t="n">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="AJ167" t="n">
         <v>3.1</v>
@@ -34374,40 +34374,40 @@
         <v>1.36</v>
       </c>
       <c r="AL167" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AM167" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AN167" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AO167" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AP167" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.41</v>
+        <v>1.85</v>
       </c>
       <c r="AR167" t="n">
-        <v>1.27</v>
+        <v>1.85</v>
       </c>
       <c r="AS167" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AU167" t="n">
         <v>1.35</v>
       </c>
-      <c r="AT167" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AU167" t="n">
-        <v>1.08</v>
-      </c>
       <c r="AV167" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AW167" t="n">
-        <v>2.16</v>
+        <v>2.48</v>
       </c>
       <c r="AX167" t="n">
         <v>0</v>
@@ -34434,22 +34434,22 @@
         <v>0</v>
       </c>
       <c r="BF167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH167" t="n">
         <v>6</v>
       </c>
-      <c r="BG167" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH167" t="n">
-        <v>4</v>
-      </c>
       <c r="BI167" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ167" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK167" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168">
@@ -34601,7 +34601,7 @@
         <v>1.95</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AU168" t="n">
         <v>2.04</v>
@@ -34653,6 +34653,1021 @@
       </c>
       <c r="BK168" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5741371</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45073.41666666666</v>
+      </c>
+      <c r="F169" t="n">
+        <v>8</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Tataouine</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Monastir</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>3</v>
+      </c>
+      <c r="K169" t="n">
+        <v>3</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>4</v>
+      </c>
+      <c r="N169" t="n">
+        <v>4</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['17', '36', '45+1', '48']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T169" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U169" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V169" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X169" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5741369</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45073.5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>CS Sfaxien</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Etoile du Sahel</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="n">
+        <v>2</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T170" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U170" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V170" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X170" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5741366</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45073.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>10</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>AS Slimane</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>EO Sidi Bouzid</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T171" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U171" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W171" t="n">
+        <v>0</v>
+      </c>
+      <c r="X171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5741365</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45073.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>10</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Hammam-Sousse</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>CA Bizertin</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T172" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V172" t="n">
+        <v>5</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X172" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5741367</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Tunisia Ligue 1</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45073.5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>10</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Métlaoui</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Stade Tunisien</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>2</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>3</v>
+      </c>
+      <c r="L173" t="n">
+        <v>2</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="n">
+        <v>3</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['8', '17']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T173" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U173" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V173" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="252">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,21 @@
     <t>['8', '17']</t>
   </si>
   <si>
+    <t>['80', '86']</t>
+  </si>
+  <si>
+    <t>['26', '47']</t>
+  </si>
+  <si>
+    <t>['18', '42', '84']</t>
+  </si>
+  <si>
+    <t>['31', '78']</t>
+  </si>
+  <si>
+    <t>['37', '52', '58']</t>
+  </si>
+  <si>
     <t>['8', '11', '45', '65', '70']</t>
   </si>
   <si>
@@ -752,6 +767,9 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['29', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK173"/>
+  <dimension ref="A1:BK179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1635,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT3">
         <v>0.83</v>
@@ -2208,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT6">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2312,7 +2330,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2503,7 +2521,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>11</v>
@@ -2975,7 +2993,7 @@
         <v>1.58</v>
       </c>
       <c r="AT10">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3163,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT11">
         <v>1.58</v>
@@ -3267,7 +3285,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3548,7 +3566,7 @@
         <v>1.43</v>
       </c>
       <c r="AT13">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3739,7 +3757,7 @@
         <v>0.86</v>
       </c>
       <c r="AT14">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU14">
         <v>0.83</v>
@@ -3840,7 +3858,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4031,7 +4049,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4118,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT16">
         <v>0.83</v>
@@ -4222,7 +4240,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>8</v>
@@ -4309,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT17">
         <v>0.14</v>
@@ -4500,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT18">
         <v>0.67</v>
@@ -4604,7 +4622,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4795,7 +4813,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5076,7 +5094,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU21">
         <v>0.18</v>
@@ -5264,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT22">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU22">
         <v>1.31</v>
@@ -5559,7 +5577,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>-1</v>
@@ -5750,7 +5768,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5837,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT25">
         <v>1.17</v>
@@ -5941,7 +5959,7 @@
         <v>81</v>
       </c>
       <c r="P26" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6031,7 +6049,7 @@
         <v>1.17</v>
       </c>
       <c r="AT26">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6219,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -6601,10 +6619,10 @@
         <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT29">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU29">
         <v>1.64</v>
@@ -6792,7 +6810,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT30">
         <v>0.14</v>
@@ -6983,7 +7001,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT31">
         <v>0.67</v>
@@ -7087,7 +7105,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7278,7 +7296,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7469,7 +7487,7 @@
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7750,7 +7768,7 @@
         <v>1.33</v>
       </c>
       <c r="AT35">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU35">
         <v>0.72</v>
@@ -7941,7 +7959,7 @@
         <v>1.58</v>
       </c>
       <c r="AT36">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU36">
         <v>0.91</v>
@@ -8042,7 +8060,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8702,7 +8720,7 @@
         <v>2.33</v>
       </c>
       <c r="AS40">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT40">
         <v>1.58</v>
@@ -8896,7 +8914,7 @@
         <v>0.86</v>
       </c>
       <c r="AT41">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU41">
         <v>0.9399999999999999</v>
@@ -8997,7 +9015,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9084,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT42">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9278,7 +9296,7 @@
         <v>1.43</v>
       </c>
       <c r="AT43">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU43">
         <v>1.08</v>
@@ -9466,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT44">
         <v>0</v>
@@ -9570,7 +9588,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9657,10 +9675,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU45">
         <v>1.95</v>
@@ -9851,7 +9869,7 @@
         <v>1.75</v>
       </c>
       <c r="AT46">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU46">
         <v>1.16</v>
@@ -10039,10 +10057,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT47">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU47">
         <v>1.13</v>
@@ -10143,7 +10161,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10421,10 +10439,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU49">
         <v>1.25</v>
@@ -10615,7 +10633,7 @@
         <v>1.67</v>
       </c>
       <c r="AT50">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU50">
         <v>1.71</v>
@@ -10803,7 +10821,7 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT51">
         <v>1</v>
@@ -11098,7 +11116,7 @@
         <v>81</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>-1</v>
@@ -11188,7 +11206,7 @@
         <v>0.92</v>
       </c>
       <c r="AT53">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU53">
         <v>1.52</v>
@@ -11289,7 +11307,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11379,7 +11397,7 @@
         <v>1</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU54">
         <v>1.4</v>
@@ -11567,7 +11585,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT55">
         <v>0.83</v>
@@ -11758,7 +11776,7 @@
         <v>3</v>
       </c>
       <c r="AS56">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT56">
         <v>2</v>
@@ -11862,7 +11880,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11949,10 +11967,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT57">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU57">
         <v>1.83</v>
@@ -12244,7 +12262,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12435,7 +12453,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12525,7 +12543,7 @@
         <v>1.33</v>
       </c>
       <c r="AT60">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU60">
         <v>1.67</v>
@@ -12626,7 +12644,7 @@
         <v>81</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12904,7 +12922,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT62">
         <v>0.67</v>
@@ -13286,10 +13304,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT64">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU64">
         <v>1.44</v>
@@ -13390,7 +13408,7 @@
         <v>81</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q65">
         <v>-1</v>
@@ -13480,7 +13498,7 @@
         <v>0.92</v>
       </c>
       <c r="AT65">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU65">
         <v>1.52</v>
@@ -13581,7 +13599,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13671,7 +13689,7 @@
         <v>1.43</v>
       </c>
       <c r="AT66">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU66">
         <v>1.08</v>
@@ -13772,7 +13790,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13859,7 +13877,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT67">
         <v>0.75</v>
@@ -14053,7 +14071,7 @@
         <v>1.17</v>
       </c>
       <c r="AT68">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU68">
         <v>0.99</v>
@@ -14244,7 +14262,7 @@
         <v>1.67</v>
       </c>
       <c r="AT69">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU69">
         <v>1.53</v>
@@ -14536,7 +14554,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14623,7 +14641,7 @@
         <v>0.75</v>
       </c>
       <c r="AS71">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT71">
         <v>1</v>
@@ -14727,7 +14745,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14814,7 +14832,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT72">
         <v>1.58</v>
@@ -14918,7 +14936,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>-1</v>
@@ -15008,7 +15026,7 @@
         <v>1.75</v>
       </c>
       <c r="AT73">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU73">
         <v>1.16</v>
@@ -15196,7 +15214,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT74">
         <v>0.67</v>
@@ -15300,7 +15318,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>-1</v>
@@ -15390,7 +15408,7 @@
         <v>0.92</v>
       </c>
       <c r="AT75">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU75">
         <v>1.52</v>
@@ -15578,7 +15596,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT76">
         <v>1.17</v>
@@ -16154,7 +16172,7 @@
         <v>1.58</v>
       </c>
       <c r="AT79">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU79">
         <v>1.15</v>
@@ -16255,7 +16273,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16533,7 +16551,7 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT81">
         <v>0</v>
@@ -16637,7 +16655,7 @@
         <v>128</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>-1</v>
@@ -16724,10 +16742,10 @@
         <v>1.2</v>
       </c>
       <c r="AS82">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT82">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU82">
         <v>1.44</v>
@@ -16915,7 +16933,7 @@
         <v>0.6</v>
       </c>
       <c r="AS83">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT83">
         <v>1</v>
@@ -17019,7 +17037,7 @@
         <v>134</v>
       </c>
       <c r="P84" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q84">
         <v>-1</v>
@@ -17297,7 +17315,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT85">
         <v>0.83</v>
@@ -17401,7 +17419,7 @@
         <v>136</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17488,10 +17506,10 @@
         <v>1.6</v>
       </c>
       <c r="AS86">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT86">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU86">
         <v>1.22</v>
@@ -17682,7 +17700,7 @@
         <v>1.17</v>
       </c>
       <c r="AT87">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU87">
         <v>0.99</v>
@@ -18443,10 +18461,10 @@
         <v>1.6</v>
       </c>
       <c r="AS91">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT91">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU91">
         <v>1.2</v>
@@ -18738,7 +18756,7 @@
         <v>139</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18929,7 +18947,7 @@
         <v>140</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19019,7 +19037,7 @@
         <v>0.86</v>
       </c>
       <c r="AT94">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU94">
         <v>1.07</v>
@@ -19311,7 +19329,7 @@
         <v>81</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19401,7 +19419,7 @@
         <v>1.33</v>
       </c>
       <c r="AT96">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU96">
         <v>1.5</v>
@@ -19589,7 +19607,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT97">
         <v>1.58</v>
@@ -19780,7 +19798,7 @@
         <v>0</v>
       </c>
       <c r="AS98">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT98">
         <v>0</v>
@@ -19971,10 +19989,10 @@
         <v>1.17</v>
       </c>
       <c r="AS99">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT99">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU99">
         <v>1.44</v>
@@ -20075,7 +20093,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>-1</v>
@@ -20266,7 +20284,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20356,7 +20374,7 @@
         <v>1</v>
       </c>
       <c r="AT101">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU101">
         <v>1.43</v>
@@ -20738,7 +20756,7 @@
         <v>1.33</v>
       </c>
       <c r="AT103">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU103">
         <v>0.89</v>
@@ -21120,7 +21138,7 @@
         <v>1.75</v>
       </c>
       <c r="AT105">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU105">
         <v>1.16</v>
@@ -21221,7 +21239,7 @@
         <v>81</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q106">
         <v>-1</v>
@@ -21412,7 +21430,7 @@
         <v>149</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21499,7 +21517,7 @@
         <v>0.5</v>
       </c>
       <c r="AS107">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT107">
         <v>1</v>
@@ -21603,7 +21621,7 @@
         <v>150</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>-1</v>
@@ -21794,7 +21812,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>-1</v>
@@ -21881,10 +21899,10 @@
         <v>1.5</v>
       </c>
       <c r="AS109">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT109">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU109">
         <v>1.44</v>
@@ -21985,7 +22003,7 @@
         <v>152</v>
       </c>
       <c r="P110" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22075,7 +22093,7 @@
         <v>1.67</v>
       </c>
       <c r="AT110">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU110">
         <v>1.54</v>
@@ -22263,7 +22281,7 @@
         <v>0.83</v>
       </c>
       <c r="AS111">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT111">
         <v>0.75</v>
@@ -22367,7 +22385,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22454,7 +22472,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT112">
         <v>1.58</v>
@@ -22836,10 +22854,10 @@
         <v>1.71</v>
       </c>
       <c r="AS114">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AT114">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AU114">
         <v>2.46</v>
@@ -23027,10 +23045,10 @@
         <v>1.14</v>
       </c>
       <c r="AS115">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AT115">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AU115">
         <v>1.16</v>
@@ -23131,7 +23149,7 @@
         <v>138</v>
       </c>
       <c r="P116" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23218,10 +23236,10 @@
         <v>2.21</v>
       </c>
       <c r="AS116">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AT116">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AU116">
         <v>1.29</v>
@@ -23409,10 +23427,10 @@
         <v>1.29</v>
       </c>
       <c r="AS117">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AT117">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AU117">
         <v>1.42</v>
@@ -23895,7 +23913,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q120">
         <v>12</v>
@@ -24173,10 +24191,10 @@
         <v>1.8</v>
       </c>
       <c r="AS121">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AT121">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AU121">
         <v>1.5</v>
@@ -24364,10 +24382,10 @@
         <v>2.13</v>
       </c>
       <c r="AS122">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AT122">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AU122">
         <v>1.41</v>
@@ -24468,7 +24486,7 @@
         <v>81</v>
       </c>
       <c r="P123" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>-1</v>
@@ -24555,10 +24573,10 @@
         <v>1.8</v>
       </c>
       <c r="AS123">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AT123">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AU123">
         <v>1.44</v>
@@ -25423,7 +25441,7 @@
         <v>160</v>
       </c>
       <c r="P128" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q128">
         <v>-1</v>
@@ -26187,7 +26205,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26465,10 +26483,10 @@
         <v>2.13</v>
       </c>
       <c r="AS133">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT133">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AU133">
         <v>2.2</v>
@@ -26656,10 +26674,10 @@
         <v>1.13</v>
       </c>
       <c r="AS134">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AT134">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AU134">
         <v>2.28</v>
@@ -26760,7 +26778,7 @@
         <v>165</v>
       </c>
       <c r="P135" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26847,10 +26865,10 @@
         <v>2.06</v>
       </c>
       <c r="AS135">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AT135">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AU135">
         <v>1.23</v>
@@ -27038,10 +27056,10 @@
         <v>1.06</v>
       </c>
       <c r="AS136">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AT136">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AU136">
         <v>1.25</v>
@@ -27229,10 +27247,10 @@
         <v>2.19</v>
       </c>
       <c r="AS137">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AT137">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AU137">
         <v>1.44</v>
@@ -27420,10 +27438,10 @@
         <v>1.94</v>
       </c>
       <c r="AS138">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AT138">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AU138">
         <v>1.41</v>
@@ -27611,10 +27629,10 @@
         <v>1.59</v>
       </c>
       <c r="AS139">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AT139">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AU139">
         <v>1.53</v>
@@ -27802,10 +27820,10 @@
         <v>2.24</v>
       </c>
       <c r="AS140">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT140">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AU140">
         <v>2.17</v>
@@ -27906,7 +27924,7 @@
         <v>103</v>
       </c>
       <c r="P141" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28288,7 +28306,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q143">
         <v>-1</v>
@@ -28479,7 +28497,7 @@
         <v>81</v>
       </c>
       <c r="P144" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28566,10 +28584,10 @@
         <v>1.82</v>
       </c>
       <c r="AS144">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AT144">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AU144">
         <v>1.39</v>
@@ -28757,10 +28775,10 @@
         <v>1.06</v>
       </c>
       <c r="AS145">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AT145">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AU145">
         <v>1.36</v>
@@ -28861,7 +28879,7 @@
         <v>173</v>
       </c>
       <c r="P146" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q146">
         <v>-1</v>
@@ -29052,7 +29070,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q147">
         <v>-1</v>
@@ -29521,10 +29539,10 @@
         <v>2.11</v>
       </c>
       <c r="AS149">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AT149">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AU149">
         <v>2.22</v>
@@ -29712,10 +29730,10 @@
         <v>2.11</v>
       </c>
       <c r="AS150">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AT150">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AU150">
         <v>1.51</v>
@@ -29816,7 +29834,7 @@
         <v>175</v>
       </c>
       <c r="P151" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -29903,10 +29921,10 @@
         <v>1.83</v>
       </c>
       <c r="AS151">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AT151">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AU151">
         <v>1.26</v>
@@ -30007,7 +30025,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30094,10 +30112,10 @@
         <v>1.11</v>
       </c>
       <c r="AS152">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AT152">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AU152">
         <v>1.36</v>
@@ -30285,10 +30303,10 @@
         <v>1.95</v>
       </c>
       <c r="AS153">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AT153">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AU153">
         <v>1.24</v>
@@ -30476,10 +30494,10 @@
         <v>2</v>
       </c>
       <c r="AS154">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AT154">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AU154">
         <v>2.13</v>
@@ -30580,7 +30598,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q155">
         <v>-1</v>
@@ -31240,10 +31258,10 @@
         <v>1.63</v>
       </c>
       <c r="AS158">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AT158">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AU158">
         <v>1.32</v>
@@ -32004,10 +32022,10 @@
         <v>1.8</v>
       </c>
       <c r="AS162">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AT162">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AU162">
         <v>1.51</v>
@@ -32195,10 +32213,10 @@
         <v>2.2</v>
       </c>
       <c r="AS163">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AT163">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AU163">
         <v>1.36</v>
@@ -32959,10 +32977,10 @@
         <v>1.85</v>
       </c>
       <c r="AS167">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AT167">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AU167">
         <v>1.35</v>
@@ -33150,10 +33168,10 @@
         <v>0.95</v>
       </c>
       <c r="AS168">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT168">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AU168">
         <v>2.04</v>
@@ -33254,7 +33272,7 @@
         <v>81</v>
       </c>
       <c r="P169" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q169">
         <v>-1</v>
@@ -33341,10 +33359,10 @@
         <v>1.76</v>
       </c>
       <c r="AS169">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AT169">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AU169">
         <v>1.3</v>
@@ -33445,7 +33463,7 @@
         <v>184</v>
       </c>
       <c r="P170" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q170">
         <v>-1</v>
@@ -33532,10 +33550,10 @@
         <v>2.14</v>
       </c>
       <c r="AS170">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AT170">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AU170">
         <v>1.48</v>
@@ -34018,7 +34036,7 @@
         <v>186</v>
       </c>
       <c r="P173" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q173">
         <v>-1</v>
@@ -34160,6 +34178,1152 @@
       </c>
       <c r="BK173">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>5741368</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45077.5</v>
+      </c>
+      <c r="F174">
+        <v>8</v>
+      </c>
+      <c r="G174" t="s">
+        <v>74</v>
+      </c>
+      <c r="H174" t="s">
+        <v>79</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>81</v>
+      </c>
+      <c r="P174" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q174">
+        <v>1</v>
+      </c>
+      <c r="R174">
+        <v>0</v>
+      </c>
+      <c r="S174">
+        <v>1</v>
+      </c>
+      <c r="T174">
+        <v>4.33</v>
+      </c>
+      <c r="U174">
+        <v>1.8</v>
+      </c>
+      <c r="V174">
+        <v>3.2</v>
+      </c>
+      <c r="W174">
+        <v>1.54</v>
+      </c>
+      <c r="X174">
+        <v>2.38</v>
+      </c>
+      <c r="Y174">
+        <v>3.54</v>
+      </c>
+      <c r="Z174">
+        <v>1.27</v>
+      </c>
+      <c r="AA174">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB174">
+        <v>1.03</v>
+      </c>
+      <c r="AC174">
+        <v>3.3</v>
+      </c>
+      <c r="AD174">
+        <v>2.7</v>
+      </c>
+      <c r="AE174">
+        <v>2.25</v>
+      </c>
+      <c r="AF174">
+        <v>1.06</v>
+      </c>
+      <c r="AG174">
+        <v>6.55</v>
+      </c>
+      <c r="AH174">
+        <v>1.5</v>
+      </c>
+      <c r="AI174">
+        <v>2.4</v>
+      </c>
+      <c r="AJ174">
+        <v>3.1</v>
+      </c>
+      <c r="AK174">
+        <v>1.36</v>
+      </c>
+      <c r="AL174">
+        <v>2.21</v>
+      </c>
+      <c r="AM174">
+        <v>1.56</v>
+      </c>
+      <c r="AN174">
+        <v>1.53</v>
+      </c>
+      <c r="AO174">
+        <v>1.34</v>
+      </c>
+      <c r="AP174">
+        <v>1.35</v>
+      </c>
+      <c r="AQ174">
+        <v>1.52</v>
+      </c>
+      <c r="AR174">
+        <v>1.81</v>
+      </c>
+      <c r="AS174">
+        <v>1.39</v>
+      </c>
+      <c r="AT174">
+        <v>1.91</v>
+      </c>
+      <c r="AU174">
+        <v>1.36</v>
+      </c>
+      <c r="AV174">
+        <v>1.16</v>
+      </c>
+      <c r="AW174">
+        <v>2.52</v>
+      </c>
+      <c r="AX174">
+        <v>0</v>
+      </c>
+      <c r="AY174">
+        <v>0</v>
+      </c>
+      <c r="AZ174">
+        <v>0</v>
+      </c>
+      <c r="BA174">
+        <v>0</v>
+      </c>
+      <c r="BB174">
+        <v>1.9</v>
+      </c>
+      <c r="BC174">
+        <v>0</v>
+      </c>
+      <c r="BD174">
+        <v>0</v>
+      </c>
+      <c r="BE174">
+        <v>0</v>
+      </c>
+      <c r="BF174">
+        <v>3</v>
+      </c>
+      <c r="BG174">
+        <v>0</v>
+      </c>
+      <c r="BH174">
+        <v>1</v>
+      </c>
+      <c r="BI174">
+        <v>0</v>
+      </c>
+      <c r="BJ174">
+        <v>4</v>
+      </c>
+      <c r="BK174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>5741370</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45078.54166666666</v>
+      </c>
+      <c r="F175">
+        <v>8</v>
+      </c>
+      <c r="G175" t="s">
+        <v>77</v>
+      </c>
+      <c r="H175" t="s">
+        <v>66</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>2</v>
+      </c>
+      <c r="O175" t="s">
+        <v>187</v>
+      </c>
+      <c r="P175" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q175">
+        <v>5</v>
+      </c>
+      <c r="R175">
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>5</v>
+      </c>
+      <c r="T175">
+        <v>1.83</v>
+      </c>
+      <c r="U175">
+        <v>2.25</v>
+      </c>
+      <c r="V175">
+        <v>8</v>
+      </c>
+      <c r="W175">
+        <v>1.45</v>
+      </c>
+      <c r="X175">
+        <v>2.65</v>
+      </c>
+      <c r="Y175">
+        <v>3.13</v>
+      </c>
+      <c r="Z175">
+        <v>1.33</v>
+      </c>
+      <c r="AA175">
+        <v>7.1</v>
+      </c>
+      <c r="AB175">
+        <v>1.06</v>
+      </c>
+      <c r="AC175">
+        <v>1.33</v>
+      </c>
+      <c r="AD175">
+        <v>4</v>
+      </c>
+      <c r="AE175">
+        <v>8.5</v>
+      </c>
+      <c r="AF175">
+        <v>1.03</v>
+      </c>
+      <c r="AG175">
+        <v>7.9</v>
+      </c>
+      <c r="AH175">
+        <v>1.51</v>
+      </c>
+      <c r="AI175">
+        <v>2.39</v>
+      </c>
+      <c r="AJ175">
+        <v>1.95</v>
+      </c>
+      <c r="AK175">
+        <v>1.85</v>
+      </c>
+      <c r="AL175">
+        <v>2.65</v>
+      </c>
+      <c r="AM175">
+        <v>1.42</v>
+      </c>
+      <c r="AN175">
+        <v>1.08</v>
+      </c>
+      <c r="AO175">
+        <v>1.22</v>
+      </c>
+      <c r="AP175">
+        <v>2.48</v>
+      </c>
+      <c r="AQ175">
+        <v>1.95</v>
+      </c>
+      <c r="AR175">
+        <v>1.81</v>
+      </c>
+      <c r="AS175">
+        <v>1.91</v>
+      </c>
+      <c r="AT175">
+        <v>1.78</v>
+      </c>
+      <c r="AU175">
+        <v>1.95</v>
+      </c>
+      <c r="AV175">
+        <v>1.33</v>
+      </c>
+      <c r="AW175">
+        <v>3.28</v>
+      </c>
+      <c r="AX175">
+        <v>0</v>
+      </c>
+      <c r="AY175">
+        <v>0</v>
+      </c>
+      <c r="AZ175">
+        <v>0</v>
+      </c>
+      <c r="BA175">
+        <v>0</v>
+      </c>
+      <c r="BB175">
+        <v>2</v>
+      </c>
+      <c r="BC175">
+        <v>0</v>
+      </c>
+      <c r="BD175">
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <v>7</v>
+      </c>
+      <c r="BG175">
+        <v>2</v>
+      </c>
+      <c r="BH175">
+        <v>12</v>
+      </c>
+      <c r="BI175">
+        <v>5</v>
+      </c>
+      <c r="BJ175">
+        <v>19</v>
+      </c>
+      <c r="BK175">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>5741372</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45080.52083333334</v>
+      </c>
+      <c r="F176">
+        <v>9</v>
+      </c>
+      <c r="G176" t="s">
+        <v>79</v>
+      </c>
+      <c r="H176" t="s">
+        <v>78</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>188</v>
+      </c>
+      <c r="P176" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q176">
+        <v>3</v>
+      </c>
+      <c r="R176">
+        <v>4</v>
+      </c>
+      <c r="S176">
+        <v>7</v>
+      </c>
+      <c r="T176">
+        <v>2.3</v>
+      </c>
+      <c r="U176">
+        <v>1.91</v>
+      </c>
+      <c r="V176">
+        <v>6.5</v>
+      </c>
+      <c r="W176">
+        <v>1.52</v>
+      </c>
+      <c r="X176">
+        <v>2.43</v>
+      </c>
+      <c r="Y176">
+        <v>3.46</v>
+      </c>
+      <c r="Z176">
+        <v>1.28</v>
+      </c>
+      <c r="AA176">
+        <v>9.6</v>
+      </c>
+      <c r="AB176">
+        <v>1.02</v>
+      </c>
+      <c r="AC176">
+        <v>1.6</v>
+      </c>
+      <c r="AD176">
+        <v>3.1</v>
+      </c>
+      <c r="AE176">
+        <v>6</v>
+      </c>
+      <c r="AF176">
+        <v>1.06</v>
+      </c>
+      <c r="AG176">
+        <v>6.75</v>
+      </c>
+      <c r="AH176">
+        <v>1.5</v>
+      </c>
+      <c r="AI176">
+        <v>2.4</v>
+      </c>
+      <c r="AJ176">
+        <v>2.7</v>
+      </c>
+      <c r="AK176">
+        <v>1.44</v>
+      </c>
+      <c r="AL176">
+        <v>2.6</v>
+      </c>
+      <c r="AM176">
+        <v>1.41</v>
+      </c>
+      <c r="AN176">
+        <v>1.09</v>
+      </c>
+      <c r="AO176">
+        <v>1.25</v>
+      </c>
+      <c r="AP176">
+        <v>2.36</v>
+      </c>
+      <c r="AQ176">
+        <v>1.86</v>
+      </c>
+      <c r="AR176">
+        <v>1.18</v>
+      </c>
+      <c r="AS176">
+        <v>1.91</v>
+      </c>
+      <c r="AT176">
+        <v>1.13</v>
+      </c>
+      <c r="AU176">
+        <v>1.98</v>
+      </c>
+      <c r="AV176">
+        <v>1.16</v>
+      </c>
+      <c r="AW176">
+        <v>3.14</v>
+      </c>
+      <c r="AX176">
+        <v>0</v>
+      </c>
+      <c r="AY176">
+        <v>0</v>
+      </c>
+      <c r="AZ176">
+        <v>0</v>
+      </c>
+      <c r="BA176">
+        <v>0</v>
+      </c>
+      <c r="BB176">
+        <v>0</v>
+      </c>
+      <c r="BC176">
+        <v>0</v>
+      </c>
+      <c r="BD176">
+        <v>0</v>
+      </c>
+      <c r="BE176">
+        <v>0</v>
+      </c>
+      <c r="BF176">
+        <v>6</v>
+      </c>
+      <c r="BG176">
+        <v>3</v>
+      </c>
+      <c r="BH176">
+        <v>5</v>
+      </c>
+      <c r="BI176">
+        <v>17</v>
+      </c>
+      <c r="BJ176">
+        <v>11</v>
+      </c>
+      <c r="BK176">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>5741374</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45080.52083333334</v>
+      </c>
+      <c r="F177">
+        <v>9</v>
+      </c>
+      <c r="G177" t="s">
+        <v>69</v>
+      </c>
+      <c r="H177" t="s">
+        <v>71</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>3</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>189</v>
+      </c>
+      <c r="P177" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q177">
+        <v>-1</v>
+      </c>
+      <c r="R177">
+        <v>-1</v>
+      </c>
+      <c r="S177">
+        <v>-1</v>
+      </c>
+      <c r="T177">
+        <v>1.8</v>
+      </c>
+      <c r="U177">
+        <v>2.25</v>
+      </c>
+      <c r="V177">
+        <v>11</v>
+      </c>
+      <c r="W177">
+        <v>1.35</v>
+      </c>
+      <c r="X177">
+        <v>3.04</v>
+      </c>
+      <c r="Y177">
+        <v>2.66</v>
+      </c>
+      <c r="Z177">
+        <v>1.44</v>
+      </c>
+      <c r="AA177">
+        <v>6.1</v>
+      </c>
+      <c r="AB177">
+        <v>1.09</v>
+      </c>
+      <c r="AC177">
+        <v>1.14</v>
+      </c>
+      <c r="AD177">
+        <v>6.5</v>
+      </c>
+      <c r="AE177">
+        <v>15</v>
+      </c>
+      <c r="AF177">
+        <v>1.01</v>
+      </c>
+      <c r="AG177">
+        <v>9.9</v>
+      </c>
+      <c r="AH177">
+        <v>1.24</v>
+      </c>
+      <c r="AI177">
+        <v>3.48</v>
+      </c>
+      <c r="AJ177">
+        <v>1.5</v>
+      </c>
+      <c r="AK177">
+        <v>2.5</v>
+      </c>
+      <c r="AL177">
+        <v>3.34</v>
+      </c>
+      <c r="AM177">
+        <v>1.26</v>
+      </c>
+      <c r="AN177">
+        <v>1.01</v>
+      </c>
+      <c r="AO177">
+        <v>1.09</v>
+      </c>
+      <c r="AP177">
+        <v>4.8</v>
+      </c>
+      <c r="AQ177">
+        <v>2.09</v>
+      </c>
+      <c r="AR177">
+        <v>0.86</v>
+      </c>
+      <c r="AS177">
+        <v>2.13</v>
+      </c>
+      <c r="AT177">
+        <v>0.83</v>
+      </c>
+      <c r="AU177">
+        <v>1.24</v>
+      </c>
+      <c r="AV177">
+        <v>0.66</v>
+      </c>
+      <c r="AW177">
+        <v>1.9</v>
+      </c>
+      <c r="AX177">
+        <v>0</v>
+      </c>
+      <c r="AY177">
+        <v>0</v>
+      </c>
+      <c r="AZ177">
+        <v>0</v>
+      </c>
+      <c r="BA177">
+        <v>0</v>
+      </c>
+      <c r="BB177">
+        <v>0</v>
+      </c>
+      <c r="BC177">
+        <v>0</v>
+      </c>
+      <c r="BD177">
+        <v>0</v>
+      </c>
+      <c r="BE177">
+        <v>0</v>
+      </c>
+      <c r="BF177">
+        <v>-1</v>
+      </c>
+      <c r="BG177">
+        <v>-1</v>
+      </c>
+      <c r="BH177">
+        <v>-1</v>
+      </c>
+      <c r="BI177">
+        <v>-1</v>
+      </c>
+      <c r="BJ177">
+        <v>-1</v>
+      </c>
+      <c r="BK177">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>5741373</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45081.52083333334</v>
+      </c>
+      <c r="F178">
+        <v>9</v>
+      </c>
+      <c r="G178" t="s">
+        <v>66</v>
+      </c>
+      <c r="H178" t="s">
+        <v>74</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>190</v>
+      </c>
+      <c r="P178" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>3</v>
+      </c>
+      <c r="S178">
+        <v>3</v>
+      </c>
+      <c r="T178">
+        <v>2.88</v>
+      </c>
+      <c r="U178">
+        <v>1.8</v>
+      </c>
+      <c r="V178">
+        <v>5</v>
+      </c>
+      <c r="W178">
+        <v>1.56</v>
+      </c>
+      <c r="X178">
+        <v>2.27</v>
+      </c>
+      <c r="Y178">
+        <v>3.7</v>
+      </c>
+      <c r="Z178">
+        <v>1.24</v>
+      </c>
+      <c r="AA178">
+        <v>10.5</v>
+      </c>
+      <c r="AB178">
+        <v>1.01</v>
+      </c>
+      <c r="AC178">
+        <v>1.95</v>
+      </c>
+      <c r="AD178">
+        <v>2.9</v>
+      </c>
+      <c r="AE178">
+        <v>3.75</v>
+      </c>
+      <c r="AF178">
+        <v>1.12</v>
+      </c>
+      <c r="AG178">
+        <v>6.2</v>
+      </c>
+      <c r="AH178">
+        <v>1.56</v>
+      </c>
+      <c r="AI178">
+        <v>2.28</v>
+      </c>
+      <c r="AJ178">
+        <v>3.1</v>
+      </c>
+      <c r="AK178">
+        <v>1.36</v>
+      </c>
+      <c r="AL178">
+        <v>2.45</v>
+      </c>
+      <c r="AM178">
+        <v>1.52</v>
+      </c>
+      <c r="AN178">
+        <v>1.18</v>
+      </c>
+      <c r="AO178">
+        <v>1.3</v>
+      </c>
+      <c r="AP178">
+        <v>1.73</v>
+      </c>
+      <c r="AQ178">
+        <v>1.73</v>
+      </c>
+      <c r="AR178">
+        <v>1.45</v>
+      </c>
+      <c r="AS178">
+        <v>1.78</v>
+      </c>
+      <c r="AT178">
+        <v>1.39</v>
+      </c>
+      <c r="AU178">
+        <v>1.35</v>
+      </c>
+      <c r="AV178">
+        <v>0.99</v>
+      </c>
+      <c r="AW178">
+        <v>2.34</v>
+      </c>
+      <c r="AX178">
+        <v>0</v>
+      </c>
+      <c r="AY178">
+        <v>0</v>
+      </c>
+      <c r="AZ178">
+        <v>0</v>
+      </c>
+      <c r="BA178">
+        <v>0</v>
+      </c>
+      <c r="BB178">
+        <v>0</v>
+      </c>
+      <c r="BC178">
+        <v>0</v>
+      </c>
+      <c r="BD178">
+        <v>0</v>
+      </c>
+      <c r="BE178">
+        <v>0</v>
+      </c>
+      <c r="BF178">
+        <v>7</v>
+      </c>
+      <c r="BG178">
+        <v>2</v>
+      </c>
+      <c r="BH178">
+        <v>3</v>
+      </c>
+      <c r="BI178">
+        <v>9</v>
+      </c>
+      <c r="BJ178">
+        <v>10</v>
+      </c>
+      <c r="BK178">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>5741375</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45081.52083333334</v>
+      </c>
+      <c r="F179">
+        <v>9</v>
+      </c>
+      <c r="G179" t="s">
+        <v>80</v>
+      </c>
+      <c r="H179" t="s">
+        <v>77</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>2</v>
+      </c>
+      <c r="L179">
+        <v>3</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>5</v>
+      </c>
+      <c r="O179" t="s">
+        <v>191</v>
+      </c>
+      <c r="P179" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q179">
+        <v>3</v>
+      </c>
+      <c r="R179">
+        <v>6</v>
+      </c>
+      <c r="S179">
+        <v>9</v>
+      </c>
+      <c r="T179">
+        <v>5</v>
+      </c>
+      <c r="U179">
+        <v>1.83</v>
+      </c>
+      <c r="V179">
+        <v>2.75</v>
+      </c>
+      <c r="W179">
+        <v>1.53</v>
+      </c>
+      <c r="X179">
+        <v>2.34</v>
+      </c>
+      <c r="Y179">
+        <v>3.5</v>
+      </c>
+      <c r="Z179">
+        <v>1.26</v>
+      </c>
+      <c r="AA179">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB179">
+        <v>1.02</v>
+      </c>
+      <c r="AC179">
+        <v>3.75</v>
+      </c>
+      <c r="AD179">
+        <v>3.1</v>
+      </c>
+      <c r="AE179">
+        <v>1.85</v>
+      </c>
+      <c r="AF179">
+        <v>1.12</v>
+      </c>
+      <c r="AG179">
+        <v>6.1</v>
+      </c>
+      <c r="AH179">
+        <v>1.56</v>
+      </c>
+      <c r="AI179">
+        <v>2.28</v>
+      </c>
+      <c r="AJ179">
+        <v>2.88</v>
+      </c>
+      <c r="AK179">
+        <v>1.4</v>
+      </c>
+      <c r="AL179">
+        <v>2.25</v>
+      </c>
+      <c r="AM179">
+        <v>1.61</v>
+      </c>
+      <c r="AN179">
+        <v>1.53</v>
+      </c>
+      <c r="AO179">
+        <v>1.3</v>
+      </c>
+      <c r="AP179">
+        <v>1.3</v>
+      </c>
+      <c r="AQ179">
+        <v>1.82</v>
+      </c>
+      <c r="AR179">
+        <v>2</v>
+      </c>
+      <c r="AS179">
+        <v>1.87</v>
+      </c>
+      <c r="AT179">
+        <v>1.91</v>
+      </c>
+      <c r="AU179">
+        <v>1.35</v>
+      </c>
+      <c r="AV179">
+        <v>1.41</v>
+      </c>
+      <c r="AW179">
+        <v>2.76</v>
+      </c>
+      <c r="AX179">
+        <v>0</v>
+      </c>
+      <c r="AY179">
+        <v>0</v>
+      </c>
+      <c r="AZ179">
+        <v>0</v>
+      </c>
+      <c r="BA179">
+        <v>0</v>
+      </c>
+      <c r="BB179">
+        <v>0</v>
+      </c>
+      <c r="BC179">
+        <v>0</v>
+      </c>
+      <c r="BD179">
+        <v>0</v>
+      </c>
+      <c r="BE179">
+        <v>0</v>
+      </c>
+      <c r="BF179">
+        <v>4</v>
+      </c>
+      <c r="BG179">
+        <v>6</v>
+      </c>
+      <c r="BH179">
+        <v>4</v>
+      </c>
+      <c r="BI179">
+        <v>5</v>
+      </c>
+      <c r="BJ179">
+        <v>8</v>
+      </c>
+      <c r="BK179">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,15 @@
     <t>['37', '52', '58']</t>
   </si>
   <si>
+    <t>['10', '90']</t>
+  </si>
+  <si>
+    <t>['25', '64']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
     <t>['8', '11', '45', '65', '70']</t>
   </si>
   <si>
@@ -748,9 +757,6 @@
     <t>['25', '49']</t>
   </si>
   <si>
-    <t>['71']</t>
-  </si>
-  <si>
     <t>['56', '71']</t>
   </si>
   <si>
@@ -770,6 +776,9 @@
   </si>
   <si>
     <t>['29', '90+4']</t>
+  </si>
+  <si>
+    <t>['67', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK179"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2330,7 +2339,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2420,7 +2429,7 @@
         <v>1.33</v>
       </c>
       <c r="AT7">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2521,7 +2530,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>11</v>
@@ -2993,7 +3002,7 @@
         <v>1.58</v>
       </c>
       <c r="AT10">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3285,7 +3294,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3757,7 +3766,7 @@
         <v>0.86</v>
       </c>
       <c r="AT14">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU14">
         <v>0.83</v>
@@ -3858,7 +3867,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4049,7 +4058,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4240,7 +4249,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>8</v>
@@ -4327,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT17">
         <v>0.14</v>
@@ -4622,7 +4631,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4813,7 +4822,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5285,7 +5294,7 @@
         <v>2.25</v>
       </c>
       <c r="AT22">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU22">
         <v>1.31</v>
@@ -5577,7 +5586,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>-1</v>
@@ -5768,7 +5777,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5959,7 +5968,7 @@
         <v>81</v>
       </c>
       <c r="P26" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6619,7 +6628,7 @@
         <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT29">
         <v>0.67</v>
@@ -7105,7 +7114,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7296,7 +7305,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7487,7 +7496,7 @@
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7959,7 +7968,7 @@
         <v>1.58</v>
       </c>
       <c r="AT36">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU36">
         <v>0.91</v>
@@ -8060,7 +8069,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8150,7 +8159,7 @@
         <v>1.17</v>
       </c>
       <c r="AT37">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU37">
         <v>0.75</v>
@@ -8529,7 +8538,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT39">
         <v>0.75</v>
@@ -8914,7 +8923,7 @@
         <v>0.86</v>
       </c>
       <c r="AT41">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU41">
         <v>0.9399999999999999</v>
@@ -9015,7 +9024,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9105,7 +9114,7 @@
         <v>2</v>
       </c>
       <c r="AT42">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9484,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT44">
         <v>0</v>
@@ -9588,7 +9597,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9675,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT45">
         <v>0.91</v>
@@ -9869,7 +9878,7 @@
         <v>1.75</v>
       </c>
       <c r="AT46">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU46">
         <v>1.16</v>
@@ -10057,10 +10066,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT47">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU47">
         <v>1.13</v>
@@ -10161,7 +10170,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10248,7 +10257,7 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT48">
         <v>1.17</v>
@@ -11012,7 +11021,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT52">
         <v>1.58</v>
@@ -11116,7 +11125,7 @@
         <v>81</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>-1</v>
@@ -11206,7 +11215,7 @@
         <v>0.92</v>
       </c>
       <c r="AT53">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU53">
         <v>1.52</v>
@@ -11307,7 +11316,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11585,7 +11594,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT55">
         <v>0.83</v>
@@ -11776,10 +11785,10 @@
         <v>3</v>
       </c>
       <c r="AS56">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT56">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU56">
         <v>2.05</v>
@@ -11880,7 +11889,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11970,7 +11979,7 @@
         <v>2</v>
       </c>
       <c r="AT57">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU57">
         <v>1.83</v>
@@ -12262,7 +12271,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12453,7 +12462,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12540,7 +12549,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT60">
         <v>1.25</v>
@@ -12644,7 +12653,7 @@
         <v>81</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12734,7 +12743,7 @@
         <v>1</v>
       </c>
       <c r="AT61">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU61">
         <v>1.23</v>
@@ -13304,10 +13313,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT64">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU64">
         <v>1.44</v>
@@ -13408,7 +13417,7 @@
         <v>81</v>
       </c>
       <c r="P65" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q65">
         <v>-1</v>
@@ -13498,7 +13507,7 @@
         <v>0.92</v>
       </c>
       <c r="AT65">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU65">
         <v>1.52</v>
@@ -13599,7 +13608,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13790,7 +13799,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14554,7 +14563,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14745,7 +14754,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14936,7 +14945,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>-1</v>
@@ -15026,7 +15035,7 @@
         <v>1.75</v>
       </c>
       <c r="AT73">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU73">
         <v>1.16</v>
@@ -15214,7 +15223,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>0.67</v>
@@ -15318,7 +15327,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>-1</v>
@@ -15408,7 +15417,7 @@
         <v>0.92</v>
       </c>
       <c r="AT75">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU75">
         <v>1.52</v>
@@ -15596,7 +15605,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT76">
         <v>1.17</v>
@@ -16172,7 +16181,7 @@
         <v>1.58</v>
       </c>
       <c r="AT79">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU79">
         <v>1.15</v>
@@ -16273,7 +16282,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16360,10 +16369,10 @@
         <v>2.25</v>
       </c>
       <c r="AS80">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT80">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU80">
         <v>1.38</v>
@@ -16655,7 +16664,7 @@
         <v>128</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q82">
         <v>-1</v>
@@ -16745,7 +16754,7 @@
         <v>1.58</v>
       </c>
       <c r="AT82">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU82">
         <v>1.44</v>
@@ -16933,7 +16942,7 @@
         <v>0.6</v>
       </c>
       <c r="AS83">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT83">
         <v>1</v>
@@ -17037,7 +17046,7 @@
         <v>134</v>
       </c>
       <c r="P84" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q84">
         <v>-1</v>
@@ -17419,7 +17428,7 @@
         <v>136</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -18464,7 +18473,7 @@
         <v>2.25</v>
       </c>
       <c r="AT91">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU91">
         <v>1.2</v>
@@ -18655,7 +18664,7 @@
         <v>1.67</v>
       </c>
       <c r="AT92">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU92">
         <v>1.63</v>
@@ -18756,7 +18765,7 @@
         <v>139</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18947,7 +18956,7 @@
         <v>140</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19037,7 +19046,7 @@
         <v>0.86</v>
       </c>
       <c r="AT94">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU94">
         <v>1.07</v>
@@ -19329,7 +19338,7 @@
         <v>81</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19416,7 +19425,7 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT96">
         <v>0.67</v>
@@ -19607,7 +19616,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT97">
         <v>1.58</v>
@@ -19989,10 +19998,10 @@
         <v>1.17</v>
       </c>
       <c r="AS99">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT99">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU99">
         <v>1.44</v>
@@ -20093,7 +20102,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>-1</v>
@@ -20284,7 +20293,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20565,7 +20574,7 @@
         <v>1.43</v>
       </c>
       <c r="AT102">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AU102">
         <v>1.08</v>
@@ -21138,7 +21147,7 @@
         <v>1.75</v>
       </c>
       <c r="AT105">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU105">
         <v>1.16</v>
@@ -21239,7 +21248,7 @@
         <v>81</v>
       </c>
       <c r="P106" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>-1</v>
@@ -21430,7 +21439,7 @@
         <v>149</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21621,7 +21630,7 @@
         <v>150</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q108">
         <v>-1</v>
@@ -21812,7 +21821,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q109">
         <v>-1</v>
@@ -21902,7 +21911,7 @@
         <v>1.58</v>
       </c>
       <c r="AT109">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU109">
         <v>1.44</v>
@@ -22003,7 +22012,7 @@
         <v>152</v>
       </c>
       <c r="P110" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22281,7 +22290,7 @@
         <v>0.83</v>
       </c>
       <c r="AS111">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT111">
         <v>0.75</v>
@@ -22385,7 +22394,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22663,7 +22672,7 @@
         <v>0.17</v>
       </c>
       <c r="AS113">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT113">
         <v>0.14</v>
@@ -22854,10 +22863,10 @@
         <v>1.71</v>
       </c>
       <c r="AS114">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="AT114">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AU114">
         <v>2.46</v>
@@ -23045,10 +23054,10 @@
         <v>1.14</v>
       </c>
       <c r="AS115">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AT115">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AU115">
         <v>1.16</v>
@@ -23149,7 +23158,7 @@
         <v>138</v>
       </c>
       <c r="P116" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23236,10 +23245,10 @@
         <v>2.21</v>
       </c>
       <c r="AS116">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AT116">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AU116">
         <v>1.29</v>
@@ -23427,7 +23436,7 @@
         <v>1.29</v>
       </c>
       <c r="AS117">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="AT117">
         <v>0.83</v>
@@ -23913,7 +23922,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q120">
         <v>12</v>
@@ -24191,10 +24200,10 @@
         <v>1.8</v>
       </c>
       <c r="AS121">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT121">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="AU121">
         <v>1.5</v>
@@ -24385,7 +24394,7 @@
         <v>0.83</v>
       </c>
       <c r="AT122">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AU122">
         <v>1.41</v>
@@ -24486,7 +24495,7 @@
         <v>81</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q123">
         <v>-1</v>
@@ -24573,10 +24582,10 @@
         <v>1.8</v>
       </c>
       <c r="AS123">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AT123">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AU123">
         <v>1.44</v>
@@ -25441,7 +25450,7 @@
         <v>160</v>
       </c>
       <c r="P128" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q128">
         <v>-1</v>
@@ -26205,7 +26214,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26483,10 +26492,10 @@
         <v>2.13</v>
       </c>
       <c r="AS133">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AT133">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="AU133">
         <v>2.2</v>
@@ -26674,7 +26683,7 @@
         <v>1.13</v>
       </c>
       <c r="AS134">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="AT134">
         <v>0.83</v>
@@ -26778,7 +26787,7 @@
         <v>165</v>
       </c>
       <c r="P135" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26865,10 +26874,10 @@
         <v>2.06</v>
       </c>
       <c r="AS135">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AT135">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="AU135">
         <v>1.23</v>
@@ -27056,10 +27065,10 @@
         <v>1.06</v>
       </c>
       <c r="AS136">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AT136">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AU136">
         <v>1.25</v>
@@ -27247,10 +27256,10 @@
         <v>2.19</v>
       </c>
       <c r="AS137">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AT137">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AU137">
         <v>1.44</v>
@@ -27441,7 +27450,7 @@
         <v>0.83</v>
       </c>
       <c r="AT138">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AU138">
         <v>1.41</v>
@@ -27629,10 +27638,10 @@
         <v>1.59</v>
       </c>
       <c r="AS139">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT139">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AU139">
         <v>1.53</v>
@@ -27820,10 +27829,10 @@
         <v>2.24</v>
       </c>
       <c r="AS140">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AT140">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AU140">
         <v>2.17</v>
@@ -27924,7 +27933,7 @@
         <v>103</v>
       </c>
       <c r="P141" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28306,7 +28315,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q143">
         <v>-1</v>
@@ -28497,7 +28506,7 @@
         <v>81</v>
       </c>
       <c r="P144" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28584,10 +28593,10 @@
         <v>1.82</v>
       </c>
       <c r="AS144">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="AT144">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="AU144">
         <v>1.39</v>
@@ -28775,7 +28784,7 @@
         <v>1.06</v>
       </c>
       <c r="AS145">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AT145">
         <v>0.83</v>
@@ -28879,7 +28888,7 @@
         <v>173</v>
       </c>
       <c r="P146" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q146">
         <v>-1</v>
@@ -29070,7 +29079,7 @@
         <v>81</v>
       </c>
       <c r="P147" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="Q147">
         <v>-1</v>
@@ -29539,10 +29548,10 @@
         <v>2.11</v>
       </c>
       <c r="AS149">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="AT149">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AU149">
         <v>2.22</v>
@@ -29730,10 +29739,10 @@
         <v>2.11</v>
       </c>
       <c r="AS150">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT150">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AU150">
         <v>1.51</v>
@@ -29834,7 +29843,7 @@
         <v>175</v>
       </c>
       <c r="P151" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -29921,10 +29930,10 @@
         <v>1.83</v>
       </c>
       <c r="AS151">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AT151">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="AU151">
         <v>1.26</v>
@@ -30025,7 +30034,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30115,7 +30124,7 @@
         <v>0.83</v>
       </c>
       <c r="AT152">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AU152">
         <v>1.36</v>
@@ -30303,10 +30312,10 @@
         <v>1.95</v>
       </c>
       <c r="AS153">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AT153">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AU153">
         <v>1.24</v>
@@ -30494,10 +30503,10 @@
         <v>2</v>
       </c>
       <c r="AS154">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="AT154">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AU154">
         <v>2.13</v>
@@ -30598,7 +30607,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q155">
         <v>-1</v>
@@ -31258,10 +31267,10 @@
         <v>1.63</v>
       </c>
       <c r="AS158">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="AT158">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AU158">
         <v>1.32</v>
@@ -32022,10 +32031,10 @@
         <v>1.8</v>
       </c>
       <c r="AS162">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT162">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="AU162">
         <v>1.51</v>
@@ -32213,10 +32222,10 @@
         <v>2.2</v>
       </c>
       <c r="AS163">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AT163">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AU163">
         <v>1.36</v>
@@ -32977,10 +32986,10 @@
         <v>1.85</v>
       </c>
       <c r="AS167">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AT167">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="AU167">
         <v>1.35</v>
@@ -33168,7 +33177,7 @@
         <v>0.95</v>
       </c>
       <c r="AS168">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AT168">
         <v>0.83</v>
@@ -33272,7 +33281,7 @@
         <v>81</v>
       </c>
       <c r="P169" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q169">
         <v>-1</v>
@@ -33362,7 +33371,7 @@
         <v>0.83</v>
       </c>
       <c r="AT169">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="AU169">
         <v>1.3</v>
@@ -33463,7 +33472,7 @@
         <v>184</v>
       </c>
       <c r="P170" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q170">
         <v>-1</v>
@@ -33550,10 +33559,10 @@
         <v>2.14</v>
       </c>
       <c r="AS170">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT170">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AU170">
         <v>1.48</v>
@@ -34036,7 +34045,7 @@
         <v>186</v>
       </c>
       <c r="P173" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q173">
         <v>-1</v>
@@ -34314,10 +34323,10 @@
         <v>1.81</v>
       </c>
       <c r="AS174">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AT174">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="AU174">
         <v>1.36</v>
@@ -34505,10 +34514,10 @@
         <v>1.81</v>
       </c>
       <c r="AS175">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AT175">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AU175">
         <v>1.95</v>
@@ -34696,10 +34705,10 @@
         <v>1.18</v>
       </c>
       <c r="AS176">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="AT176">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AU176">
         <v>1.98</v>
@@ -34887,7 +34896,7 @@
         <v>0.86</v>
       </c>
       <c r="AS177">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="AT177">
         <v>0.83</v>
@@ -35078,10 +35087,10 @@
         <v>1.45</v>
       </c>
       <c r="AS178">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="AT178">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AU178">
         <v>1.35</v>
@@ -35182,7 +35191,7 @@
         <v>191</v>
       </c>
       <c r="P179" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35269,10 +35278,10 @@
         <v>2</v>
       </c>
       <c r="AS179">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="AT179">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AU179">
         <v>1.35</v>
@@ -35324,6 +35333,770 @@
       </c>
       <c r="BK179">
         <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>5741377</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45083.52083333334</v>
+      </c>
+      <c r="F180">
+        <v>10</v>
+      </c>
+      <c r="G180" t="s">
+        <v>71</v>
+      </c>
+      <c r="H180" t="s">
+        <v>79</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180" t="s">
+        <v>192</v>
+      </c>
+      <c r="P180" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>10</v>
+      </c>
+      <c r="S180">
+        <v>10</v>
+      </c>
+      <c r="T180">
+        <v>16</v>
+      </c>
+      <c r="U180">
+        <v>2.3</v>
+      </c>
+      <c r="V180">
+        <v>1.62</v>
+      </c>
+      <c r="W180">
+        <v>1.48</v>
+      </c>
+      <c r="X180">
+        <v>2.4</v>
+      </c>
+      <c r="Y180">
+        <v>3.4</v>
+      </c>
+      <c r="Z180">
+        <v>1.26</v>
+      </c>
+      <c r="AA180">
+        <v>10.25</v>
+      </c>
+      <c r="AB180">
+        <v>1.05</v>
+      </c>
+      <c r="AC180">
+        <v>26</v>
+      </c>
+      <c r="AD180">
+        <v>6.5</v>
+      </c>
+      <c r="AE180">
+        <v>1.1</v>
+      </c>
+      <c r="AF180">
+        <v>1.08</v>
+      </c>
+      <c r="AG180">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AH180">
+        <v>1.52</v>
+      </c>
+      <c r="AI180">
+        <v>2.38</v>
+      </c>
+      <c r="AJ180">
+        <v>1.88</v>
+      </c>
+      <c r="AK180">
+        <v>1.75</v>
+      </c>
+      <c r="AL180">
+        <v>3.8</v>
+      </c>
+      <c r="AM180">
+        <v>1.23</v>
+      </c>
+      <c r="AN180">
+        <v>5</v>
+      </c>
+      <c r="AO180">
+        <v>1.09</v>
+      </c>
+      <c r="AP180">
+        <v>1.03</v>
+      </c>
+      <c r="AQ180">
+        <v>0.83</v>
+      </c>
+      <c r="AR180">
+        <v>1.91</v>
+      </c>
+      <c r="AS180">
+        <v>0.83</v>
+      </c>
+      <c r="AT180">
+        <v>1.88</v>
+      </c>
+      <c r="AU180">
+        <v>1.3</v>
+      </c>
+      <c r="AV180">
+        <v>1</v>
+      </c>
+      <c r="AW180">
+        <v>2.3</v>
+      </c>
+      <c r="AX180">
+        <v>0</v>
+      </c>
+      <c r="AY180">
+        <v>0</v>
+      </c>
+      <c r="AZ180">
+        <v>0</v>
+      </c>
+      <c r="BA180">
+        <v>0</v>
+      </c>
+      <c r="BB180">
+        <v>0</v>
+      </c>
+      <c r="BC180">
+        <v>0</v>
+      </c>
+      <c r="BD180">
+        <v>0</v>
+      </c>
+      <c r="BE180">
+        <v>0</v>
+      </c>
+      <c r="BF180">
+        <v>-1</v>
+      </c>
+      <c r="BG180">
+        <v>-1</v>
+      </c>
+      <c r="BH180">
+        <v>-1</v>
+      </c>
+      <c r="BI180">
+        <v>-1</v>
+      </c>
+      <c r="BJ180">
+        <v>-1</v>
+      </c>
+      <c r="BK180">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>5741376</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45084.52083333334</v>
+      </c>
+      <c r="F181">
+        <v>10</v>
+      </c>
+      <c r="G181" t="s">
+        <v>77</v>
+      </c>
+      <c r="H181" t="s">
+        <v>74</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>193</v>
+      </c>
+      <c r="P181" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q181">
+        <v>9</v>
+      </c>
+      <c r="R181">
+        <v>3</v>
+      </c>
+      <c r="S181">
+        <v>12</v>
+      </c>
+      <c r="T181">
+        <v>1.83</v>
+      </c>
+      <c r="U181">
+        <v>2.2</v>
+      </c>
+      <c r="V181">
+        <v>9.5</v>
+      </c>
+      <c r="W181">
+        <v>1.46</v>
+      </c>
+      <c r="X181">
+        <v>2.46</v>
+      </c>
+      <c r="Y181">
+        <v>3.2</v>
+      </c>
+      <c r="Z181">
+        <v>1.32</v>
+      </c>
+      <c r="AA181">
+        <v>8</v>
+      </c>
+      <c r="AB181">
+        <v>1.05</v>
+      </c>
+      <c r="AC181">
+        <v>1.3</v>
+      </c>
+      <c r="AD181">
+        <v>4.5</v>
+      </c>
+      <c r="AE181">
+        <v>7.5</v>
+      </c>
+      <c r="AF181">
+        <v>1.04</v>
+      </c>
+      <c r="AG181">
+        <v>7.6</v>
+      </c>
+      <c r="AH181">
+        <v>1.33</v>
+      </c>
+      <c r="AI181">
+        <v>3</v>
+      </c>
+      <c r="AJ181">
+        <v>2.15</v>
+      </c>
+      <c r="AK181">
+        <v>1.67</v>
+      </c>
+      <c r="AL181">
+        <v>3.05</v>
+      </c>
+      <c r="AM181">
+        <v>1.35</v>
+      </c>
+      <c r="AN181">
+        <v>1.06</v>
+      </c>
+      <c r="AO181">
+        <v>1.16</v>
+      </c>
+      <c r="AP181">
+        <v>3.25</v>
+      </c>
+      <c r="AQ181">
+        <v>1.91</v>
+      </c>
+      <c r="AR181">
+        <v>1.39</v>
+      </c>
+      <c r="AS181">
+        <v>1.96</v>
+      </c>
+      <c r="AT181">
+        <v>1.33</v>
+      </c>
+      <c r="AU181">
+        <v>1.97</v>
+      </c>
+      <c r="AV181">
+        <v>1.01</v>
+      </c>
+      <c r="AW181">
+        <v>2.98</v>
+      </c>
+      <c r="AX181">
+        <v>0</v>
+      </c>
+      <c r="AY181">
+        <v>0</v>
+      </c>
+      <c r="AZ181">
+        <v>0</v>
+      </c>
+      <c r="BA181">
+        <v>0</v>
+      </c>
+      <c r="BB181">
+        <v>0</v>
+      </c>
+      <c r="BC181">
+        <v>0</v>
+      </c>
+      <c r="BD181">
+        <v>0</v>
+      </c>
+      <c r="BE181">
+        <v>0</v>
+      </c>
+      <c r="BF181">
+        <v>12</v>
+      </c>
+      <c r="BG181">
+        <v>2</v>
+      </c>
+      <c r="BH181">
+        <v>5</v>
+      </c>
+      <c r="BI181">
+        <v>5</v>
+      </c>
+      <c r="BJ181">
+        <v>17</v>
+      </c>
+      <c r="BK181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>5741379</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45084.52083333334</v>
+      </c>
+      <c r="F182">
+        <v>10</v>
+      </c>
+      <c r="G182" t="s">
+        <v>80</v>
+      </c>
+      <c r="H182" t="s">
+        <v>69</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>81</v>
+      </c>
+      <c r="P182" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q182">
+        <v>-1</v>
+      </c>
+      <c r="R182">
+        <v>-1</v>
+      </c>
+      <c r="S182">
+        <v>-1</v>
+      </c>
+      <c r="T182">
+        <v>3.8</v>
+      </c>
+      <c r="U182">
+        <v>1.75</v>
+      </c>
+      <c r="V182">
+        <v>3.9</v>
+      </c>
+      <c r="W182">
+        <v>1.57</v>
+      </c>
+      <c r="X182">
+        <v>2.1</v>
+      </c>
+      <c r="Y182">
+        <v>4</v>
+      </c>
+      <c r="Z182">
+        <v>1.2</v>
+      </c>
+      <c r="AA182">
+        <v>15</v>
+      </c>
+      <c r="AB182">
+        <v>1.04</v>
+      </c>
+      <c r="AC182">
+        <v>2.88</v>
+      </c>
+      <c r="AD182">
+        <v>2.6</v>
+      </c>
+      <c r="AE182">
+        <v>2.63</v>
+      </c>
+      <c r="AF182">
+        <v>1.1</v>
+      </c>
+      <c r="AG182">
+        <v>6.15</v>
+      </c>
+      <c r="AH182">
+        <v>1.76</v>
+      </c>
+      <c r="AI182">
+        <v>2</v>
+      </c>
+      <c r="AJ182">
+        <v>2.84</v>
+      </c>
+      <c r="AK182">
+        <v>1.35</v>
+      </c>
+      <c r="AL182">
+        <v>2.45</v>
+      </c>
+      <c r="AM182">
+        <v>1.5</v>
+      </c>
+      <c r="AN182">
+        <v>1.4</v>
+      </c>
+      <c r="AO182">
+        <v>1.38</v>
+      </c>
+      <c r="AP182">
+        <v>1.4</v>
+      </c>
+      <c r="AQ182">
+        <v>1.87</v>
+      </c>
+      <c r="AR182">
+        <v>2.13</v>
+      </c>
+      <c r="AS182">
+        <v>1.79</v>
+      </c>
+      <c r="AT182">
+        <v>2.17</v>
+      </c>
+      <c r="AU182">
+        <v>1.32</v>
+      </c>
+      <c r="AV182">
+        <v>1.05</v>
+      </c>
+      <c r="AW182">
+        <v>2.37</v>
+      </c>
+      <c r="AX182">
+        <v>0</v>
+      </c>
+      <c r="AY182">
+        <v>0</v>
+      </c>
+      <c r="AZ182">
+        <v>0</v>
+      </c>
+      <c r="BA182">
+        <v>0</v>
+      </c>
+      <c r="BB182">
+        <v>0</v>
+      </c>
+      <c r="BC182">
+        <v>0</v>
+      </c>
+      <c r="BD182">
+        <v>0</v>
+      </c>
+      <c r="BE182">
+        <v>0</v>
+      </c>
+      <c r="BF182">
+        <v>-1</v>
+      </c>
+      <c r="BG182">
+        <v>-1</v>
+      </c>
+      <c r="BH182">
+        <v>-1</v>
+      </c>
+      <c r="BI182">
+        <v>-1</v>
+      </c>
+      <c r="BJ182">
+        <v>-1</v>
+      </c>
+      <c r="BK182">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>5741378</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45085.52083333334</v>
+      </c>
+      <c r="F183">
+        <v>10</v>
+      </c>
+      <c r="G183" t="s">
+        <v>78</v>
+      </c>
+      <c r="H183" t="s">
+        <v>66</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>194</v>
+      </c>
+      <c r="P183" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q183">
+        <v>3</v>
+      </c>
+      <c r="R183">
+        <v>0</v>
+      </c>
+      <c r="S183">
+        <v>3</v>
+      </c>
+      <c r="T183">
+        <v>2.63</v>
+      </c>
+      <c r="U183">
+        <v>1.95</v>
+      </c>
+      <c r="V183">
+        <v>4.75</v>
+      </c>
+      <c r="W183">
+        <v>1.57</v>
+      </c>
+      <c r="X183">
+        <v>2.25</v>
+      </c>
+      <c r="Y183">
+        <v>3.74</v>
+      </c>
+      <c r="Z183">
+        <v>1.22</v>
+      </c>
+      <c r="AA183">
+        <v>10</v>
+      </c>
+      <c r="AB183">
+        <v>1.03</v>
+      </c>
+      <c r="AC183">
+        <v>1.91</v>
+      </c>
+      <c r="AD183">
+        <v>3</v>
+      </c>
+      <c r="AE183">
+        <v>4</v>
+      </c>
+      <c r="AF183">
+        <v>1.07</v>
+      </c>
+      <c r="AG183">
+        <v>6.5</v>
+      </c>
+      <c r="AH183">
+        <v>1.53</v>
+      </c>
+      <c r="AI183">
+        <v>2.3</v>
+      </c>
+      <c r="AJ183">
+        <v>2.5</v>
+      </c>
+      <c r="AK183">
+        <v>1.5</v>
+      </c>
+      <c r="AL183">
+        <v>2.16</v>
+      </c>
+      <c r="AM183">
+        <v>1.66</v>
+      </c>
+      <c r="AN183">
+        <v>1.08</v>
+      </c>
+      <c r="AO183">
+        <v>1.25</v>
+      </c>
+      <c r="AP183">
+        <v>2.25</v>
+      </c>
+      <c r="AQ183">
+        <v>1.13</v>
+      </c>
+      <c r="AR183">
+        <v>1.78</v>
+      </c>
+      <c r="AS183">
+        <v>1.21</v>
+      </c>
+      <c r="AT183">
+        <v>1.71</v>
+      </c>
+      <c r="AU183">
+        <v>1.48</v>
+      </c>
+      <c r="AV183">
+        <v>1.23</v>
+      </c>
+      <c r="AW183">
+        <v>2.71</v>
+      </c>
+      <c r="AX183">
+        <v>0</v>
+      </c>
+      <c r="AY183">
+        <v>0</v>
+      </c>
+      <c r="AZ183">
+        <v>0</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>0</v>
+      </c>
+      <c r="BC183">
+        <v>0</v>
+      </c>
+      <c r="BD183">
+        <v>0</v>
+      </c>
+      <c r="BE183">
+        <v>0</v>
+      </c>
+      <c r="BF183">
+        <v>7</v>
+      </c>
+      <c r="BG183">
+        <v>3</v>
+      </c>
+      <c r="BH183">
+        <v>4</v>
+      </c>
+      <c r="BI183">
+        <v>5</v>
+      </c>
+      <c r="BJ183">
+        <v>11</v>
+      </c>
+      <c r="BK183">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1140,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT6">
         <v>0.67</v>
@@ -3193,7 +3193,7 @@
         <v>1.58</v>
       </c>
       <c r="AT11">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>1.75</v>
       </c>
       <c r="AT15">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4912,7 +4912,7 @@
         <v>1.58</v>
       </c>
       <c r="AT20">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU20">
         <v>1.14</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT25">
         <v>1.17</v>
@@ -6058,7 +6058,7 @@
         <v>1.17</v>
       </c>
       <c r="AT26">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT30">
         <v>0.14</v>
@@ -7777,7 +7777,7 @@
         <v>1.33</v>
       </c>
       <c r="AT35">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU35">
         <v>0.72</v>
@@ -8732,7 +8732,7 @@
         <v>2.25</v>
       </c>
       <c r="AT40">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU40">
         <v>1.31</v>
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT42">
         <v>1.08</v>
@@ -10448,7 +10448,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT49">
         <v>0.91</v>
@@ -10642,7 +10642,7 @@
         <v>1.67</v>
       </c>
       <c r="AT50">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU50">
         <v>1.71</v>
@@ -10830,7 +10830,7 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT51">
         <v>1</v>
@@ -11976,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT57">
         <v>1.17</v>
@@ -12552,7 +12552,7 @@
         <v>1.46</v>
       </c>
       <c r="AT60">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU60">
         <v>1.67</v>
@@ -12931,7 +12931,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT62">
         <v>0.67</v>
@@ -13698,7 +13698,7 @@
         <v>1.43</v>
       </c>
       <c r="AT66">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU66">
         <v>1.08</v>
@@ -13886,7 +13886,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT67">
         <v>0.75</v>
@@ -14841,10 +14841,10 @@
         <v>1.75</v>
       </c>
       <c r="AS72">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT72">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU72">
         <v>2.11</v>
@@ -17324,7 +17324,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT85">
         <v>0.83</v>
@@ -17515,10 +17515,10 @@
         <v>1.6</v>
       </c>
       <c r="AS86">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT86">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU86">
         <v>1.22</v>
@@ -18282,7 +18282,7 @@
         <v>0.92</v>
       </c>
       <c r="AT90">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU90">
         <v>1.52</v>
@@ -19807,7 +19807,7 @@
         <v>0</v>
       </c>
       <c r="AS98">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT98">
         <v>0</v>
@@ -20383,7 +20383,7 @@
         <v>1</v>
       </c>
       <c r="AT101">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU101">
         <v>1.43</v>
@@ -21338,7 +21338,7 @@
         <v>0.86</v>
       </c>
       <c r="AT106">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU106">
         <v>1.1</v>
@@ -22481,7 +22481,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT112">
         <v>1.58</v>
@@ -22863,7 +22863,7 @@
         <v>1.71</v>
       </c>
       <c r="AS114">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AT114">
         <v>1.33</v>
@@ -23054,7 +23054,7 @@
         <v>1.14</v>
       </c>
       <c r="AS115">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="AT115">
         <v>1.21</v>
@@ -23248,7 +23248,7 @@
         <v>1.71</v>
       </c>
       <c r="AT116">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AU116">
         <v>1.29</v>
@@ -23436,7 +23436,7 @@
         <v>1.29</v>
       </c>
       <c r="AS117">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AT117">
         <v>0.83</v>
@@ -24203,7 +24203,7 @@
         <v>1.21</v>
       </c>
       <c r="AT121">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AU121">
         <v>1.5</v>
@@ -24394,7 +24394,7 @@
         <v>0.83</v>
       </c>
       <c r="AT122">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="AU122">
         <v>1.41</v>
@@ -26492,10 +26492,10 @@
         <v>2.13</v>
       </c>
       <c r="AS133">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AT133">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AU133">
         <v>2.2</v>
@@ -26683,7 +26683,7 @@
         <v>1.13</v>
       </c>
       <c r="AS134">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AT134">
         <v>0.83</v>
@@ -26874,10 +26874,10 @@
         <v>2.06</v>
       </c>
       <c r="AS135">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="AT135">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AU135">
         <v>1.23</v>
@@ -27259,7 +27259,7 @@
         <v>1.33</v>
       </c>
       <c r="AT137">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AU137">
         <v>1.44</v>
@@ -27829,10 +27829,10 @@
         <v>2.24</v>
       </c>
       <c r="AS140">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AT140">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="AU140">
         <v>2.17</v>
@@ -28593,10 +28593,10 @@
         <v>1.82</v>
       </c>
       <c r="AS144">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AT144">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AU144">
         <v>1.39</v>
@@ -29548,10 +29548,10 @@
         <v>2.11</v>
       </c>
       <c r="AS149">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AT149">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="AU149">
         <v>2.22</v>
@@ -29742,7 +29742,7 @@
         <v>1.21</v>
       </c>
       <c r="AT150">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AU150">
         <v>1.51</v>
@@ -29933,7 +29933,7 @@
         <v>1.71</v>
       </c>
       <c r="AT151">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AU151">
         <v>1.26</v>
@@ -30312,7 +30312,7 @@
         <v>1.95</v>
       </c>
       <c r="AS153">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="AT153">
         <v>1.71</v>
@@ -30503,10 +30503,10 @@
         <v>2</v>
       </c>
       <c r="AS154">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AT154">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AU154">
         <v>2.13</v>
@@ -31267,7 +31267,7 @@
         <v>1.63</v>
       </c>
       <c r="AS158">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AT158">
         <v>1.33</v>
@@ -32034,7 +32034,7 @@
         <v>1.21</v>
       </c>
       <c r="AT162">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AU162">
         <v>1.51</v>
@@ -32225,7 +32225,7 @@
         <v>1.33</v>
       </c>
       <c r="AT163">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="AU163">
         <v>1.36</v>
@@ -32989,7 +32989,7 @@
         <v>1.71</v>
       </c>
       <c r="AT167">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AU167">
         <v>1.35</v>
@@ -33177,7 +33177,7 @@
         <v>0.95</v>
       </c>
       <c r="AS168">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AT168">
         <v>0.83</v>
@@ -33371,7 +33371,7 @@
         <v>0.83</v>
       </c>
       <c r="AT169">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AU169">
         <v>1.3</v>
@@ -33562,7 +33562,7 @@
         <v>1.21</v>
       </c>
       <c r="AT170">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="AU170">
         <v>1.48</v>
@@ -34326,7 +34326,7 @@
         <v>1.33</v>
       </c>
       <c r="AT174">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AU174">
         <v>1.36</v>
@@ -34514,7 +34514,7 @@
         <v>1.81</v>
       </c>
       <c r="AS175">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AT175">
         <v>1.71</v>
@@ -34705,7 +34705,7 @@
         <v>1.18</v>
       </c>
       <c r="AS176">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AT176">
         <v>1.21</v>
@@ -34896,7 +34896,7 @@
         <v>0.86</v>
       </c>
       <c r="AS177">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="AT177">
         <v>0.83</v>
@@ -35278,10 +35278,10 @@
         <v>2</v>
       </c>
       <c r="AS179">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AT179">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AU179">
         <v>1.35</v>
@@ -35472,7 +35472,7 @@
         <v>0.83</v>
       </c>
       <c r="AT180">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AU180">
         <v>1.3</v>
@@ -35660,7 +35660,7 @@
         <v>1.39</v>
       </c>
       <c r="AS181">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AT181">
         <v>1.33</v>
@@ -35851,10 +35851,10 @@
         <v>2.13</v>
       </c>
       <c r="AS182">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AT182">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="AU182">
         <v>1.32</v>
@@ -36097,6 +36097,388 @@
       </c>
       <c r="BK183">
         <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>5741381</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45087.52083333334</v>
+      </c>
+      <c r="F184">
+        <v>11</v>
+      </c>
+      <c r="G184" t="s">
+        <v>69</v>
+      </c>
+      <c r="H184" t="s">
+        <v>77</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184" t="s">
+        <v>81</v>
+      </c>
+      <c r="P184" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q184">
+        <v>4</v>
+      </c>
+      <c r="R184">
+        <v>1</v>
+      </c>
+      <c r="S184">
+        <v>5</v>
+      </c>
+      <c r="T184">
+        <v>3</v>
+      </c>
+      <c r="U184">
+        <v>1.83</v>
+      </c>
+      <c r="V184">
+        <v>4.33</v>
+      </c>
+      <c r="W184">
+        <v>1.63</v>
+      </c>
+      <c r="X184">
+        <v>2.14</v>
+      </c>
+      <c r="Y184">
+        <v>4</v>
+      </c>
+      <c r="Z184">
+        <v>1.2</v>
+      </c>
+      <c r="AA184">
+        <v>10</v>
+      </c>
+      <c r="AB184">
+        <v>1.03</v>
+      </c>
+      <c r="AC184">
+        <v>2.15</v>
+      </c>
+      <c r="AD184">
+        <v>2.75</v>
+      </c>
+      <c r="AE184">
+        <v>3.5</v>
+      </c>
+      <c r="AF184">
+        <v>1.1</v>
+      </c>
+      <c r="AG184">
+        <v>5.5</v>
+      </c>
+      <c r="AH184">
+        <v>1.53</v>
+      </c>
+      <c r="AI184">
+        <v>2.2</v>
+      </c>
+      <c r="AJ184">
+        <v>2.88</v>
+      </c>
+      <c r="AK184">
+        <v>1.4</v>
+      </c>
+      <c r="AL184">
+        <v>2.42</v>
+      </c>
+      <c r="AM184">
+        <v>1.53</v>
+      </c>
+      <c r="AN184">
+        <v>1.21</v>
+      </c>
+      <c r="AO184">
+        <v>1.39</v>
+      </c>
+      <c r="AP184">
+        <v>1.67</v>
+      </c>
+      <c r="AQ184">
+        <v>2.17</v>
+      </c>
+      <c r="AR184">
+        <v>1.96</v>
+      </c>
+      <c r="AS184">
+        <v>2.12</v>
+      </c>
+      <c r="AT184">
+        <v>1.92</v>
+      </c>
+      <c r="AU184">
+        <v>1.24</v>
+      </c>
+      <c r="AV184">
+        <v>1.41</v>
+      </c>
+      <c r="AW184">
+        <v>2.65</v>
+      </c>
+      <c r="AX184">
+        <v>0</v>
+      </c>
+      <c r="AY184">
+        <v>0</v>
+      </c>
+      <c r="AZ184">
+        <v>0</v>
+      </c>
+      <c r="BA184">
+        <v>0</v>
+      </c>
+      <c r="BB184">
+        <v>0</v>
+      </c>
+      <c r="BC184">
+        <v>0</v>
+      </c>
+      <c r="BD184">
+        <v>0</v>
+      </c>
+      <c r="BE184">
+        <v>0</v>
+      </c>
+      <c r="BF184">
+        <v>0</v>
+      </c>
+      <c r="BG184">
+        <v>3</v>
+      </c>
+      <c r="BH184">
+        <v>3</v>
+      </c>
+      <c r="BI184">
+        <v>1</v>
+      </c>
+      <c r="BJ184">
+        <v>3</v>
+      </c>
+      <c r="BK184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>5741380</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45087.52083333334</v>
+      </c>
+      <c r="F185">
+        <v>11</v>
+      </c>
+      <c r="G185" t="s">
+        <v>79</v>
+      </c>
+      <c r="H185" t="s">
+        <v>80</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185" t="s">
+        <v>122</v>
+      </c>
+      <c r="P185" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q185">
+        <v>4</v>
+      </c>
+      <c r="R185">
+        <v>3</v>
+      </c>
+      <c r="S185">
+        <v>7</v>
+      </c>
+      <c r="T185">
+        <v>2.6</v>
+      </c>
+      <c r="U185">
+        <v>1.91</v>
+      </c>
+      <c r="V185">
+        <v>5</v>
+      </c>
+      <c r="W185">
+        <v>1.65</v>
+      </c>
+      <c r="X185">
+        <v>2.04</v>
+      </c>
+      <c r="Y185">
+        <v>4</v>
+      </c>
+      <c r="Z185">
+        <v>1.2</v>
+      </c>
+      <c r="AA185">
+        <v>10.5</v>
+      </c>
+      <c r="AB185">
+        <v>1.02</v>
+      </c>
+      <c r="AC185">
+        <v>1.83</v>
+      </c>
+      <c r="AD185">
+        <v>3</v>
+      </c>
+      <c r="AE185">
+        <v>4.33</v>
+      </c>
+      <c r="AF185">
+        <v>1.08</v>
+      </c>
+      <c r="AG185">
+        <v>5.5</v>
+      </c>
+      <c r="AH185">
+        <v>1.88</v>
+      </c>
+      <c r="AI185">
+        <v>1.94</v>
+      </c>
+      <c r="AJ185">
+        <v>2.7</v>
+      </c>
+      <c r="AK185">
+        <v>1.44</v>
+      </c>
+      <c r="AL185">
+        <v>2.67</v>
+      </c>
+      <c r="AM185">
+        <v>1.45</v>
+      </c>
+      <c r="AN185">
+        <v>1.12</v>
+      </c>
+      <c r="AO185">
+        <v>1.37</v>
+      </c>
+      <c r="AP185">
+        <v>1.91</v>
+      </c>
+      <c r="AQ185">
+        <v>1.88</v>
+      </c>
+      <c r="AR185">
+        <v>1.79</v>
+      </c>
+      <c r="AS185">
+        <v>1.84</v>
+      </c>
+      <c r="AT185">
+        <v>1.76</v>
+      </c>
+      <c r="AU185">
+        <v>1.93</v>
+      </c>
+      <c r="AV185">
+        <v>1.08</v>
+      </c>
+      <c r="AW185">
+        <v>3.01</v>
+      </c>
+      <c r="AX185">
+        <v>0</v>
+      </c>
+      <c r="AY185">
+        <v>0</v>
+      </c>
+      <c r="AZ185">
+        <v>0</v>
+      </c>
+      <c r="BA185">
+        <v>1.88</v>
+      </c>
+      <c r="BB185">
+        <v>0</v>
+      </c>
+      <c r="BC185">
+        <v>0</v>
+      </c>
+      <c r="BD185">
+        <v>0</v>
+      </c>
+      <c r="BE185">
+        <v>0</v>
+      </c>
+      <c r="BF185">
+        <v>8</v>
+      </c>
+      <c r="BG185">
+        <v>5</v>
+      </c>
+      <c r="BH185">
+        <v>10</v>
+      </c>
+      <c r="BI185">
+        <v>9</v>
+      </c>
+      <c r="BJ185">
+        <v>18</v>
+      </c>
+      <c r="BK185">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,12 @@
     <t>['71']</t>
   </si>
   <si>
+    <t>['45+7', '61', '71', '87', '90+6']</t>
+  </si>
+  <si>
+    <t>['19', '43']</t>
+  </si>
+  <si>
     <t>['8', '11', '45', '65', '70']</t>
   </si>
   <si>
@@ -1140,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK185"/>
+  <dimension ref="A1:BK187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1662,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT3">
         <v>0.83</v>
@@ -2238,7 +2244,7 @@
         <v>2.17</v>
       </c>
       <c r="AT6">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2339,7 +2345,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2530,7 +2536,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>11</v>
@@ -3190,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT11">
         <v>1.54</v>
@@ -3294,7 +3300,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3575,7 +3581,7 @@
         <v>1.43</v>
       </c>
       <c r="AT13">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3867,7 +3873,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4058,7 +4064,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4145,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT16">
         <v>0.83</v>
@@ -4249,7 +4255,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>8</v>
@@ -4527,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT18">
         <v>0.67</v>
@@ -4631,7 +4637,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4822,7 +4828,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5103,7 +5109,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU21">
         <v>0.18</v>
@@ -5291,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT22">
         <v>1.08</v>
@@ -5586,7 +5592,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>-1</v>
@@ -5777,7 +5783,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5968,7 +5974,7 @@
         <v>81</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6246,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -6631,7 +6637,7 @@
         <v>2.67</v>
       </c>
       <c r="AT29">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU29">
         <v>1.64</v>
@@ -7010,7 +7016,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT31">
         <v>0.67</v>
@@ -7114,7 +7120,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7305,7 +7311,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7496,7 +7502,7 @@
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8069,7 +8075,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8729,7 +8735,7 @@
         <v>2.33</v>
       </c>
       <c r="AS40">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT40">
         <v>1.54</v>
@@ -9024,7 +9030,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9305,7 +9311,7 @@
         <v>1.43</v>
       </c>
       <c r="AT43">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU43">
         <v>1.08</v>
@@ -9597,7 +9603,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9687,7 +9693,7 @@
         <v>2.67</v>
       </c>
       <c r="AT45">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU45">
         <v>1.95</v>
@@ -10170,7 +10176,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10451,7 +10457,7 @@
         <v>2.17</v>
       </c>
       <c r="AT49">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU49">
         <v>1.25</v>
@@ -11125,7 +11131,7 @@
         <v>81</v>
       </c>
       <c r="P53" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q53">
         <v>-1</v>
@@ -11316,7 +11322,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11406,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="AT54">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU54">
         <v>1.4</v>
@@ -11889,7 +11895,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12271,7 +12277,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12462,7 +12468,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12653,7 +12659,7 @@
         <v>81</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13417,7 +13423,7 @@
         <v>81</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q65">
         <v>-1</v>
@@ -13608,7 +13614,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13799,7 +13805,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14080,7 +14086,7 @@
         <v>1.17</v>
       </c>
       <c r="AT68">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU68">
         <v>0.99</v>
@@ -14271,7 +14277,7 @@
         <v>1.67</v>
       </c>
       <c r="AT69">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU69">
         <v>1.53</v>
@@ -14563,7 +14569,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14650,7 +14656,7 @@
         <v>0.75</v>
       </c>
       <c r="AS71">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT71">
         <v>1</v>
@@ -14754,7 +14760,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14945,7 +14951,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>-1</v>
@@ -15327,7 +15333,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>-1</v>
@@ -16282,7 +16288,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16560,7 +16566,7 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT81">
         <v>0</v>
@@ -16664,7 +16670,7 @@
         <v>128</v>
       </c>
       <c r="P82" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q82">
         <v>-1</v>
@@ -16751,7 +16757,7 @@
         <v>1.2</v>
       </c>
       <c r="AS82">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT82">
         <v>1.17</v>
@@ -17046,7 +17052,7 @@
         <v>134</v>
       </c>
       <c r="P84" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>-1</v>
@@ -17428,7 +17434,7 @@
         <v>136</v>
       </c>
       <c r="P86" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17709,7 +17715,7 @@
         <v>1.17</v>
       </c>
       <c r="AT87">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU87">
         <v>0.99</v>
@@ -18470,7 +18476,7 @@
         <v>1.6</v>
       </c>
       <c r="AS91">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT91">
         <v>1.75</v>
@@ -18765,7 +18771,7 @@
         <v>139</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18956,7 +18962,7 @@
         <v>140</v>
       </c>
       <c r="P94" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19338,7 +19344,7 @@
         <v>81</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19428,7 +19434,7 @@
         <v>1.46</v>
       </c>
       <c r="AT96">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU96">
         <v>1.5</v>
@@ -20102,7 +20108,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>-1</v>
@@ -20293,7 +20299,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20765,7 +20771,7 @@
         <v>1.33</v>
       </c>
       <c r="AT103">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU103">
         <v>0.89</v>
@@ -21248,7 +21254,7 @@
         <v>81</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q106">
         <v>-1</v>
@@ -21439,7 +21445,7 @@
         <v>149</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21526,7 +21532,7 @@
         <v>0.5</v>
       </c>
       <c r="AS107">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT107">
         <v>1</v>
@@ -21630,7 +21636,7 @@
         <v>150</v>
       </c>
       <c r="P108" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>-1</v>
@@ -21821,7 +21827,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>-1</v>
@@ -21908,7 +21914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS109">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT109">
         <v>1.75</v>
@@ -22012,7 +22018,7 @@
         <v>152</v>
       </c>
       <c r="P110" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22102,7 +22108,7 @@
         <v>1.67</v>
       </c>
       <c r="AT110">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU110">
         <v>1.54</v>
@@ -22394,7 +22400,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22866,7 +22872,7 @@
         <v>1.84</v>
       </c>
       <c r="AT114">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AU114">
         <v>2.46</v>
@@ -23057,7 +23063,7 @@
         <v>2.12</v>
       </c>
       <c r="AT115">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AU115">
         <v>1.16</v>
@@ -23158,7 +23164,7 @@
         <v>138</v>
       </c>
       <c r="P116" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23245,7 +23251,7 @@
         <v>2.21</v>
       </c>
       <c r="AS116">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AT116">
         <v>1.92</v>
@@ -23439,7 +23445,7 @@
         <v>1.76</v>
       </c>
       <c r="AT117">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AU117">
         <v>1.42</v>
@@ -23922,7 +23928,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>12</v>
@@ -24200,7 +24206,7 @@
         <v>1.8</v>
       </c>
       <c r="AS121">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AT121">
         <v>1.84</v>
@@ -24391,7 +24397,7 @@
         <v>2.13</v>
       </c>
       <c r="AS122">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AT122">
         <v>2.12</v>
@@ -24495,7 +24501,7 @@
         <v>81</v>
       </c>
       <c r="P123" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q123">
         <v>-1</v>
@@ -24582,10 +24588,10 @@
         <v>1.8</v>
       </c>
       <c r="AS123">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AT123">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AU123">
         <v>1.44</v>
@@ -25450,7 +25456,7 @@
         <v>160</v>
       </c>
       <c r="P128" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q128">
         <v>-1</v>
@@ -26214,7 +26220,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26686,7 +26692,7 @@
         <v>1.84</v>
       </c>
       <c r="AT134">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AU134">
         <v>2.28</v>
@@ -26787,7 +26793,7 @@
         <v>165</v>
       </c>
       <c r="P135" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27065,10 +27071,10 @@
         <v>1.06</v>
       </c>
       <c r="AS136">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AT136">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AU136">
         <v>1.25</v>
@@ -27256,7 +27262,7 @@
         <v>2.19</v>
       </c>
       <c r="AS137">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AT137">
         <v>1.92</v>
@@ -27447,10 +27453,10 @@
         <v>1.94</v>
       </c>
       <c r="AS138">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AT138">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AU138">
         <v>1.41</v>
@@ -27638,10 +27644,10 @@
         <v>1.59</v>
       </c>
       <c r="AS139">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AT139">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AU139">
         <v>1.53</v>
@@ -27933,7 +27939,7 @@
         <v>103</v>
       </c>
       <c r="P141" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28315,7 +28321,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q143">
         <v>-1</v>
@@ -28506,7 +28512,7 @@
         <v>81</v>
       </c>
       <c r="P144" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28784,10 +28790,10 @@
         <v>1.06</v>
       </c>
       <c r="AS145">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AT145">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AU145">
         <v>1.36</v>
@@ -28888,7 +28894,7 @@
         <v>173</v>
       </c>
       <c r="P146" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q146">
         <v>-1</v>
@@ -29739,7 +29745,7 @@
         <v>2.11</v>
       </c>
       <c r="AS150">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AT150">
         <v>1.92</v>
@@ -29843,7 +29849,7 @@
         <v>175</v>
       </c>
       <c r="P151" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -29930,7 +29936,7 @@
         <v>1.83</v>
       </c>
       <c r="AS151">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AT151">
         <v>1.76</v>
@@ -30034,7 +30040,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30121,10 +30127,10 @@
         <v>1.11</v>
       </c>
       <c r="AS152">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AT152">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AU152">
         <v>1.36</v>
@@ -30315,7 +30321,7 @@
         <v>2.12</v>
       </c>
       <c r="AT153">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AU153">
         <v>1.24</v>
@@ -30607,7 +30613,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q155">
         <v>-1</v>
@@ -31270,7 +31276,7 @@
         <v>1.76</v>
       </c>
       <c r="AT158">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AU158">
         <v>1.32</v>
@@ -32031,7 +32037,7 @@
         <v>1.8</v>
       </c>
       <c r="AS162">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AT162">
         <v>1.76</v>
@@ -32222,7 +32228,7 @@
         <v>2.2</v>
       </c>
       <c r="AS163">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AT163">
         <v>2.12</v>
@@ -32986,7 +32992,7 @@
         <v>1.85</v>
       </c>
       <c r="AS167">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AT167">
         <v>1.84</v>
@@ -33180,7 +33186,7 @@
         <v>1.92</v>
       </c>
       <c r="AT168">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AU168">
         <v>2.04</v>
@@ -33281,7 +33287,7 @@
         <v>81</v>
       </c>
       <c r="P169" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q169">
         <v>-1</v>
@@ -33368,7 +33374,7 @@
         <v>1.76</v>
       </c>
       <c r="AS169">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AT169">
         <v>1.76</v>
@@ -33472,7 +33478,7 @@
         <v>184</v>
       </c>
       <c r="P170" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q170">
         <v>-1</v>
@@ -33559,7 +33565,7 @@
         <v>2.14</v>
       </c>
       <c r="AS170">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AT170">
         <v>2.12</v>
@@ -34045,7 +34051,7 @@
         <v>186</v>
       </c>
       <c r="P173" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q173">
         <v>-1</v>
@@ -34323,7 +34329,7 @@
         <v>1.81</v>
       </c>
       <c r="AS174">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AT174">
         <v>1.84</v>
@@ -34517,7 +34523,7 @@
         <v>1.92</v>
       </c>
       <c r="AT175">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AU175">
         <v>1.95</v>
@@ -34708,7 +34714,7 @@
         <v>1.84</v>
       </c>
       <c r="AT176">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AU176">
         <v>1.98</v>
@@ -34899,7 +34905,7 @@
         <v>2.12</v>
       </c>
       <c r="AT177">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AU177">
         <v>1.24</v>
@@ -35087,10 +35093,10 @@
         <v>1.45</v>
       </c>
       <c r="AS178">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AT178">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AU178">
         <v>1.35</v>
@@ -35191,7 +35197,7 @@
         <v>191</v>
       </c>
       <c r="P179" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35382,7 +35388,7 @@
         <v>192</v>
       </c>
       <c r="P180" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q180">
         <v>0</v>
@@ -35469,7 +35475,7 @@
         <v>1.91</v>
       </c>
       <c r="AS180">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AT180">
         <v>1.84</v>
@@ -35663,7 +35669,7 @@
         <v>1.92</v>
       </c>
       <c r="AT181">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AU181">
         <v>1.97</v>
@@ -36042,10 +36048,10 @@
         <v>1.78</v>
       </c>
       <c r="AS183">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AT183">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="AU183">
         <v>1.48</v>
@@ -36479,6 +36485,388 @@
       </c>
       <c r="BK185">
         <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>5741382</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45088.52083333334</v>
+      </c>
+      <c r="F186">
+        <v>11</v>
+      </c>
+      <c r="G186" t="s">
+        <v>66</v>
+      </c>
+      <c r="H186" t="s">
+        <v>71</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>5</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>5</v>
+      </c>
+      <c r="O186" t="s">
+        <v>195</v>
+      </c>
+      <c r="P186" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q186">
+        <v>-1</v>
+      </c>
+      <c r="R186">
+        <v>-1</v>
+      </c>
+      <c r="S186">
+        <v>-1</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+      <c r="U186">
+        <v>0</v>
+      </c>
+      <c r="V186">
+        <v>0</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
+      </c>
+      <c r="AB186">
+        <v>0</v>
+      </c>
+      <c r="AC186">
+        <v>0</v>
+      </c>
+      <c r="AD186">
+        <v>0</v>
+      </c>
+      <c r="AE186">
+        <v>0</v>
+      </c>
+      <c r="AF186">
+        <v>0</v>
+      </c>
+      <c r="AG186">
+        <v>0</v>
+      </c>
+      <c r="AH186">
+        <v>0</v>
+      </c>
+      <c r="AI186">
+        <v>0</v>
+      </c>
+      <c r="AJ186">
+        <v>0</v>
+      </c>
+      <c r="AK186">
+        <v>0</v>
+      </c>
+      <c r="AL186">
+        <v>0</v>
+      </c>
+      <c r="AM186">
+        <v>0</v>
+      </c>
+      <c r="AN186">
+        <v>0</v>
+      </c>
+      <c r="AO186">
+        <v>0</v>
+      </c>
+      <c r="AP186">
+        <v>0</v>
+      </c>
+      <c r="AQ186">
+        <v>1.71</v>
+      </c>
+      <c r="AR186">
+        <v>0.83</v>
+      </c>
+      <c r="AS186">
+        <v>1.76</v>
+      </c>
+      <c r="AT186">
+        <v>0.8</v>
+      </c>
+      <c r="AU186">
+        <v>1.36</v>
+      </c>
+      <c r="AV186">
+        <v>0.66</v>
+      </c>
+      <c r="AW186">
+        <v>2.02</v>
+      </c>
+      <c r="AX186">
+        <v>0</v>
+      </c>
+      <c r="AY186">
+        <v>0</v>
+      </c>
+      <c r="AZ186">
+        <v>0</v>
+      </c>
+      <c r="BA186">
+        <v>0</v>
+      </c>
+      <c r="BB186">
+        <v>0</v>
+      </c>
+      <c r="BC186">
+        <v>0</v>
+      </c>
+      <c r="BD186">
+        <v>0</v>
+      </c>
+      <c r="BE186">
+        <v>0</v>
+      </c>
+      <c r="BF186">
+        <v>10</v>
+      </c>
+      <c r="BG186">
+        <v>0</v>
+      </c>
+      <c r="BH186">
+        <v>4</v>
+      </c>
+      <c r="BI186">
+        <v>6</v>
+      </c>
+      <c r="BJ186">
+        <v>14</v>
+      </c>
+      <c r="BK186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>5741383</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45088.52083333334</v>
+      </c>
+      <c r="F187">
+        <v>11</v>
+      </c>
+      <c r="G187" t="s">
+        <v>74</v>
+      </c>
+      <c r="H187" t="s">
+        <v>78</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>196</v>
+      </c>
+      <c r="P187" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q187">
+        <v>1</v>
+      </c>
+      <c r="R187">
+        <v>7</v>
+      </c>
+      <c r="S187">
+        <v>8</v>
+      </c>
+      <c r="T187">
+        <v>3.5</v>
+      </c>
+      <c r="U187">
+        <v>1.83</v>
+      </c>
+      <c r="V187">
+        <v>3.6</v>
+      </c>
+      <c r="W187">
+        <v>1.64</v>
+      </c>
+      <c r="X187">
+        <v>2.05</v>
+      </c>
+      <c r="Y187">
+        <v>3.98</v>
+      </c>
+      <c r="Z187">
+        <v>1.22</v>
+      </c>
+      <c r="AA187">
+        <v>11</v>
+      </c>
+      <c r="AB187">
+        <v>1.01</v>
+      </c>
+      <c r="AC187">
+        <v>2.8</v>
+      </c>
+      <c r="AD187">
+        <v>2.4</v>
+      </c>
+      <c r="AE187">
+        <v>2.9</v>
+      </c>
+      <c r="AF187">
+        <v>1.11</v>
+      </c>
+      <c r="AG187">
+        <v>5.3</v>
+      </c>
+      <c r="AH187">
+        <v>1.7</v>
+      </c>
+      <c r="AI187">
+        <v>2.04</v>
+      </c>
+      <c r="AJ187">
+        <v>2.88</v>
+      </c>
+      <c r="AK187">
+        <v>1.4</v>
+      </c>
+      <c r="AL187">
+        <v>2.45</v>
+      </c>
+      <c r="AM187">
+        <v>1.52</v>
+      </c>
+      <c r="AN187">
+        <v>1.36</v>
+      </c>
+      <c r="AO187">
+        <v>1.36</v>
+      </c>
+      <c r="AP187">
+        <v>1.4</v>
+      </c>
+      <c r="AQ187">
+        <v>1.33</v>
+      </c>
+      <c r="AR187">
+        <v>1.21</v>
+      </c>
+      <c r="AS187">
+        <v>1.4</v>
+      </c>
+      <c r="AT187">
+        <v>1.16</v>
+      </c>
+      <c r="AU187">
+        <v>1.24</v>
+      </c>
+      <c r="AV187">
+        <v>1.27</v>
+      </c>
+      <c r="AW187">
+        <v>2.51</v>
+      </c>
+      <c r="AX187">
+        <v>0</v>
+      </c>
+      <c r="AY187">
+        <v>0</v>
+      </c>
+      <c r="AZ187">
+        <v>0</v>
+      </c>
+      <c r="BA187">
+        <v>0</v>
+      </c>
+      <c r="BB187">
+        <v>0</v>
+      </c>
+      <c r="BC187">
+        <v>0</v>
+      </c>
+      <c r="BD187">
+        <v>0</v>
+      </c>
+      <c r="BE187">
+        <v>0</v>
+      </c>
+      <c r="BF187">
+        <v>-1</v>
+      </c>
+      <c r="BG187">
+        <v>-1</v>
+      </c>
+      <c r="BH187">
+        <v>-1</v>
+      </c>
+      <c r="BI187">
+        <v>-1</v>
+      </c>
+      <c r="BJ187">
+        <v>-1</v>
+      </c>
+      <c r="BK187">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,15 @@
     <t>['19', '43']</t>
   </si>
   <si>
+    <t>['68', '83', '90+1']</t>
+  </si>
+  <si>
+    <t>['45+6', '62']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['8', '11', '45', '65', '70']</t>
   </si>
   <si>
@@ -668,9 +677,6 @@
   </si>
   <si>
     <t>['53']</t>
-  </si>
-  <si>
-    <t>['26']</t>
   </si>
   <si>
     <t>['45', '50']</t>
@@ -785,6 +791,12 @@
   </si>
   <si>
     <t>['67', '90+2']</t>
+  </si>
+  <si>
+    <t>['8', '75']</t>
+  </si>
+  <si>
+    <t>['45', '55', '74']</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK187"/>
+  <dimension ref="A1:BK192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2241,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT6">
         <v>0.62</v>
@@ -2345,7 +2357,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2536,7 +2548,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>11</v>
@@ -2623,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT8">
         <v>1.58</v>
@@ -3008,7 +3020,7 @@
         <v>1.58</v>
       </c>
       <c r="AT10">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3196,10 +3208,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT11">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3300,7 +3312,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3772,7 +3784,7 @@
         <v>0.86</v>
       </c>
       <c r="AT14">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU14">
         <v>0.83</v>
@@ -3873,7 +3885,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3963,7 +3975,7 @@
         <v>1.75</v>
       </c>
       <c r="AT15">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4064,7 +4076,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4151,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT16">
         <v>0.83</v>
@@ -4255,7 +4267,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q17">
         <v>8</v>
@@ -4342,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT17">
         <v>0.14</v>
@@ -4637,7 +4649,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4828,7 +4840,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4918,7 +4930,7 @@
         <v>1.58</v>
       </c>
       <c r="AT20">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU20">
         <v>1.14</v>
@@ -5300,7 +5312,7 @@
         <v>2.31</v>
       </c>
       <c r="AT22">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU22">
         <v>1.31</v>
@@ -5592,7 +5604,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q24">
         <v>-1</v>
@@ -5783,7 +5795,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5870,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT25">
         <v>1.17</v>
@@ -5974,7 +5986,7 @@
         <v>81</v>
       </c>
       <c r="P26" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6252,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -6634,7 +6646,7 @@
         <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT29">
         <v>0.62</v>
@@ -6825,7 +6837,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT30">
         <v>0.14</v>
@@ -7016,7 +7028,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT31">
         <v>0.67</v>
@@ -7120,7 +7132,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7311,7 +7323,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7502,7 +7514,7 @@
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7589,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT34">
         <v>1.17</v>
@@ -7974,7 +7986,7 @@
         <v>1.58</v>
       </c>
       <c r="AT36">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU36">
         <v>0.91</v>
@@ -8075,7 +8087,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8738,7 +8750,7 @@
         <v>2.31</v>
       </c>
       <c r="AT40">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU40">
         <v>1.31</v>
@@ -8929,7 +8941,7 @@
         <v>0.86</v>
       </c>
       <c r="AT41">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU41">
         <v>0.9399999999999999</v>
@@ -9030,7 +9042,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9120,7 +9132,7 @@
         <v>1.92</v>
       </c>
       <c r="AT42">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9311,7 +9323,7 @@
         <v>1.43</v>
       </c>
       <c r="AT43">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU43">
         <v>1.08</v>
@@ -9499,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT44">
         <v>0</v>
@@ -9603,7 +9615,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9690,10 +9702,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT45">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU45">
         <v>1.95</v>
@@ -9884,7 +9896,7 @@
         <v>1.75</v>
       </c>
       <c r="AT46">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU46">
         <v>1.16</v>
@@ -10072,10 +10084,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT47">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU47">
         <v>1.13</v>
@@ -10176,7 +10188,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10454,10 +10466,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT49">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU49">
         <v>1.25</v>
@@ -11131,7 +11143,7 @@
         <v>81</v>
       </c>
       <c r="P53" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q53">
         <v>-1</v>
@@ -11221,7 +11233,7 @@
         <v>0.92</v>
       </c>
       <c r="AT53">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU53">
         <v>1.52</v>
@@ -11322,7 +11334,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11409,10 +11421,10 @@
         <v>0.33</v>
       </c>
       <c r="AS54">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT54">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU54">
         <v>1.4</v>
@@ -11600,7 +11612,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT55">
         <v>0.83</v>
@@ -11791,7 +11803,7 @@
         <v>3</v>
       </c>
       <c r="AS56">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT56">
         <v>2.08</v>
@@ -11895,7 +11907,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11985,7 +11997,7 @@
         <v>1.92</v>
       </c>
       <c r="AT57">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU57">
         <v>1.83</v>
@@ -12277,7 +12289,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12468,7 +12480,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12659,7 +12671,7 @@
         <v>81</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12746,7 +12758,7 @@
         <v>2</v>
       </c>
       <c r="AS61">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT61">
         <v>2.08</v>
@@ -13319,10 +13331,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT64">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU64">
         <v>1.44</v>
@@ -13423,7 +13435,7 @@
         <v>81</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q65">
         <v>-1</v>
@@ -13513,7 +13525,7 @@
         <v>0.92</v>
       </c>
       <c r="AT65">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU65">
         <v>1.52</v>
@@ -13614,7 +13626,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13805,7 +13817,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13892,7 +13904,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT67">
         <v>0.75</v>
@@ -14277,7 +14289,7 @@
         <v>1.67</v>
       </c>
       <c r="AT69">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU69">
         <v>1.53</v>
@@ -14569,7 +14581,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14656,7 +14668,7 @@
         <v>0.75</v>
       </c>
       <c r="AS71">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT71">
         <v>1</v>
@@ -14760,7 +14772,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14850,7 +14862,7 @@
         <v>1.92</v>
       </c>
       <c r="AT72">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU72">
         <v>2.11</v>
@@ -14951,7 +14963,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>-1</v>
@@ -15041,7 +15053,7 @@
         <v>1.75</v>
       </c>
       <c r="AT73">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU73">
         <v>1.16</v>
@@ -15229,7 +15241,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT74">
         <v>0.67</v>
@@ -15333,7 +15345,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>-1</v>
@@ -15423,7 +15435,7 @@
         <v>0.92</v>
       </c>
       <c r="AT75">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU75">
         <v>1.52</v>
@@ -15611,7 +15623,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT76">
         <v>1.17</v>
@@ -15802,7 +15814,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT77">
         <v>0.14</v>
@@ -16187,7 +16199,7 @@
         <v>1.58</v>
       </c>
       <c r="AT79">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU79">
         <v>1.15</v>
@@ -16288,7 +16300,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16670,7 +16682,7 @@
         <v>128</v>
       </c>
       <c r="P82" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q82">
         <v>-1</v>
@@ -16757,10 +16769,10 @@
         <v>1.2</v>
       </c>
       <c r="AS82">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT82">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU82">
         <v>1.44</v>
@@ -16948,7 +16960,7 @@
         <v>0.6</v>
       </c>
       <c r="AS83">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT83">
         <v>1</v>
@@ -17052,7 +17064,7 @@
         <v>134</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>-1</v>
@@ -17434,7 +17446,7 @@
         <v>136</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17521,7 +17533,7 @@
         <v>1.6</v>
       </c>
       <c r="AS86">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT86">
         <v>1.23</v>
@@ -17715,7 +17727,7 @@
         <v>1.17</v>
       </c>
       <c r="AT87">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU87">
         <v>0.99</v>
@@ -17903,7 +17915,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT88">
         <v>0.75</v>
@@ -18288,7 +18300,7 @@
         <v>0.92</v>
       </c>
       <c r="AT90">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU90">
         <v>1.52</v>
@@ -18479,7 +18491,7 @@
         <v>2.31</v>
       </c>
       <c r="AT91">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU91">
         <v>1.2</v>
@@ -18771,7 +18783,7 @@
         <v>139</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18962,7 +18974,7 @@
         <v>140</v>
       </c>
       <c r="P94" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19052,7 +19064,7 @@
         <v>0.86</v>
       </c>
       <c r="AT94">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU94">
         <v>1.07</v>
@@ -19344,7 +19356,7 @@
         <v>81</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19622,7 +19634,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT97">
         <v>1.58</v>
@@ -20004,10 +20016,10 @@
         <v>1.17</v>
       </c>
       <c r="AS99">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT99">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU99">
         <v>1.44</v>
@@ -20108,7 +20120,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q100">
         <v>-1</v>
@@ -20299,7 +20311,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20386,7 +20398,7 @@
         <v>1.83</v>
       </c>
       <c r="AS101">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT101">
         <v>1.23</v>
@@ -20771,7 +20783,7 @@
         <v>1.33</v>
       </c>
       <c r="AT103">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU103">
         <v>0.89</v>
@@ -21153,7 +21165,7 @@
         <v>1.75</v>
       </c>
       <c r="AT105">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU105">
         <v>1.16</v>
@@ -21254,7 +21266,7 @@
         <v>81</v>
       </c>
       <c r="P106" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>-1</v>
@@ -21344,7 +21356,7 @@
         <v>0.86</v>
       </c>
       <c r="AT106">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU106">
         <v>1.1</v>
@@ -21445,7 +21457,7 @@
         <v>149</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21636,7 +21648,7 @@
         <v>150</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>-1</v>
@@ -21827,7 +21839,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q109">
         <v>-1</v>
@@ -21914,10 +21926,10 @@
         <v>1.5</v>
       </c>
       <c r="AS109">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT109">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU109">
         <v>1.44</v>
@@ -22018,7 +22030,7 @@
         <v>152</v>
       </c>
       <c r="P110" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22296,7 +22308,7 @@
         <v>0.83</v>
       </c>
       <c r="AS111">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT111">
         <v>0.75</v>
@@ -22400,7 +22412,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22487,7 +22499,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT112">
         <v>1.58</v>
@@ -22869,10 +22881,10 @@
         <v>1.71</v>
       </c>
       <c r="AS114">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AT114">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AU114">
         <v>2.46</v>
@@ -23060,10 +23072,10 @@
         <v>1.14</v>
       </c>
       <c r="AS115">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AT115">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AU115">
         <v>1.16</v>
@@ -23164,7 +23176,7 @@
         <v>138</v>
       </c>
       <c r="P116" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23251,10 +23263,10 @@
         <v>2.21</v>
       </c>
       <c r="AS116">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="AT116">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AU116">
         <v>1.29</v>
@@ -23442,10 +23454,10 @@
         <v>1.29</v>
       </c>
       <c r="AS117">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AT117">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AU117">
         <v>1.42</v>
@@ -23928,7 +23940,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>12</v>
@@ -24206,10 +24218,10 @@
         <v>1.8</v>
       </c>
       <c r="AS121">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AT121">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AU121">
         <v>1.5</v>
@@ -24397,10 +24409,10 @@
         <v>2.13</v>
       </c>
       <c r="AS122">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AT122">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AU122">
         <v>1.41</v>
@@ -24501,7 +24513,7 @@
         <v>81</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>-1</v>
@@ -24588,10 +24600,10 @@
         <v>1.8</v>
       </c>
       <c r="AS123">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AT123">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="AU123">
         <v>1.44</v>
@@ -25456,7 +25468,7 @@
         <v>160</v>
       </c>
       <c r="P128" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q128">
         <v>-1</v>
@@ -26220,7 +26232,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26498,10 +26510,10 @@
         <v>2.13</v>
       </c>
       <c r="AS133">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AT133">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AU133">
         <v>2.2</v>
@@ -26689,10 +26701,10 @@
         <v>1.13</v>
       </c>
       <c r="AS134">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AT134">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AU134">
         <v>2.28</v>
@@ -26793,7 +26805,7 @@
         <v>165</v>
       </c>
       <c r="P135" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26880,10 +26892,10 @@
         <v>2.06</v>
       </c>
       <c r="AS135">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AT135">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AU135">
         <v>1.23</v>
@@ -27071,10 +27083,10 @@
         <v>1.06</v>
       </c>
       <c r="AS136">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="AT136">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AU136">
         <v>1.25</v>
@@ -27262,10 +27274,10 @@
         <v>2.19</v>
       </c>
       <c r="AS137">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AT137">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AU137">
         <v>1.44</v>
@@ -27453,10 +27465,10 @@
         <v>1.94</v>
       </c>
       <c r="AS138">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AT138">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="AU138">
         <v>1.41</v>
@@ -27644,10 +27656,10 @@
         <v>1.59</v>
       </c>
       <c r="AS139">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AT139">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AU139">
         <v>1.53</v>
@@ -27835,10 +27847,10 @@
         <v>2.24</v>
       </c>
       <c r="AS140">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AT140">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AU140">
         <v>2.17</v>
@@ -27939,7 +27951,7 @@
         <v>103</v>
       </c>
       <c r="P141" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28321,7 +28333,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q143">
         <v>-1</v>
@@ -28512,7 +28524,7 @@
         <v>81</v>
       </c>
       <c r="P144" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28599,10 +28611,10 @@
         <v>1.82</v>
       </c>
       <c r="AS144">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AT144">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AU144">
         <v>1.39</v>
@@ -28790,10 +28802,10 @@
         <v>1.06</v>
       </c>
       <c r="AS145">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AT145">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AU145">
         <v>1.36</v>
@@ -28894,7 +28906,7 @@
         <v>173</v>
       </c>
       <c r="P146" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q146">
         <v>-1</v>
@@ -29554,10 +29566,10 @@
         <v>2.11</v>
       </c>
       <c r="AS149">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AT149">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AU149">
         <v>2.22</v>
@@ -29745,10 +29757,10 @@
         <v>2.11</v>
       </c>
       <c r="AS150">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AT150">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AU150">
         <v>1.51</v>
@@ -29849,7 +29861,7 @@
         <v>175</v>
       </c>
       <c r="P151" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -29936,10 +29948,10 @@
         <v>1.83</v>
       </c>
       <c r="AS151">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="AT151">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AU151">
         <v>1.26</v>
@@ -30040,7 +30052,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30127,10 +30139,10 @@
         <v>1.11</v>
       </c>
       <c r="AS152">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AT152">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AU152">
         <v>1.36</v>
@@ -30318,10 +30330,10 @@
         <v>1.95</v>
       </c>
       <c r="AS153">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AT153">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="AU153">
         <v>1.24</v>
@@ -30509,10 +30521,10 @@
         <v>2</v>
       </c>
       <c r="AS154">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AT154">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AU154">
         <v>2.13</v>
@@ -30613,7 +30625,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q155">
         <v>-1</v>
@@ -31273,10 +31285,10 @@
         <v>1.63</v>
       </c>
       <c r="AS158">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AT158">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AU158">
         <v>1.32</v>
@@ -32037,10 +32049,10 @@
         <v>1.8</v>
       </c>
       <c r="AS162">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AT162">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AU162">
         <v>1.51</v>
@@ -32228,10 +32240,10 @@
         <v>2.2</v>
       </c>
       <c r="AS163">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AT163">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AU163">
         <v>1.36</v>
@@ -32992,10 +33004,10 @@
         <v>1.85</v>
       </c>
       <c r="AS167">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="AT167">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AU167">
         <v>1.35</v>
@@ -33183,10 +33195,10 @@
         <v>0.95</v>
       </c>
       <c r="AS168">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AT168">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AU168">
         <v>2.04</v>
@@ -33287,7 +33299,7 @@
         <v>81</v>
       </c>
       <c r="P169" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q169">
         <v>-1</v>
@@ -33374,10 +33386,10 @@
         <v>1.76</v>
       </c>
       <c r="AS169">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AT169">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AU169">
         <v>1.3</v>
@@ -33478,7 +33490,7 @@
         <v>184</v>
       </c>
       <c r="P170" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q170">
         <v>-1</v>
@@ -33565,10 +33577,10 @@
         <v>2.14</v>
       </c>
       <c r="AS170">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AT170">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AU170">
         <v>1.48</v>
@@ -34051,7 +34063,7 @@
         <v>186</v>
       </c>
       <c r="P173" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q173">
         <v>-1</v>
@@ -34329,10 +34341,10 @@
         <v>1.81</v>
       </c>
       <c r="AS174">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AT174">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AU174">
         <v>1.36</v>
@@ -34520,10 +34532,10 @@
         <v>1.81</v>
       </c>
       <c r="AS175">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AT175">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="AU175">
         <v>1.95</v>
@@ -34711,10 +34723,10 @@
         <v>1.18</v>
       </c>
       <c r="AS176">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AT176">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AU176">
         <v>1.98</v>
@@ -34902,10 +34914,10 @@
         <v>0.86</v>
       </c>
       <c r="AS177">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AT177">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AU177">
         <v>1.24</v>
@@ -35093,10 +35105,10 @@
         <v>1.45</v>
       </c>
       <c r="AS178">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="AT178">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AU178">
         <v>1.35</v>
@@ -35197,7 +35209,7 @@
         <v>191</v>
       </c>
       <c r="P179" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35284,10 +35296,10 @@
         <v>2</v>
       </c>
       <c r="AS179">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AT179">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AU179">
         <v>1.35</v>
@@ -35388,7 +35400,7 @@
         <v>192</v>
       </c>
       <c r="P180" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q180">
         <v>0</v>
@@ -35475,10 +35487,10 @@
         <v>1.91</v>
       </c>
       <c r="AS180">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AT180">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AU180">
         <v>1.3</v>
@@ -35666,10 +35678,10 @@
         <v>1.39</v>
       </c>
       <c r="AS181">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AT181">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AU181">
         <v>1.97</v>
@@ -35857,10 +35869,10 @@
         <v>2.13</v>
       </c>
       <c r="AS182">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AT182">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AU182">
         <v>1.32</v>
@@ -36048,10 +36060,10 @@
         <v>1.78</v>
       </c>
       <c r="AS183">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AT183">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="AU183">
         <v>1.48</v>
@@ -36239,10 +36251,10 @@
         <v>1.96</v>
       </c>
       <c r="AS184">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AT184">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AU184">
         <v>1.24</v>
@@ -36430,10 +36442,10 @@
         <v>1.79</v>
       </c>
       <c r="AS185">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AT185">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AU185">
         <v>1.93</v>
@@ -36621,10 +36633,10 @@
         <v>0.83</v>
       </c>
       <c r="AS186">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="AT186">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AU186">
         <v>1.36</v>
@@ -36812,10 +36824,10 @@
         <v>1.21</v>
       </c>
       <c r="AS187">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AT187">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AU187">
         <v>1.24</v>
@@ -36867,6 +36879,961 @@
       </c>
       <c r="BK187">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>5741384</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45100.52083333334</v>
+      </c>
+      <c r="F188">
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>71</v>
+      </c>
+      <c r="H188" t="s">
+        <v>74</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>2</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188" t="s">
+        <v>156</v>
+      </c>
+      <c r="P188" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q188">
+        <v>-1</v>
+      </c>
+      <c r="R188">
+        <v>-1</v>
+      </c>
+      <c r="S188">
+        <v>-1</v>
+      </c>
+      <c r="T188">
+        <v>3.6</v>
+      </c>
+      <c r="U188">
+        <v>2.2</v>
+      </c>
+      <c r="V188">
+        <v>2.63</v>
+      </c>
+      <c r="W188">
+        <v>1.64</v>
+      </c>
+      <c r="X188">
+        <v>1.98</v>
+      </c>
+      <c r="Y188">
+        <v>4.15</v>
+      </c>
+      <c r="Z188">
+        <v>1.17</v>
+      </c>
+      <c r="AA188">
+        <v>14</v>
+      </c>
+      <c r="AB188">
+        <v>1.01</v>
+      </c>
+      <c r="AC188">
+        <v>3.4</v>
+      </c>
+      <c r="AD188">
+        <v>3.6</v>
+      </c>
+      <c r="AE188">
+        <v>1.83</v>
+      </c>
+      <c r="AF188">
+        <v>1.12</v>
+      </c>
+      <c r="AG188">
+        <v>5.25</v>
+      </c>
+      <c r="AH188">
+        <v>1.69</v>
+      </c>
+      <c r="AI188">
+        <v>2.16</v>
+      </c>
+      <c r="AJ188">
+        <v>1.62</v>
+      </c>
+      <c r="AK188">
+        <v>2.25</v>
+      </c>
+      <c r="AL188">
+        <v>2.34</v>
+      </c>
+      <c r="AM188">
+        <v>1.57</v>
+      </c>
+      <c r="AN188">
+        <v>1.53</v>
+      </c>
+      <c r="AO188">
+        <v>1.38</v>
+      </c>
+      <c r="AP188">
+        <v>1.27</v>
+      </c>
+      <c r="AQ188">
+        <v>0.8</v>
+      </c>
+      <c r="AR188">
+        <v>1.4</v>
+      </c>
+      <c r="AS188">
+        <v>0.77</v>
+      </c>
+      <c r="AT188">
+        <v>1.41</v>
+      </c>
+      <c r="AU188">
+        <v>1.3</v>
+      </c>
+      <c r="AV188">
+        <v>0.99</v>
+      </c>
+      <c r="AW188">
+        <v>2.29</v>
+      </c>
+      <c r="AX188">
+        <v>0</v>
+      </c>
+      <c r="AY188">
+        <v>0</v>
+      </c>
+      <c r="AZ188">
+        <v>0</v>
+      </c>
+      <c r="BA188">
+        <v>0</v>
+      </c>
+      <c r="BB188">
+        <v>1.98</v>
+      </c>
+      <c r="BC188">
+        <v>2.25</v>
+      </c>
+      <c r="BD188">
+        <v>0</v>
+      </c>
+      <c r="BE188">
+        <v>0</v>
+      </c>
+      <c r="BF188">
+        <v>-1</v>
+      </c>
+      <c r="BG188">
+        <v>-1</v>
+      </c>
+      <c r="BH188">
+        <v>-1</v>
+      </c>
+      <c r="BI188">
+        <v>-1</v>
+      </c>
+      <c r="BJ188">
+        <v>-1</v>
+      </c>
+      <c r="BK188">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>5741385</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45100.52083333334</v>
+      </c>
+      <c r="F189">
+        <v>12</v>
+      </c>
+      <c r="G189" t="s">
+        <v>80</v>
+      </c>
+      <c r="H189" t="s">
+        <v>66</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>3</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>4</v>
+      </c>
+      <c r="O189" t="s">
+        <v>197</v>
+      </c>
+      <c r="P189" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q189">
+        <v>2</v>
+      </c>
+      <c r="R189">
+        <v>6</v>
+      </c>
+      <c r="S189">
+        <v>8</v>
+      </c>
+      <c r="T189">
+        <v>2.4</v>
+      </c>
+      <c r="U189">
+        <v>1.91</v>
+      </c>
+      <c r="V189">
+        <v>6</v>
+      </c>
+      <c r="W189">
+        <v>1.6</v>
+      </c>
+      <c r="X189">
+        <v>2.1</v>
+      </c>
+      <c r="Y189">
+        <v>3.9</v>
+      </c>
+      <c r="Z189">
+        <v>1.19</v>
+      </c>
+      <c r="AA189">
+        <v>11.5</v>
+      </c>
+      <c r="AB189">
+        <v>1.01</v>
+      </c>
+      <c r="AC189">
+        <v>1.7</v>
+      </c>
+      <c r="AD189">
+        <v>2.88</v>
+      </c>
+      <c r="AE189">
+        <v>5.5</v>
+      </c>
+      <c r="AF189">
+        <v>1.13</v>
+      </c>
+      <c r="AG189">
+        <v>4.8</v>
+      </c>
+      <c r="AH189">
+        <v>1.88</v>
+      </c>
+      <c r="AI189">
+        <v>1.92</v>
+      </c>
+      <c r="AJ189">
+        <v>2.88</v>
+      </c>
+      <c r="AK189">
+        <v>1.4</v>
+      </c>
+      <c r="AL189">
+        <v>2.51</v>
+      </c>
+      <c r="AM189">
+        <v>1.5</v>
+      </c>
+      <c r="AN189">
+        <v>1.13</v>
+      </c>
+      <c r="AO189">
+        <v>1.3</v>
+      </c>
+      <c r="AP189">
+        <v>1.8</v>
+      </c>
+      <c r="AQ189">
+        <v>1.76</v>
+      </c>
+      <c r="AR189">
+        <v>1.76</v>
+      </c>
+      <c r="AS189">
+        <v>1.85</v>
+      </c>
+      <c r="AT189">
+        <v>1.69</v>
+      </c>
+      <c r="AU189">
+        <v>1.32</v>
+      </c>
+      <c r="AV189">
+        <v>1.19</v>
+      </c>
+      <c r="AW189">
+        <v>2.51</v>
+      </c>
+      <c r="AX189">
+        <v>0</v>
+      </c>
+      <c r="AY189">
+        <v>0</v>
+      </c>
+      <c r="AZ189">
+        <v>0</v>
+      </c>
+      <c r="BA189">
+        <v>0</v>
+      </c>
+      <c r="BB189">
+        <v>0</v>
+      </c>
+      <c r="BC189">
+        <v>0</v>
+      </c>
+      <c r="BD189">
+        <v>0</v>
+      </c>
+      <c r="BE189">
+        <v>0</v>
+      </c>
+      <c r="BF189">
+        <v>9</v>
+      </c>
+      <c r="BG189">
+        <v>2</v>
+      </c>
+      <c r="BH189">
+        <v>8</v>
+      </c>
+      <c r="BI189">
+        <v>2</v>
+      </c>
+      <c r="BJ189">
+        <v>17</v>
+      </c>
+      <c r="BK189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>5741386</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45101.52083333334</v>
+      </c>
+      <c r="F190">
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>69</v>
+      </c>
+      <c r="H190" t="s">
+        <v>79</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>2</v>
+      </c>
+      <c r="O190" t="s">
+        <v>198</v>
+      </c>
+      <c r="P190" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q190">
+        <v>5</v>
+      </c>
+      <c r="R190">
+        <v>5</v>
+      </c>
+      <c r="S190">
+        <v>10</v>
+      </c>
+      <c r="T190">
+        <v>2.6</v>
+      </c>
+      <c r="U190">
+        <v>1.83</v>
+      </c>
+      <c r="V190">
+        <v>5.5</v>
+      </c>
+      <c r="W190">
+        <v>1.05</v>
+      </c>
+      <c r="X190">
+        <v>1.45</v>
+      </c>
+      <c r="Y190">
+        <v>3.9</v>
+      </c>
+      <c r="Z190">
+        <v>1.21</v>
+      </c>
+      <c r="AA190">
+        <v>11.5</v>
+      </c>
+      <c r="AB190">
+        <v>1.01</v>
+      </c>
+      <c r="AC190">
+        <v>1.8</v>
+      </c>
+      <c r="AD190">
+        <v>3</v>
+      </c>
+      <c r="AE190">
+        <v>4.5</v>
+      </c>
+      <c r="AF190">
+        <v>1.13</v>
+      </c>
+      <c r="AG190">
+        <v>5.8</v>
+      </c>
+      <c r="AH190">
+        <v>1.57</v>
+      </c>
+      <c r="AI190">
+        <v>2.25</v>
+      </c>
+      <c r="AJ190">
+        <v>3.1</v>
+      </c>
+      <c r="AK190">
+        <v>1.36</v>
+      </c>
+      <c r="AL190">
+        <v>2.57</v>
+      </c>
+      <c r="AM190">
+        <v>1.48</v>
+      </c>
+      <c r="AN190">
+        <v>1.13</v>
+      </c>
+      <c r="AO190">
+        <v>1.3</v>
+      </c>
+      <c r="AP190">
+        <v>1.83</v>
+      </c>
+      <c r="AQ190">
+        <v>2.12</v>
+      </c>
+      <c r="AR190">
+        <v>1.84</v>
+      </c>
+      <c r="AS190">
+        <v>2.15</v>
+      </c>
+      <c r="AT190">
+        <v>1.77</v>
+      </c>
+      <c r="AU190">
+        <v>1.14</v>
+      </c>
+      <c r="AV190">
+        <v>1</v>
+      </c>
+      <c r="AW190">
+        <v>2.14</v>
+      </c>
+      <c r="AX190">
+        <v>0</v>
+      </c>
+      <c r="AY190">
+        <v>0</v>
+      </c>
+      <c r="AZ190">
+        <v>0</v>
+      </c>
+      <c r="BA190">
+        <v>0</v>
+      </c>
+      <c r="BB190">
+        <v>0</v>
+      </c>
+      <c r="BC190">
+        <v>0</v>
+      </c>
+      <c r="BD190">
+        <v>0</v>
+      </c>
+      <c r="BE190">
+        <v>0</v>
+      </c>
+      <c r="BF190">
+        <v>3</v>
+      </c>
+      <c r="BG190">
+        <v>3</v>
+      </c>
+      <c r="BH190">
+        <v>1</v>
+      </c>
+      <c r="BI190">
+        <v>4</v>
+      </c>
+      <c r="BJ190">
+        <v>4</v>
+      </c>
+      <c r="BK190">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>5741387</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45101.52083333334</v>
+      </c>
+      <c r="F191">
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>77</v>
+      </c>
+      <c r="H191" t="s">
+        <v>78</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191" t="s">
+        <v>199</v>
+      </c>
+      <c r="P191" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q191">
+        <v>5</v>
+      </c>
+      <c r="R191">
+        <v>3</v>
+      </c>
+      <c r="S191">
+        <v>8</v>
+      </c>
+      <c r="T191">
+        <v>1.83</v>
+      </c>
+      <c r="U191">
+        <v>2.1</v>
+      </c>
+      <c r="V191">
+        <v>11</v>
+      </c>
+      <c r="W191">
+        <v>1.51</v>
+      </c>
+      <c r="X191">
+        <v>2.4</v>
+      </c>
+      <c r="Y191">
+        <v>3.4</v>
+      </c>
+      <c r="Z191">
+        <v>1.27</v>
+      </c>
+      <c r="AA191">
+        <v>9.6</v>
+      </c>
+      <c r="AB191">
+        <v>1.02</v>
+      </c>
+      <c r="AC191">
+        <v>1.29</v>
+      </c>
+      <c r="AD191">
+        <v>4.75</v>
+      </c>
+      <c r="AE191">
+        <v>8.5</v>
+      </c>
+      <c r="AF191">
+        <v>1.09</v>
+      </c>
+      <c r="AG191">
+        <v>7.45</v>
+      </c>
+      <c r="AH191">
+        <v>1.48</v>
+      </c>
+      <c r="AI191">
+        <v>2.48</v>
+      </c>
+      <c r="AJ191">
+        <v>2.15</v>
+      </c>
+      <c r="AK191">
+        <v>1.67</v>
+      </c>
+      <c r="AL191">
+        <v>3.14</v>
+      </c>
+      <c r="AM191">
+        <v>1.34</v>
+      </c>
+      <c r="AN191">
+        <v>1.08</v>
+      </c>
+      <c r="AO191">
+        <v>1.25</v>
+      </c>
+      <c r="AP191">
+        <v>2.25</v>
+      </c>
+      <c r="AQ191">
+        <v>1.92</v>
+      </c>
+      <c r="AR191">
+        <v>1.16</v>
+      </c>
+      <c r="AS191">
+        <v>1.96</v>
+      </c>
+      <c r="AT191">
+        <v>1.12</v>
+      </c>
+      <c r="AU191">
+        <v>2</v>
+      </c>
+      <c r="AV191">
+        <v>1.27</v>
+      </c>
+      <c r="AW191">
+        <v>3.27</v>
+      </c>
+      <c r="AX191">
+        <v>0</v>
+      </c>
+      <c r="AY191">
+        <v>0</v>
+      </c>
+      <c r="AZ191">
+        <v>0</v>
+      </c>
+      <c r="BA191">
+        <v>0</v>
+      </c>
+      <c r="BB191">
+        <v>0</v>
+      </c>
+      <c r="BC191">
+        <v>0</v>
+      </c>
+      <c r="BD191">
+        <v>0</v>
+      </c>
+      <c r="BE191">
+        <v>0</v>
+      </c>
+      <c r="BF191">
+        <v>6</v>
+      </c>
+      <c r="BG191">
+        <v>0</v>
+      </c>
+      <c r="BH191">
+        <v>6</v>
+      </c>
+      <c r="BI191">
+        <v>9</v>
+      </c>
+      <c r="BJ191">
+        <v>12</v>
+      </c>
+      <c r="BK191">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>5741388</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45103.52083333334</v>
+      </c>
+      <c r="F192">
+        <v>13</v>
+      </c>
+      <c r="G192" t="s">
+        <v>74</v>
+      </c>
+      <c r="H192" t="s">
+        <v>80</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>3</v>
+      </c>
+      <c r="N192">
+        <v>4</v>
+      </c>
+      <c r="O192" t="s">
+        <v>160</v>
+      </c>
+      <c r="P192" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>5</v>
+      </c>
+      <c r="S192">
+        <v>5</v>
+      </c>
+      <c r="T192">
+        <v>6</v>
+      </c>
+      <c r="U192">
+        <v>1.83</v>
+      </c>
+      <c r="V192">
+        <v>2.4</v>
+      </c>
+      <c r="W192">
+        <v>1.03</v>
+      </c>
+      <c r="X192">
+        <v>1.48</v>
+      </c>
+      <c r="Y192">
+        <v>3.7</v>
+      </c>
+      <c r="Z192">
+        <v>1.23</v>
+      </c>
+      <c r="AA192">
+        <v>11</v>
+      </c>
+      <c r="AB192">
+        <v>1.01</v>
+      </c>
+      <c r="AC192">
+        <v>5.75</v>
+      </c>
+      <c r="AD192">
+        <v>5</v>
+      </c>
+      <c r="AE192">
+        <v>1.36</v>
+      </c>
+      <c r="AF192">
+        <v>1.12</v>
+      </c>
+      <c r="AG192">
+        <v>6.25</v>
+      </c>
+      <c r="AH192">
+        <v>1.59</v>
+      </c>
+      <c r="AI192">
+        <v>2.2</v>
+      </c>
+      <c r="AJ192">
+        <v>1.5</v>
+      </c>
+      <c r="AK192">
+        <v>2.5</v>
+      </c>
+      <c r="AL192">
+        <v>1.38</v>
+      </c>
+      <c r="AM192">
+        <v>2.95</v>
+      </c>
+      <c r="AN192">
+        <v>2.1</v>
+      </c>
+      <c r="AO192">
+        <v>1.29</v>
+      </c>
+      <c r="AP192">
+        <v>1.11</v>
+      </c>
+      <c r="AQ192">
+        <v>1.46</v>
+      </c>
+      <c r="AR192">
+        <v>1.81</v>
+      </c>
+      <c r="AS192">
+        <v>1.41</v>
+      </c>
+      <c r="AT192">
+        <v>1.85</v>
+      </c>
+      <c r="AU192">
+        <v>1.24</v>
+      </c>
+      <c r="AV192">
+        <v>1.14</v>
+      </c>
+      <c r="AW192">
+        <v>2.38</v>
+      </c>
+      <c r="AX192">
+        <v>0</v>
+      </c>
+      <c r="AY192">
+        <v>0</v>
+      </c>
+      <c r="AZ192">
+        <v>0</v>
+      </c>
+      <c r="BA192">
+        <v>0</v>
+      </c>
+      <c r="BB192">
+        <v>1.98</v>
+      </c>
+      <c r="BC192">
+        <v>0</v>
+      </c>
+      <c r="BD192">
+        <v>0</v>
+      </c>
+      <c r="BE192">
+        <v>0</v>
+      </c>
+      <c r="BF192">
+        <v>6</v>
+      </c>
+      <c r="BG192">
+        <v>11</v>
+      </c>
+      <c r="BH192">
+        <v>5</v>
+      </c>
+      <c r="BI192">
+        <v>1</v>
+      </c>
+      <c r="BJ192">
+        <v>11</v>
+      </c>
+      <c r="BK192">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,9 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['2', '7', '14', '60']</t>
+  </si>
+  <si>
     <t>['8', '11', '45', '65', '70']</t>
   </si>
   <si>
@@ -1158,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK192"/>
+  <dimension ref="A1:BK195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1680,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT3">
         <v>0.83</v>
@@ -2256,7 +2259,7 @@
         <v>2.23</v>
       </c>
       <c r="AT6">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2357,7 +2360,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2447,7 +2450,7 @@
         <v>1.33</v>
       </c>
       <c r="AT7">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2548,7 +2551,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q8">
         <v>11</v>
@@ -3312,7 +3315,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3593,7 +3596,7 @@
         <v>1.43</v>
       </c>
       <c r="AT13">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3885,7 +3888,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4076,7 +4079,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4267,7 +4270,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q17">
         <v>8</v>
@@ -4354,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT17">
         <v>0.14</v>
@@ -4545,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT18">
         <v>0.67</v>
@@ -4649,7 +4652,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4840,7 +4843,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5121,7 +5124,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU21">
         <v>0.18</v>
@@ -5309,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT22">
         <v>1.23</v>
@@ -5604,7 +5607,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>-1</v>
@@ -5795,7 +5798,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5986,7 +5989,7 @@
         <v>81</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6646,10 +6649,10 @@
         <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT29">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU29">
         <v>1.64</v>
@@ -7132,7 +7135,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7323,7 +7326,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7514,7 +7517,7 @@
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8087,7 +8090,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8177,7 +8180,7 @@
         <v>1.17</v>
       </c>
       <c r="AT37">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU37">
         <v>0.75</v>
@@ -8556,7 +8559,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT39">
         <v>0.75</v>
@@ -8747,7 +8750,7 @@
         <v>2.33</v>
       </c>
       <c r="AS40">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT40">
         <v>1.64</v>
@@ -8941,7 +8944,7 @@
         <v>0.86</v>
       </c>
       <c r="AT41">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU41">
         <v>0.9399999999999999</v>
@@ -9042,7 +9045,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9615,7 +9618,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9702,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT45">
         <v>0.77</v>
@@ -9896,7 +9899,7 @@
         <v>1.75</v>
       </c>
       <c r="AT46">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU46">
         <v>1.16</v>
@@ -10087,7 +10090,7 @@
         <v>2.08</v>
       </c>
       <c r="AT47">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU47">
         <v>1.13</v>
@@ -10188,7 +10191,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10275,7 +10278,7 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT48">
         <v>1.17</v>
@@ -11039,7 +11042,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT52">
         <v>1.58</v>
@@ -11143,7 +11146,7 @@
         <v>81</v>
       </c>
       <c r="P53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>-1</v>
@@ -11233,7 +11236,7 @@
         <v>0.92</v>
       </c>
       <c r="AT53">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU53">
         <v>1.52</v>
@@ -11334,7 +11337,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11803,10 +11806,10 @@
         <v>3</v>
       </c>
       <c r="AS56">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT56">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU56">
         <v>2.05</v>
@@ -11907,7 +11910,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12289,7 +12292,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12567,7 +12570,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT60">
         <v>1.23</v>
@@ -12671,7 +12674,7 @@
         <v>81</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12761,7 +12764,7 @@
         <v>0.92</v>
       </c>
       <c r="AT61">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU61">
         <v>1.23</v>
@@ -13435,7 +13438,7 @@
         <v>81</v>
       </c>
       <c r="P65" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>-1</v>
@@ -13626,7 +13629,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13817,7 +13820,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14098,7 +14101,7 @@
         <v>1.17</v>
       </c>
       <c r="AT68">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU68">
         <v>0.99</v>
@@ -14581,7 +14584,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14772,7 +14775,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14963,7 +14966,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>-1</v>
@@ -15345,7 +15348,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>-1</v>
@@ -15623,7 +15626,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT76">
         <v>1.17</v>
@@ -16199,7 +16202,7 @@
         <v>1.58</v>
       </c>
       <c r="AT79">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU79">
         <v>1.15</v>
@@ -16300,7 +16303,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16387,10 +16390,10 @@
         <v>2.25</v>
       </c>
       <c r="AS80">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT80">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU80">
         <v>1.38</v>
@@ -16578,7 +16581,7 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT81">
         <v>0</v>
@@ -16682,7 +16685,7 @@
         <v>128</v>
       </c>
       <c r="P82" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q82">
         <v>-1</v>
@@ -17064,7 +17067,7 @@
         <v>134</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>-1</v>
@@ -17446,7 +17449,7 @@
         <v>136</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -18488,10 +18491,10 @@
         <v>1.6</v>
       </c>
       <c r="AS91">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT91">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU91">
         <v>1.2</v>
@@ -18682,7 +18685,7 @@
         <v>1.67</v>
       </c>
       <c r="AT92">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU92">
         <v>1.63</v>
@@ -18783,7 +18786,7 @@
         <v>139</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18974,7 +18977,7 @@
         <v>140</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19356,7 +19359,7 @@
         <v>81</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19443,10 +19446,10 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT96">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU96">
         <v>1.5</v>
@@ -19634,7 +19637,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT97">
         <v>1.58</v>
@@ -20120,7 +20123,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>-1</v>
@@ -20311,7 +20314,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20592,7 +20595,7 @@
         <v>1.43</v>
       </c>
       <c r="AT102">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU102">
         <v>1.08</v>
@@ -21266,7 +21269,7 @@
         <v>81</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q106">
         <v>-1</v>
@@ -21457,7 +21460,7 @@
         <v>149</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21544,7 +21547,7 @@
         <v>0.5</v>
       </c>
       <c r="AS107">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT107">
         <v>1</v>
@@ -21648,7 +21651,7 @@
         <v>150</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>-1</v>
@@ -21839,7 +21842,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>-1</v>
@@ -21929,7 +21932,7 @@
         <v>1.57</v>
       </c>
       <c r="AT109">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU109">
         <v>1.44</v>
@@ -22030,7 +22033,7 @@
         <v>152</v>
       </c>
       <c r="P110" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22120,7 +22123,7 @@
         <v>1.67</v>
       </c>
       <c r="AT110">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU110">
         <v>1.54</v>
@@ -22308,7 +22311,7 @@
         <v>0.83</v>
       </c>
       <c r="AS111">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AT111">
         <v>0.75</v>
@@ -22412,7 +22415,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22690,7 +22693,7 @@
         <v>0.17</v>
       </c>
       <c r="AS113">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT113">
         <v>0.14</v>
@@ -22881,7 +22884,7 @@
         <v>1.71</v>
       </c>
       <c r="AS114">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AT114">
         <v>1.41</v>
@@ -23072,10 +23075,10 @@
         <v>1.14</v>
       </c>
       <c r="AS115">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="AT115">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AU115">
         <v>1.16</v>
@@ -23176,7 +23179,7 @@
         <v>138</v>
       </c>
       <c r="P116" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23263,10 +23266,10 @@
         <v>2.21</v>
       </c>
       <c r="AS116">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AT116">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AU116">
         <v>1.29</v>
@@ -23457,7 +23460,7 @@
         <v>1.85</v>
       </c>
       <c r="AT117">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AU117">
         <v>1.42</v>
@@ -23940,7 +23943,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q120">
         <v>12</v>
@@ -24218,10 +24221,10 @@
         <v>1.8</v>
       </c>
       <c r="AS121">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AT121">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AU121">
         <v>1.5</v>
@@ -24409,10 +24412,10 @@
         <v>2.13</v>
       </c>
       <c r="AS122">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AT122">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="AU122">
         <v>1.41</v>
@@ -24513,7 +24516,7 @@
         <v>81</v>
       </c>
       <c r="P123" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q123">
         <v>-1</v>
@@ -24603,7 +24606,7 @@
         <v>1.41</v>
       </c>
       <c r="AT123">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AU123">
         <v>1.44</v>
@@ -25468,7 +25471,7 @@
         <v>160</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>-1</v>
@@ -26232,7 +26235,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26510,7 +26513,7 @@
         <v>2.13</v>
       </c>
       <c r="AS133">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AT133">
         <v>1.85</v>
@@ -26701,10 +26704,10 @@
         <v>1.13</v>
       </c>
       <c r="AS134">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AT134">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AU134">
         <v>2.28</v>
@@ -26805,7 +26808,7 @@
         <v>165</v>
       </c>
       <c r="P135" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26892,7 +26895,7 @@
         <v>2.06</v>
       </c>
       <c r="AS135">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="AT135">
         <v>1.85</v>
@@ -27083,10 +27086,10 @@
         <v>1.06</v>
       </c>
       <c r="AS136">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AT136">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AU136">
         <v>1.25</v>
@@ -27277,7 +27280,7 @@
         <v>1.41</v>
       </c>
       <c r="AT137">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AU137">
         <v>1.44</v>
@@ -27465,10 +27468,10 @@
         <v>1.94</v>
       </c>
       <c r="AS138">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AT138">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AU138">
         <v>1.41</v>
@@ -27656,7 +27659,7 @@
         <v>1.59</v>
       </c>
       <c r="AS139">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AT139">
         <v>1.41</v>
@@ -27847,10 +27850,10 @@
         <v>2.24</v>
       </c>
       <c r="AS140">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AT140">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="AU140">
         <v>2.17</v>
@@ -27951,7 +27954,7 @@
         <v>103</v>
       </c>
       <c r="P141" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28333,7 +28336,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q143">
         <v>-1</v>
@@ -28614,7 +28617,7 @@
         <v>1.85</v>
       </c>
       <c r="AT144">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AU144">
         <v>1.39</v>
@@ -28805,7 +28808,7 @@
         <v>1.41</v>
       </c>
       <c r="AT145">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AU145">
         <v>1.36</v>
@@ -28906,7 +28909,7 @@
         <v>173</v>
       </c>
       <c r="P146" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q146">
         <v>-1</v>
@@ -29566,10 +29569,10 @@
         <v>2.11</v>
       </c>
       <c r="AS149">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AT149">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="AU149">
         <v>2.22</v>
@@ -29757,10 +29760,10 @@
         <v>2.11</v>
       </c>
       <c r="AS150">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AT150">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AU150">
         <v>1.51</v>
@@ -29861,7 +29864,7 @@
         <v>175</v>
       </c>
       <c r="P151" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -29948,7 +29951,7 @@
         <v>1.83</v>
       </c>
       <c r="AS151">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AT151">
         <v>1.85</v>
@@ -30052,7 +30055,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30139,10 +30142,10 @@
         <v>1.11</v>
       </c>
       <c r="AS152">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AT152">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AU152">
         <v>1.36</v>
@@ -30330,10 +30333,10 @@
         <v>1.95</v>
       </c>
       <c r="AS153">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="AT153">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AU153">
         <v>1.24</v>
@@ -30521,10 +30524,10 @@
         <v>2</v>
       </c>
       <c r="AS154">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AT154">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AU154">
         <v>2.13</v>
@@ -30625,7 +30628,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q155">
         <v>-1</v>
@@ -32049,7 +32052,7 @@
         <v>1.8</v>
       </c>
       <c r="AS162">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AT162">
         <v>1.85</v>
@@ -32243,7 +32246,7 @@
         <v>1.41</v>
       </c>
       <c r="AT163">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="AU163">
         <v>1.36</v>
@@ -33004,10 +33007,10 @@
         <v>1.85</v>
       </c>
       <c r="AS167">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AT167">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AU167">
         <v>1.35</v>
@@ -33195,10 +33198,10 @@
         <v>0.95</v>
       </c>
       <c r="AS168">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AT168">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AU168">
         <v>2.04</v>
@@ -33299,7 +33302,7 @@
         <v>81</v>
       </c>
       <c r="P169" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q169">
         <v>-1</v>
@@ -33386,7 +33389,7 @@
         <v>1.76</v>
       </c>
       <c r="AS169">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AT169">
         <v>1.85</v>
@@ -33490,7 +33493,7 @@
         <v>184</v>
       </c>
       <c r="P170" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q170">
         <v>-1</v>
@@ -33577,10 +33580,10 @@
         <v>2.14</v>
       </c>
       <c r="AS170">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AT170">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="AU170">
         <v>1.48</v>
@@ -34063,7 +34066,7 @@
         <v>186</v>
       </c>
       <c r="P173" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q173">
         <v>-1</v>
@@ -34344,7 +34347,7 @@
         <v>1.41</v>
       </c>
       <c r="AT174">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AU174">
         <v>1.36</v>
@@ -34532,10 +34535,10 @@
         <v>1.81</v>
       </c>
       <c r="AS175">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AT175">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AU175">
         <v>1.95</v>
@@ -34723,10 +34726,10 @@
         <v>1.18</v>
       </c>
       <c r="AS176">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AT176">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AU176">
         <v>1.98</v>
@@ -34914,10 +34917,10 @@
         <v>0.86</v>
       </c>
       <c r="AS177">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="AT177">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AU177">
         <v>1.24</v>
@@ -35105,7 +35108,7 @@
         <v>1.45</v>
       </c>
       <c r="AS178">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AT178">
         <v>1.41</v>
@@ -35209,7 +35212,7 @@
         <v>191</v>
       </c>
       <c r="P179" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35299,7 +35302,7 @@
         <v>1.85</v>
       </c>
       <c r="AT179">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AU179">
         <v>1.35</v>
@@ -35400,7 +35403,7 @@
         <v>192</v>
       </c>
       <c r="P180" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q180">
         <v>0</v>
@@ -35487,10 +35490,10 @@
         <v>1.91</v>
       </c>
       <c r="AS180">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AT180">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AU180">
         <v>1.3</v>
@@ -35678,7 +35681,7 @@
         <v>1.39</v>
       </c>
       <c r="AS181">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AT181">
         <v>1.41</v>
@@ -35872,7 +35875,7 @@
         <v>1.85</v>
       </c>
       <c r="AT182">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="AU182">
         <v>1.32</v>
@@ -36060,10 +36063,10 @@
         <v>1.78</v>
       </c>
       <c r="AS183">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AT183">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AU183">
         <v>1.48</v>
@@ -36251,10 +36254,10 @@
         <v>1.96</v>
       </c>
       <c r="AS184">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="AT184">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AU184">
         <v>1.24</v>
@@ -36442,7 +36445,7 @@
         <v>1.79</v>
       </c>
       <c r="AS185">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AT185">
         <v>1.85</v>
@@ -36633,10 +36636,10 @@
         <v>0.83</v>
       </c>
       <c r="AS186">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AT186">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AU186">
         <v>1.36</v>
@@ -36827,7 +36830,7 @@
         <v>1.41</v>
       </c>
       <c r="AT187">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AU187">
         <v>1.24</v>
@@ -36928,7 +36931,7 @@
         <v>156</v>
       </c>
       <c r="P188" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q188">
         <v>-1</v>
@@ -37015,7 +37018,7 @@
         <v>1.4</v>
       </c>
       <c r="AS188">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AT188">
         <v>1.41</v>
@@ -37209,7 +37212,7 @@
         <v>1.85</v>
       </c>
       <c r="AT189">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AU189">
         <v>1.32</v>
@@ -37397,10 +37400,10 @@
         <v>1.84</v>
       </c>
       <c r="AS190">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="AT190">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AU190">
         <v>1.14</v>
@@ -37588,10 +37591,10 @@
         <v>1.16</v>
       </c>
       <c r="AS191">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AT191">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AU191">
         <v>2</v>
@@ -37692,7 +37695,7 @@
         <v>160</v>
       </c>
       <c r="P192" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -37834,6 +37837,579 @@
       </c>
       <c r="BK192">
         <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>5741389</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45104.52083333334</v>
+      </c>
+      <c r="F193">
+        <v>13</v>
+      </c>
+      <c r="G193" t="s">
+        <v>77</v>
+      </c>
+      <c r="H193" t="s">
+        <v>79</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193" t="s">
+        <v>81</v>
+      </c>
+      <c r="P193" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q193">
+        <v>3</v>
+      </c>
+      <c r="R193">
+        <v>4</v>
+      </c>
+      <c r="S193">
+        <v>7</v>
+      </c>
+      <c r="T193">
+        <v>2.25</v>
+      </c>
+      <c r="U193">
+        <v>1.83</v>
+      </c>
+      <c r="V193">
+        <v>7.5</v>
+      </c>
+      <c r="W193">
+        <v>1.03</v>
+      </c>
+      <c r="X193">
+        <v>1.51</v>
+      </c>
+      <c r="Y193">
+        <v>3.7</v>
+      </c>
+      <c r="Z193">
+        <v>1.25</v>
+      </c>
+      <c r="AA193">
+        <v>13</v>
+      </c>
+      <c r="AB193">
+        <v>1.01</v>
+      </c>
+      <c r="AC193">
+        <v>1.53</v>
+      </c>
+      <c r="AD193">
+        <v>3.1</v>
+      </c>
+      <c r="AE193">
+        <v>7</v>
+      </c>
+      <c r="AF193">
+        <v>1.07</v>
+      </c>
+      <c r="AG193">
+        <v>6.25</v>
+      </c>
+      <c r="AH193">
+        <v>1.6</v>
+      </c>
+      <c r="AI193">
+        <v>2.3</v>
+      </c>
+      <c r="AJ193">
+        <v>2.88</v>
+      </c>
+      <c r="AK193">
+        <v>1.4</v>
+      </c>
+      <c r="AL193">
+        <v>2.91</v>
+      </c>
+      <c r="AM193">
+        <v>1.39</v>
+      </c>
+      <c r="AN193">
+        <v>1.11</v>
+      </c>
+      <c r="AO193">
+        <v>1.28</v>
+      </c>
+      <c r="AP193">
+        <v>2.17</v>
+      </c>
+      <c r="AQ193">
+        <v>1.96</v>
+      </c>
+      <c r="AR193">
+        <v>1.77</v>
+      </c>
+      <c r="AS193">
+        <v>1.93</v>
+      </c>
+      <c r="AT193">
+        <v>1.74</v>
+      </c>
+      <c r="AU193">
+        <v>1.96</v>
+      </c>
+      <c r="AV193">
+        <v>0.99</v>
+      </c>
+      <c r="AW193">
+        <v>2.95</v>
+      </c>
+      <c r="AX193">
+        <v>0</v>
+      </c>
+      <c r="AY193">
+        <v>0</v>
+      </c>
+      <c r="AZ193">
+        <v>0</v>
+      </c>
+      <c r="BA193">
+        <v>0</v>
+      </c>
+      <c r="BB193">
+        <v>1.95</v>
+      </c>
+      <c r="BC193">
+        <v>0</v>
+      </c>
+      <c r="BD193">
+        <v>0</v>
+      </c>
+      <c r="BE193">
+        <v>0</v>
+      </c>
+      <c r="BF193">
+        <v>8</v>
+      </c>
+      <c r="BG193">
+        <v>5</v>
+      </c>
+      <c r="BH193">
+        <v>11</v>
+      </c>
+      <c r="BI193">
+        <v>1</v>
+      </c>
+      <c r="BJ193">
+        <v>19</v>
+      </c>
+      <c r="BK193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>5741390</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45104.52083333334</v>
+      </c>
+      <c r="F194">
+        <v>13</v>
+      </c>
+      <c r="G194" t="s">
+        <v>78</v>
+      </c>
+      <c r="H194" t="s">
+        <v>71</v>
+      </c>
+      <c r="I194">
+        <v>3</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>3</v>
+      </c>
+      <c r="L194">
+        <v>4</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>4</v>
+      </c>
+      <c r="O194" t="s">
+        <v>200</v>
+      </c>
+      <c r="P194" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q194">
+        <v>-1</v>
+      </c>
+      <c r="R194">
+        <v>-1</v>
+      </c>
+      <c r="S194">
+        <v>-1</v>
+      </c>
+      <c r="T194">
+        <v>1.63</v>
+      </c>
+      <c r="U194">
+        <v>2.67</v>
+      </c>
+      <c r="V194">
+        <v>8.5</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+      <c r="AB194">
+        <v>0</v>
+      </c>
+      <c r="AC194">
+        <v>1.4</v>
+      </c>
+      <c r="AD194">
+        <v>3.9</v>
+      </c>
+      <c r="AE194">
+        <v>7</v>
+      </c>
+      <c r="AF194">
+        <v>0</v>
+      </c>
+      <c r="AG194">
+        <v>0</v>
+      </c>
+      <c r="AH194">
+        <v>0</v>
+      </c>
+      <c r="AI194">
+        <v>0</v>
+      </c>
+      <c r="AJ194">
+        <v>2.21</v>
+      </c>
+      <c r="AK194">
+        <v>1.5</v>
+      </c>
+      <c r="AL194">
+        <v>2.01</v>
+      </c>
+      <c r="AM194">
+        <v>1.76</v>
+      </c>
+      <c r="AN194">
+        <v>1.02</v>
+      </c>
+      <c r="AO194">
+        <v>1.11</v>
+      </c>
+      <c r="AP194">
+        <v>3.84</v>
+      </c>
+      <c r="AQ194">
+        <v>1.12</v>
+      </c>
+      <c r="AR194">
+        <v>0.77</v>
+      </c>
+      <c r="AS194">
+        <v>1.19</v>
+      </c>
+      <c r="AT194">
+        <v>0.74</v>
+      </c>
+      <c r="AU194">
+        <v>1.48</v>
+      </c>
+      <c r="AV194">
+        <v>0.65</v>
+      </c>
+      <c r="AW194">
+        <v>2.13</v>
+      </c>
+      <c r="AX194">
+        <v>0</v>
+      </c>
+      <c r="AY194">
+        <v>0</v>
+      </c>
+      <c r="AZ194">
+        <v>0</v>
+      </c>
+      <c r="BA194">
+        <v>0</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>0</v>
+      </c>
+      <c r="BD194">
+        <v>0</v>
+      </c>
+      <c r="BE194">
+        <v>0</v>
+      </c>
+      <c r="BF194">
+        <v>12</v>
+      </c>
+      <c r="BG194">
+        <v>3</v>
+      </c>
+      <c r="BH194">
+        <v>4</v>
+      </c>
+      <c r="BI194">
+        <v>6</v>
+      </c>
+      <c r="BJ194">
+        <v>16</v>
+      </c>
+      <c r="BK194">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>5741391</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45104.52083333334</v>
+      </c>
+      <c r="F195">
+        <v>13</v>
+      </c>
+      <c r="G195" t="s">
+        <v>66</v>
+      </c>
+      <c r="H195" t="s">
+        <v>69</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195" t="s">
+        <v>81</v>
+      </c>
+      <c r="P195" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <v>2</v>
+      </c>
+      <c r="S195">
+        <v>2</v>
+      </c>
+      <c r="T195">
+        <v>4</v>
+      </c>
+      <c r="U195">
+        <v>1.91</v>
+      </c>
+      <c r="V195">
+        <v>3</v>
+      </c>
+      <c r="W195">
+        <v>1.07</v>
+      </c>
+      <c r="X195">
+        <v>1.5</v>
+      </c>
+      <c r="Y195">
+        <v>3.7</v>
+      </c>
+      <c r="Z195">
+        <v>1.25</v>
+      </c>
+      <c r="AA195">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB195">
+        <v>1.02</v>
+      </c>
+      <c r="AC195">
+        <v>3.25</v>
+      </c>
+      <c r="AD195">
+        <v>2.75</v>
+      </c>
+      <c r="AE195">
+        <v>2.2</v>
+      </c>
+      <c r="AF195">
+        <v>1.1</v>
+      </c>
+      <c r="AG195">
+        <v>6.95</v>
+      </c>
+      <c r="AH195">
+        <v>1.5</v>
+      </c>
+      <c r="AI195">
+        <v>2.35</v>
+      </c>
+      <c r="AJ195">
+        <v>2.7</v>
+      </c>
+      <c r="AK195">
+        <v>1.44</v>
+      </c>
+      <c r="AL195">
+        <v>2.2</v>
+      </c>
+      <c r="AM195">
+        <v>1.62</v>
+      </c>
+      <c r="AN195">
+        <v>1.62</v>
+      </c>
+      <c r="AO195">
+        <v>1.35</v>
+      </c>
+      <c r="AP195">
+        <v>1.32</v>
+      </c>
+      <c r="AQ195">
+        <v>1.69</v>
+      </c>
+      <c r="AR195">
+        <v>2.15</v>
+      </c>
+      <c r="AS195">
+        <v>1.67</v>
+      </c>
+      <c r="AT195">
+        <v>2.11</v>
+      </c>
+      <c r="AU195">
+        <v>1.41</v>
+      </c>
+      <c r="AV195">
+        <v>1.05</v>
+      </c>
+      <c r="AW195">
+        <v>2.46</v>
+      </c>
+      <c r="AX195">
+        <v>0</v>
+      </c>
+      <c r="AY195">
+        <v>0</v>
+      </c>
+      <c r="AZ195">
+        <v>0</v>
+      </c>
+      <c r="BA195">
+        <v>0</v>
+      </c>
+      <c r="BB195">
+        <v>0</v>
+      </c>
+      <c r="BC195">
+        <v>0</v>
+      </c>
+      <c r="BD195">
+        <v>0</v>
+      </c>
+      <c r="BE195">
+        <v>0</v>
+      </c>
+      <c r="BF195">
+        <v>3</v>
+      </c>
+      <c r="BG195">
+        <v>5</v>
+      </c>
+      <c r="BH195">
+        <v>5</v>
+      </c>
+      <c r="BI195">
+        <v>2</v>
+      </c>
+      <c r="BJ195">
+        <v>8</v>
+      </c>
+      <c r="BK195">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Tunisia Ligue 1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,15 @@
     <t>['2', '7', '14', '60']</t>
   </si>
   <si>
+    <t>['86', '90+17']</t>
+  </si>
+  <si>
+    <t>['4', '18', '28', '38', '82']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['8', '11', '45', '65', '70']</t>
   </si>
   <si>
@@ -787,9 +796,6 @@
     <t>['41']</t>
   </si>
   <si>
-    <t>['39']</t>
-  </si>
-  <si>
     <t>['29', '90+4']</t>
   </si>
   <si>
@@ -800,6 +806,12 @@
   </si>
   <si>
     <t>['45', '55', '74']</t>
+  </si>
+  <si>
+    <t>['90+14']</t>
+  </si>
+  <si>
+    <t>['25', '32', '45+1', '51', '60', '66']</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK195"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2256,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT6">
         <v>0.57</v>
@@ -2360,7 +2372,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2551,7 +2563,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>11</v>
@@ -2638,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT8">
         <v>1.58</v>
@@ -3023,7 +3035,7 @@
         <v>1.58</v>
       </c>
       <c r="AT10">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3315,7 +3327,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3787,7 +3799,7 @@
         <v>0.86</v>
       </c>
       <c r="AT14">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0.83</v>
@@ -3888,7 +3900,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4079,7 +4091,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4270,7 +4282,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q17">
         <v>8</v>
@@ -4652,7 +4664,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4843,7 +4855,7 @@
         <v>81</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5315,7 +5327,7 @@
         <v>2.21</v>
       </c>
       <c r="AT22">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU22">
         <v>1.31</v>
@@ -5607,7 +5619,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>-1</v>
@@ -5798,7 +5810,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5885,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT25">
         <v>1.17</v>
@@ -5989,7 +6001,7 @@
         <v>81</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6079,7 +6091,7 @@
         <v>1.17</v>
       </c>
       <c r="AT26">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6840,7 +6852,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT30">
         <v>0.14</v>
@@ -7135,7 +7147,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7326,7 +7338,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7517,7 +7529,7 @@
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7604,7 +7616,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT34">
         <v>1.17</v>
@@ -7798,7 +7810,7 @@
         <v>1.33</v>
       </c>
       <c r="AT35">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU35">
         <v>0.72</v>
@@ -7989,7 +8001,7 @@
         <v>1.58</v>
       </c>
       <c r="AT36">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU36">
         <v>0.91</v>
@@ -8090,7 +8102,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -9045,7 +9057,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9132,10 +9144,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT42">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9326,7 +9338,7 @@
         <v>1.43</v>
       </c>
       <c r="AT43">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU43">
         <v>1.08</v>
@@ -9514,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT44">
         <v>0</v>
@@ -9618,7 +9630,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9708,7 +9720,7 @@
         <v>2.57</v>
       </c>
       <c r="AT45">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU45">
         <v>1.95</v>
@@ -10087,7 +10099,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT47">
         <v>1.57</v>
@@ -10191,7 +10203,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>8</v>
@@ -10469,10 +10481,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT49">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU49">
         <v>1.25</v>
@@ -10663,7 +10675,7 @@
         <v>1.67</v>
       </c>
       <c r="AT50">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU50">
         <v>1.71</v>
@@ -10851,7 +10863,7 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT51">
         <v>1</v>
@@ -11146,7 +11158,7 @@
         <v>81</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>-1</v>
@@ -11337,7 +11349,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11424,10 +11436,10 @@
         <v>0.33</v>
       </c>
       <c r="AS54">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT54">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU54">
         <v>1.4</v>
@@ -11615,7 +11627,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT55">
         <v>0.83</v>
@@ -11910,7 +11922,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11997,10 +12009,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT57">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU57">
         <v>1.83</v>
@@ -12292,7 +12304,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12573,7 +12585,7 @@
         <v>1.57</v>
       </c>
       <c r="AT60">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU60">
         <v>1.67</v>
@@ -12674,7 +12686,7 @@
         <v>81</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12761,7 +12773,7 @@
         <v>2</v>
       </c>
       <c r="AS61">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT61">
         <v>2</v>
@@ -12952,7 +12964,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT62">
         <v>0.67</v>
@@ -13334,10 +13346,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT64">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU64">
         <v>1.44</v>
@@ -13438,7 +13450,7 @@
         <v>81</v>
       </c>
       <c r="P65" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q65">
         <v>-1</v>
@@ -13528,7 +13540,7 @@
         <v>0.92</v>
       </c>
       <c r="AT65">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>1.52</v>
@@ -13629,7 +13641,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -13719,7 +13731,7 @@
         <v>1.43</v>
       </c>
       <c r="AT66">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU66">
         <v>1.08</v>
@@ -13820,7 +13832,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13907,7 +13919,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT67">
         <v>0.75</v>
@@ -14292,7 +14304,7 @@
         <v>1.67</v>
       </c>
       <c r="AT69">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU69">
         <v>1.53</v>
@@ -14584,7 +14596,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14775,7 +14787,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14862,7 +14874,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT72">
         <v>1.64</v>
@@ -14966,7 +14978,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q73">
         <v>-1</v>
@@ -15056,7 +15068,7 @@
         <v>1.75</v>
       </c>
       <c r="AT73">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU73">
         <v>1.16</v>
@@ -15244,7 +15256,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>0.67</v>
@@ -15348,7 +15360,7 @@
         <v>81</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>-1</v>
@@ -15438,7 +15450,7 @@
         <v>0.92</v>
       </c>
       <c r="AT75">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU75">
         <v>1.52</v>
@@ -15817,7 +15829,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT77">
         <v>0.14</v>
@@ -16303,7 +16315,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16685,7 +16697,7 @@
         <v>128</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>-1</v>
@@ -16775,7 +16787,7 @@
         <v>1.57</v>
       </c>
       <c r="AT82">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU82">
         <v>1.44</v>
@@ -16963,7 +16975,7 @@
         <v>0.6</v>
       </c>
       <c r="AS83">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT83">
         <v>1</v>
@@ -17067,7 +17079,7 @@
         <v>134</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>-1</v>
@@ -17345,7 +17357,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT85">
         <v>0.83</v>
@@ -17449,7 +17461,7 @@
         <v>136</v>
       </c>
       <c r="P86" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17536,10 +17548,10 @@
         <v>1.6</v>
       </c>
       <c r="AS86">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT86">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU86">
         <v>1.22</v>
@@ -17730,7 +17742,7 @@
         <v>1.17</v>
       </c>
       <c r="AT87">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU87">
         <v>0.99</v>
@@ -17918,7 +17930,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT88">
         <v>0.75</v>
@@ -18786,7 +18798,7 @@
         <v>139</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18977,7 +18989,7 @@
         <v>140</v>
       </c>
       <c r="P94" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19067,7 +19079,7 @@
         <v>0.86</v>
       </c>
       <c r="AT94">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU94">
         <v>1.07</v>
@@ -19359,7 +19371,7 @@
         <v>81</v>
       </c>
       <c r="P96" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19828,7 +19840,7 @@
         <v>0</v>
       </c>
       <c r="AS98">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT98">
         <v>0</v>
@@ -20019,10 +20031,10 @@
         <v>1.17</v>
       </c>
       <c r="AS99">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT99">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU99">
         <v>1.44</v>
@@ -20123,7 +20135,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>-1</v>
@@ -20314,7 +20326,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20401,10 +20413,10 @@
         <v>1.83</v>
       </c>
       <c r="AS101">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT101">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU101">
         <v>1.43</v>
@@ -20786,7 +20798,7 @@
         <v>1.33</v>
       </c>
       <c r="AT103">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU103">
         <v>0.89</v>
@@ -21168,7 +21180,7 @@
         <v>1.75</v>
       </c>
       <c r="AT105">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU105">
         <v>1.16</v>
@@ -21269,7 +21281,7 @@
         <v>81</v>
       </c>
       <c r="P106" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q106">
         <v>-1</v>
@@ -21460,7 +21472,7 @@
         <v>149</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21651,7 +21663,7 @@
         <v>150</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>-1</v>
@@ -21842,7 +21854,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q109">
         <v>-1</v>
@@ -22033,7 +22045,7 @@
         <v>152</v>
       </c>
       <c r="P110" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22415,7 +22427,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22502,7 +22514,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT112">
         <v>1.58</v>
@@ -22884,10 +22896,10 @@
         <v>1.71</v>
       </c>
       <c r="AS114">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AT114">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AU114">
         <v>2.46</v>
@@ -23075,10 +23087,10 @@
         <v>1.14</v>
       </c>
       <c r="AS115">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AT115">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU115">
         <v>1.16</v>
@@ -23179,7 +23191,7 @@
         <v>138</v>
       </c>
       <c r="P116" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23266,10 +23278,10 @@
         <v>2.21</v>
       </c>
       <c r="AS116">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AT116">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AU116">
         <v>1.29</v>
@@ -23457,10 +23469,10 @@
         <v>1.29</v>
       </c>
       <c r="AS117">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AT117">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AU117">
         <v>1.42</v>
@@ -23943,7 +23955,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>12</v>
@@ -24221,10 +24233,10 @@
         <v>1.8</v>
       </c>
       <c r="AS121">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT121">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AU121">
         <v>1.5</v>
@@ -24412,10 +24424,10 @@
         <v>2.13</v>
       </c>
       <c r="AS122">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AT122">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AU122">
         <v>1.41</v>
@@ -24516,7 +24528,7 @@
         <v>81</v>
       </c>
       <c r="P123" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q123">
         <v>-1</v>
@@ -24603,10 +24615,10 @@
         <v>1.8</v>
       </c>
       <c r="AS123">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AT123">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AU123">
         <v>1.44</v>
@@ -25471,7 +25483,7 @@
         <v>160</v>
       </c>
       <c r="P128" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q128">
         <v>-1</v>
@@ -26235,7 +26247,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26513,10 +26525,10 @@
         <v>2.13</v>
       </c>
       <c r="AS133">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AT133">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AU133">
         <v>2.2</v>
@@ -26704,10 +26716,10 @@
         <v>1.13</v>
       </c>
       <c r="AS134">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AT134">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AU134">
         <v>2.28</v>
@@ -26808,7 +26820,7 @@
         <v>165</v>
       </c>
       <c r="P135" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26895,10 +26907,10 @@
         <v>2.06</v>
       </c>
       <c r="AS135">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AT135">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AU135">
         <v>1.23</v>
@@ -27086,10 +27098,10 @@
         <v>1.06</v>
       </c>
       <c r="AS136">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AT136">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU136">
         <v>1.25</v>
@@ -27277,10 +27289,10 @@
         <v>2.19</v>
       </c>
       <c r="AS137">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AT137">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AU137">
         <v>1.44</v>
@@ -27468,10 +27480,10 @@
         <v>1.94</v>
       </c>
       <c r="AS138">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AT138">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AU138">
         <v>1.41</v>
@@ -27659,10 +27671,10 @@
         <v>1.59</v>
       </c>
       <c r="AS139">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT139">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AU139">
         <v>1.53</v>
@@ -27850,10 +27862,10 @@
         <v>2.24</v>
       </c>
       <c r="AS140">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AT140">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AU140">
         <v>2.17</v>
@@ -27954,7 +27966,7 @@
         <v>103</v>
       </c>
       <c r="P141" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28336,7 +28348,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q143">
         <v>-1</v>
@@ -28614,10 +28626,10 @@
         <v>1.82</v>
       </c>
       <c r="AS144">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AT144">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AU144">
         <v>1.39</v>
@@ -28805,10 +28817,10 @@
         <v>1.06</v>
       </c>
       <c r="AS145">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AT145">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AU145">
         <v>1.36</v>
@@ -28909,7 +28921,7 @@
         <v>173</v>
       </c>
       <c r="P146" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q146">
         <v>-1</v>
@@ -29569,10 +29581,10 @@
         <v>2.11</v>
       </c>
       <c r="AS149">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AT149">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AU149">
         <v>2.22</v>
@@ -29760,10 +29772,10 @@
         <v>2.11</v>
       </c>
       <c r="AS150">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT150">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AU150">
         <v>1.51</v>
@@ -29864,7 +29876,7 @@
         <v>175</v>
       </c>
       <c r="P151" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -29951,10 +29963,10 @@
         <v>1.83</v>
       </c>
       <c r="AS151">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AT151">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AU151">
         <v>1.26</v>
@@ -30055,7 +30067,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30142,10 +30154,10 @@
         <v>1.11</v>
       </c>
       <c r="AS152">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AT152">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU152">
         <v>1.36</v>
@@ -30333,10 +30345,10 @@
         <v>1.95</v>
       </c>
       <c r="AS153">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AT153">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AU153">
         <v>1.24</v>
@@ -30524,10 +30536,10 @@
         <v>2</v>
       </c>
       <c r="AS154">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AT154">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AU154">
         <v>2.13</v>
@@ -30628,7 +30640,7 @@
         <v>81</v>
       </c>
       <c r="P155" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q155">
         <v>-1</v>
@@ -31288,10 +31300,10 @@
         <v>1.63</v>
       </c>
       <c r="AS158">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AT158">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AU158">
         <v>1.32</v>
@@ -32052,10 +32064,10 @@
         <v>1.8</v>
       </c>
       <c r="AS162">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT162">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AU162">
         <v>1.51</v>
@@ -32243,10 +32255,10 @@
         <v>2.2</v>
       </c>
       <c r="AS163">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AT163">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AU163">
         <v>1.36</v>
@@ -33007,10 +33019,10 @@
         <v>1.85</v>
       </c>
       <c r="AS167">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AT167">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AU167">
         <v>1.35</v>
@@ -33198,10 +33210,10 @@
         <v>0.95</v>
       </c>
       <c r="AS168">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AT168">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AU168">
         <v>2.04</v>
@@ -33302,7 +33314,7 @@
         <v>81</v>
       </c>
       <c r="P169" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q169">
         <v>-1</v>
@@ -33389,10 +33401,10 @@
         <v>1.76</v>
       </c>
       <c r="AS169">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AT169">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AU169">
         <v>1.3</v>
@@ -33493,7 +33505,7 @@
         <v>184</v>
       </c>
       <c r="P170" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q170">
         <v>-1</v>
@@ -33580,10 +33592,10 @@
         <v>2.14</v>
       </c>
       <c r="AS170">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT170">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AU170">
         <v>1.48</v>
@@ -34066,7 +34078,7 @@
         <v>186</v>
       </c>
       <c r="P173" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="Q173">
         <v>-1</v>
@@ -34344,10 +34356,10 @@
         <v>1.81</v>
       </c>
       <c r="AS174">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AT174">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AU174">
         <v>1.36</v>
@@ -34535,10 +34547,10 @@
         <v>1.81</v>
       </c>
       <c r="AS175">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AT175">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AU175">
         <v>1.95</v>
@@ -34726,10 +34738,10 @@
         <v>1.18</v>
       </c>
       <c r="AS176">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AT176">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU176">
         <v>1.98</v>
@@ -34917,10 +34929,10 @@
         <v>0.86</v>
       </c>
       <c r="AS177">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AT177">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AU177">
         <v>1.24</v>
@@ -35108,10 +35120,10 @@
         <v>1.45</v>
       </c>
       <c r="AS178">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AT178">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AU178">
         <v>1.35</v>
@@ -35212,7 +35224,7 @@
         <v>191</v>
       </c>
       <c r="P179" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35299,10 +35311,10 @@
         <v>2</v>
       </c>
       <c r="AS179">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AT179">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AU179">
         <v>1.35</v>
@@ -35403,7 +35415,7 @@
         <v>192</v>
       </c>
       <c r="P180" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q180">
         <v>0</v>
@@ -35490,10 +35502,10 @@
         <v>1.91</v>
       </c>
       <c r="AS180">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AT180">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AU180">
         <v>1.3</v>
@@ -35681,10 +35693,10 @@
         <v>1.39</v>
       </c>
       <c r="AS181">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AT181">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AU181">
         <v>1.97</v>
@@ -35872,10 +35884,10 @@
         <v>2.13</v>
       </c>
       <c r="AS182">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AT182">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AU182">
         <v>1.32</v>
@@ -36063,10 +36075,10 @@
         <v>1.78</v>
       </c>
       <c r="AS183">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT183">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AU183">
         <v>1.48</v>
@@ -36254,10 +36266,10 @@
         <v>1.96</v>
       </c>
       <c r="AS184">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AT184">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AU184">
         <v>1.24</v>
@@ -36445,10 +36457,10 @@
         <v>1.79</v>
       </c>
       <c r="AS185">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AT185">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AU185">
         <v>1.93</v>
@@ -36636,10 +36648,10 @@
         <v>0.83</v>
       </c>
       <c r="AS186">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AT186">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AU186">
         <v>1.36</v>
@@ -36827,10 +36839,10 @@
         <v>1.21</v>
       </c>
       <c r="AS187">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AT187">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU187">
         <v>1.24</v>
@@ -36931,7 +36943,7 @@
         <v>156</v>
       </c>
       <c r="P188" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q188">
         <v>-1</v>
@@ -37018,10 +37030,10 @@
         <v>1.4</v>
       </c>
       <c r="AS188">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AT188">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AU188">
         <v>1.3</v>
@@ -37209,10 +37221,10 @@
         <v>1.76</v>
       </c>
       <c r="AS189">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AT189">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AU189">
         <v>1.32</v>
@@ -37400,10 +37412,10 @@
         <v>1.84</v>
       </c>
       <c r="AS190">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AT190">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AU190">
         <v>1.14</v>
@@ -37591,10 +37603,10 @@
         <v>1.16</v>
       </c>
       <c r="AS191">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AT191">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU191">
         <v>2</v>
@@ -37695,7 +37707,7 @@
         <v>160</v>
       </c>
       <c r="P192" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -37782,10 +37794,10 @@
         <v>1.81</v>
       </c>
       <c r="AS192">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AT192">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AU192">
         <v>1.24</v>
@@ -37973,10 +37985,10 @@
         <v>1.77</v>
       </c>
       <c r="AS193">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AT193">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AU193">
         <v>1.96</v>
@@ -38164,10 +38176,10 @@
         <v>0.77</v>
       </c>
       <c r="AS194">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT194">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AU194">
         <v>1.48</v>
@@ -38355,10 +38367,10 @@
         <v>2.15</v>
       </c>
       <c r="AS195">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AT195">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AU195">
         <v>1.41</v>
@@ -38410,6 +38422,770 @@
       </c>
       <c r="BK195">
         <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>5741394</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45107.52083333334</v>
+      </c>
+      <c r="F196">
+        <v>14</v>
+      </c>
+      <c r="G196" t="s">
+        <v>79</v>
+      </c>
+      <c r="H196" t="s">
+        <v>66</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>2</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>3</v>
+      </c>
+      <c r="O196" t="s">
+        <v>201</v>
+      </c>
+      <c r="P196" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q196">
+        <v>-1</v>
+      </c>
+      <c r="R196">
+        <v>-1</v>
+      </c>
+      <c r="S196">
+        <v>-1</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+      <c r="U196">
+        <v>0</v>
+      </c>
+      <c r="V196">
+        <v>0</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+      <c r="AB196">
+        <v>0</v>
+      </c>
+      <c r="AC196">
+        <v>1.73</v>
+      </c>
+      <c r="AD196">
+        <v>3</v>
+      </c>
+      <c r="AE196">
+        <v>5</v>
+      </c>
+      <c r="AF196">
+        <v>0</v>
+      </c>
+      <c r="AG196">
+        <v>0</v>
+      </c>
+      <c r="AH196">
+        <v>1.59</v>
+      </c>
+      <c r="AI196">
+        <v>2.23</v>
+      </c>
+      <c r="AJ196">
+        <v>2.88</v>
+      </c>
+      <c r="AK196">
+        <v>1.29</v>
+      </c>
+      <c r="AL196">
+        <v>0</v>
+      </c>
+      <c r="AM196">
+        <v>0</v>
+      </c>
+      <c r="AN196">
+        <v>0</v>
+      </c>
+      <c r="AO196">
+        <v>0</v>
+      </c>
+      <c r="AP196">
+        <v>0</v>
+      </c>
+      <c r="AQ196">
+        <v>1.74</v>
+      </c>
+      <c r="AR196">
+        <v>1.67</v>
+      </c>
+      <c r="AS196">
+        <v>1.79</v>
+      </c>
+      <c r="AT196">
+        <v>1.61</v>
+      </c>
+      <c r="AU196">
+        <v>1.96</v>
+      </c>
+      <c r="AV196">
+        <v>1.12</v>
+      </c>
+      <c r="AW196">
+        <v>3.08</v>
+      </c>
+      <c r="AX196">
+        <v>0</v>
+      </c>
+      <c r="AY196">
+        <v>0</v>
+      </c>
+      <c r="AZ196">
+        <v>0</v>
+      </c>
+      <c r="BA196">
+        <v>0</v>
+      </c>
+      <c r="BB196">
+        <v>0</v>
+      </c>
+      <c r="BC196">
+        <v>0</v>
+      </c>
+      <c r="BD196">
+        <v>0</v>
+      </c>
+      <c r="BE196">
+        <v>0</v>
+      </c>
+      <c r="BF196">
+        <v>7</v>
+      </c>
+      <c r="BG196">
+        <v>6</v>
+      </c>
+      <c r="BH196">
+        <v>10</v>
+      </c>
+      <c r="BI196">
+        <v>3</v>
+      </c>
+      <c r="BJ196">
+        <v>17</v>
+      </c>
+      <c r="BK196">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>5741392</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45107.52083333334</v>
+      </c>
+      <c r="F197">
+        <v>14</v>
+      </c>
+      <c r="G197" t="s">
+        <v>71</v>
+      </c>
+      <c r="H197" t="s">
+        <v>77</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>3</v>
+      </c>
+      <c r="K197">
+        <v>3</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>6</v>
+      </c>
+      <c r="N197">
+        <v>7</v>
+      </c>
+      <c r="O197" t="s">
+        <v>95</v>
+      </c>
+      <c r="P197" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q197">
+        <v>-1</v>
+      </c>
+      <c r="R197">
+        <v>-1</v>
+      </c>
+      <c r="S197">
+        <v>-1</v>
+      </c>
+      <c r="T197">
+        <v>0</v>
+      </c>
+      <c r="U197">
+        <v>0</v>
+      </c>
+      <c r="V197">
+        <v>0</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
+      </c>
+      <c r="AB197">
+        <v>0</v>
+      </c>
+      <c r="AC197">
+        <v>8.5</v>
+      </c>
+      <c r="AD197">
+        <v>4</v>
+      </c>
+      <c r="AE197">
+        <v>1.33</v>
+      </c>
+      <c r="AF197">
+        <v>0</v>
+      </c>
+      <c r="AG197">
+        <v>0</v>
+      </c>
+      <c r="AH197">
+        <v>0</v>
+      </c>
+      <c r="AI197">
+        <v>0</v>
+      </c>
+      <c r="AJ197">
+        <v>1.82</v>
+      </c>
+      <c r="AK197">
+        <v>1.96</v>
+      </c>
+      <c r="AL197">
+        <v>0</v>
+      </c>
+      <c r="AM197">
+        <v>0</v>
+      </c>
+      <c r="AN197">
+        <v>0</v>
+      </c>
+      <c r="AO197">
+        <v>0</v>
+      </c>
+      <c r="AP197">
+        <v>0</v>
+      </c>
+      <c r="AQ197">
+        <v>0.74</v>
+      </c>
+      <c r="AR197">
+        <v>1.93</v>
+      </c>
+      <c r="AS197">
+        <v>0.71</v>
+      </c>
+      <c r="AT197">
+        <v>1.96</v>
+      </c>
+      <c r="AU197">
+        <v>1.3</v>
+      </c>
+      <c r="AV197">
+        <v>1.34</v>
+      </c>
+      <c r="AW197">
+        <v>2.64</v>
+      </c>
+      <c r="AX197">
+        <v>0</v>
+      </c>
+      <c r="AY197">
+        <v>0</v>
+      </c>
+      <c r="AZ197">
+        <v>0</v>
+      </c>
+      <c r="BA197">
+        <v>0</v>
+      </c>
+      <c r="BB197">
+        <v>0</v>
+      </c>
+      <c r="BC197">
+        <v>0</v>
+      </c>
+      <c r="BD197">
+        <v>0</v>
+      </c>
+      <c r="BE197">
+        <v>0</v>
+      </c>
+      <c r="BF197">
+        <v>-1</v>
+      </c>
+      <c r="BG197">
+        <v>-1</v>
+      </c>
+      <c r="BH197">
+        <v>-1</v>
+      </c>
+      <c r="BI197">
+        <v>-1</v>
+      </c>
+      <c r="BJ197">
+        <v>-1</v>
+      </c>
+      <c r="BK197">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>5741393</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45107.52083333334</v>
+      </c>
+      <c r="F198">
+        <v>14</v>
+      </c>
+      <c r="G198" t="s">
+        <v>69</v>
+      </c>
+      <c r="H198" t="s">
+        <v>74</v>
+      </c>
+      <c r="I198">
+        <v>4</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>4</v>
+      </c>
+      <c r="L198">
+        <v>5</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>5</v>
+      </c>
+      <c r="O198" t="s">
+        <v>202</v>
+      </c>
+      <c r="P198" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q198">
+        <v>2</v>
+      </c>
+      <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
+        <v>4</v>
+      </c>
+      <c r="T198">
+        <v>0</v>
+      </c>
+      <c r="U198">
+        <v>0</v>
+      </c>
+      <c r="V198">
+        <v>0</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+      <c r="AB198">
+        <v>0</v>
+      </c>
+      <c r="AC198">
+        <v>1.36</v>
+      </c>
+      <c r="AD198">
+        <v>3.75</v>
+      </c>
+      <c r="AE198">
+        <v>9.5</v>
+      </c>
+      <c r="AF198">
+        <v>0</v>
+      </c>
+      <c r="AG198">
+        <v>0</v>
+      </c>
+      <c r="AH198">
+        <v>0</v>
+      </c>
+      <c r="AI198">
+        <v>0</v>
+      </c>
+      <c r="AJ198">
+        <v>2.7</v>
+      </c>
+      <c r="AK198">
+        <v>1.45</v>
+      </c>
+      <c r="AL198">
+        <v>0</v>
+      </c>
+      <c r="AM198">
+        <v>0</v>
+      </c>
+      <c r="AN198">
+        <v>0</v>
+      </c>
+      <c r="AO198">
+        <v>0</v>
+      </c>
+      <c r="AP198">
+        <v>0</v>
+      </c>
+      <c r="AQ198">
+        <v>2.11</v>
+      </c>
+      <c r="AR198">
+        <v>1.41</v>
+      </c>
+      <c r="AS198">
+        <v>2.14</v>
+      </c>
+      <c r="AT198">
+        <v>1.36</v>
+      </c>
+      <c r="AU198">
+        <v>1.1</v>
+      </c>
+      <c r="AV198">
+        <v>0.99</v>
+      </c>
+      <c r="AW198">
+        <v>2.09</v>
+      </c>
+      <c r="AX198">
+        <v>0</v>
+      </c>
+      <c r="AY198">
+        <v>0</v>
+      </c>
+      <c r="AZ198">
+        <v>0</v>
+      </c>
+      <c r="BA198">
+        <v>0</v>
+      </c>
+      <c r="BB198">
+        <v>0</v>
+      </c>
+      <c r="BC198">
+        <v>0</v>
+      </c>
+      <c r="BD198">
+        <v>0</v>
+      </c>
+      <c r="BE198">
+        <v>0</v>
+      </c>
+      <c r="BF198">
+        <v>7</v>
+      </c>
+      <c r="BG198">
+        <v>3</v>
+      </c>
+      <c r="BH198">
+        <v>4</v>
+      </c>
+      <c r="BI198">
+        <v>2</v>
+      </c>
+      <c r="BJ198">
+        <v>11</v>
+      </c>
+      <c r="BK198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>5741395</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45107.52083333334</v>
+      </c>
+      <c r="F199">
+        <v>14</v>
+      </c>
+      <c r="G199" t="s">
+        <v>80</v>
+      </c>
+      <c r="H199" t="s">
+        <v>78</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199" t="s">
+        <v>203</v>
+      </c>
+      <c r="P199" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q199">
+        <v>5</v>
+      </c>
+      <c r="R199">
+        <v>3</v>
+      </c>
+      <c r="S199">
+        <v>8</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+      <c r="U199">
+        <v>0</v>
+      </c>
+      <c r="V199">
+        <v>0</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+      <c r="AB199">
+        <v>0</v>
+      </c>
+      <c r="AC199">
+        <v>1.62</v>
+      </c>
+      <c r="AD199">
+        <v>3.1</v>
+      </c>
+      <c r="AE199">
+        <v>6</v>
+      </c>
+      <c r="AF199">
+        <v>0</v>
+      </c>
+      <c r="AG199">
+        <v>0</v>
+      </c>
+      <c r="AH199">
+        <v>1.57</v>
+      </c>
+      <c r="AI199">
+        <v>2.23</v>
+      </c>
+      <c r="AJ199">
+        <v>2.85</v>
+      </c>
+      <c r="AK199">
+        <v>1.41</v>
+      </c>
+      <c r="AL199">
+        <v>0</v>
+      </c>
+      <c r="AM199">
+        <v>0</v>
+      </c>
+      <c r="AN199">
+        <v>0</v>
+      </c>
+      <c r="AO199">
+        <v>0</v>
+      </c>
+      <c r="AP199">
+        <v>0</v>
+      </c>
+      <c r="AQ199">
+        <v>1.85</v>
+      </c>
+      <c r="AR199">
+        <v>1.19</v>
+      </c>
+      <c r="AS199">
+        <v>1.82</v>
+      </c>
+      <c r="AT199">
+        <v>1.18</v>
+      </c>
+      <c r="AU199">
+        <v>1.4</v>
+      </c>
+      <c r="AV199">
+        <v>1.23</v>
+      </c>
+      <c r="AW199">
+        <v>2.63</v>
+      </c>
+      <c r="AX199">
+        <v>0</v>
+      </c>
+      <c r="AY199">
+        <v>0</v>
+      </c>
+      <c r="AZ199">
+        <v>0</v>
+      </c>
+      <c r="BA199">
+        <v>0</v>
+      </c>
+      <c r="BB199">
+        <v>0</v>
+      </c>
+      <c r="BC199">
+        <v>0</v>
+      </c>
+      <c r="BD199">
+        <v>0</v>
+      </c>
+      <c r="BE199">
+        <v>0</v>
+      </c>
+      <c r="BF199">
+        <v>2</v>
+      </c>
+      <c r="BG199">
+        <v>3</v>
+      </c>
+      <c r="BH199">
+        <v>1</v>
+      </c>
+      <c r="BI199">
+        <v>8</v>
+      </c>
+      <c r="BJ199">
+        <v>3</v>
+      </c>
+      <c r="BK199">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
